--- a/next_semester_gpa_prediction/TotalResults/next_semest_gpa_prediction_results.xlsx
+++ b/next_semester_gpa_prediction/TotalResults/next_semest_gpa_prediction_results.xlsx
@@ -12,9 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -88,6 +92,39 @@
   <si>
     <t>ZEROR-nrms calc</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of GBT-residual</t>
+  </si>
+  <si>
+    <t>Sum of LR-residual</t>
+  </si>
+  <si>
+    <t>Sum of MLPR-residual</t>
+  </si>
+  <si>
+    <t>Sum of ZEROR-residual</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>normalized GBT</t>
+  </si>
+  <si>
+    <t>normalized LR</t>
+  </si>
+  <si>
+    <t>normalized MLPR</t>
+  </si>
+  <si>
+    <t>normalized ZEROR</t>
+  </si>
 </sst>
 </file>
 
@@ -122,8 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +181,8608 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Evan L Majerus" refreshedDate="43662.472641319444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="561">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:M562" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="10693"/>
+    </cacheField>
+    <cacheField name="prev term" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
+    </cacheField>
+    <cacheField name="next term" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="14" count="13">
+        <n v="7"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="6"/>
+        <n v="8"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="9"/>
+        <n v="11"/>
+        <n v="10"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prev term gpa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="next term gpa" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4"/>
+    </cacheField>
+    <cacheField name="GBT-next term gpa prediction" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.59904023993008" maxValue="3.50356822749551"/>
+    </cacheField>
+    <cacheField name="LR-next term gpa prediction" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.43456834314977399" maxValue="3.6161839256134898"/>
+    </cacheField>
+    <cacheField name="MLPR-next term gpa prediction" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.31303282023963" maxValue="3.88020336029457"/>
+    </cacheField>
+    <cacheField name="ZEROR-next term gpa prediction" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.602377916" maxValue="2.631167112"/>
+    </cacheField>
+    <cacheField name="GBT-residual" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.2626705146251193E-5" maxValue="5.9389608847998874"/>
+    </cacheField>
+    <cacheField name="LR-residual" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0312774285969975E-6" maxValue="7.3866107747837031"/>
+    </cacheField>
+    <cacheField name="MLPR-residual" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.9814028274111016E-8" maxValue="6.5361115603192044"/>
+    </cacheField>
+    <cacheField name="ZEROR-residual" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.6544845030556408E-6" maxValue="6.92304037127042"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="561">
+  <r>
+    <n v="68"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="1.5"/>
+    <n v="2.6749999999999998"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.7018562469001901"/>
+    <n v="1.63679712430716"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.0112792839684206"/>
+    <n v="0.94700876419718338"/>
+    <n v="1.0778652110968823"/>
+    <n v="2.0949405010704035E-3"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.4"/>
+    <n v="2.7666666700000002"/>
+    <n v="3.3302262343339701"/>
+    <n v="3.1160714371877298"/>
+    <n v="3.17849689933702"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.31759938255229397"/>
+    <n v="0.12208369133351153"/>
+    <n v="0.16960413779578226"/>
+    <n v="1.888898119509622E-2"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1.75"/>
+    <n v="2.7835341341706701"/>
+    <n v="2.8183419234429801"/>
+    <n v="2.79411077067047"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.0681928064959167"/>
+    <n v="1.1413544653858463"/>
+    <n v="1.0901673014300828"/>
+    <n v="0.77304447850107005"/>
+  </r>
+  <r>
+    <n v="276"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.8615384599999998"/>
+    <n v="3.65714286"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.4596054918521202"/>
+    <n v="3.6220193559342402"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.2322402750881572E-2"/>
+    <n v="3.9021011814791E-2"/>
+    <n v="1.2336605378574462E-3"/>
+    <n v="1.0566059167830248"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.56266570780484"/>
+    <n v="3.7550760923368398"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.27315409871396684"/>
+    <n v="0.19126128312984156"/>
+    <n v="5.9987720544992219E-2"/>
+    <n v="1.8790118185010709"/>
+  </r>
+  <r>
+    <n v="411"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.1625000000000001"/>
+    <n v="1.72941177"/>
+    <n v="3.1124060703285301"/>
+    <n v="2.9392945384017799"/>
+    <n v="2.9502676354412598"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.9126732347412005"/>
+    <n v="1.4638163132755548"/>
+    <n v="1.4904890441823275"/>
+    <n v="0.80967191122964366"/>
+  </r>
+  <r>
+    <n v="488"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.8"/>
+    <n v="2.21764706"/>
+    <n v="2.4243493719021001"/>
+    <n v="2.6694771665706098"/>
+    <n v="2.6019251320975498"/>
+    <n v="2.6292294799999998"/>
+    <n v="4.272584574567307E-2"/>
+    <n v="0.20415044520360864"/>
+    <n v="0.14766963669500971"/>
+    <n v="0.16940008845305621"/>
+  </r>
+  <r>
+    <n v="554"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.4857142900000002"/>
+    <n v="2.7239673580748698"/>
+    <n v="2.7625176396158402"/>
+    <n v="2.7220383715455001"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.6764524447088432E-2"/>
+    <n v="7.6620094358548926E-2"/>
+    <n v="5.5849071518324078E-2"/>
+    <n v="2.0596609760735976E-2"/>
+  </r>
+  <r>
+    <n v="585"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.5"/>
+    <n v="2.8125"/>
+    <n v="2.2976116966938398"/>
+    <n v="2.4461800312620499"/>
+    <n v="2.3148887153902802"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.26510996488149641"/>
+    <n v="0.13419031949617277"/>
+    <n v="0.24761699057093559"/>
+    <n v="3.3588083501070481E-2"/>
+  </r>
+  <r>
+    <n v="645"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.75"/>
+    <n v="3.8"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.3765847617143798"/>
+    <n v="3.5148347619202398"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.10409751356479068"/>
+    <n v="0.17928046401246836"/>
+    <n v="8.1319213009086219E-2"/>
+    <n v="1.3707036105010706"/>
+  </r>
+  <r>
+    <n v="674"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.96428571"/>
+    <n v="2.4500000000000002"/>
+    <n v="2.7755315260332001"/>
+    <n v="2.7917589309316799"/>
+    <n v="2.7597905803364"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.10597077444150391"/>
+    <n v="0.11679916687156465"/>
+    <n v="9.5970203665163401E-2"/>
+    <n v="3.2123206501070256E-2"/>
+  </r>
+  <r>
+    <n v="698"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.62142857"/>
+    <n v="2.8875000000000002"/>
+    <n v="2.4130769766633402"/>
+    <n v="2.5365622047584302"/>
+    <n v="2.4305766022656101"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.22507720507189702"/>
+    <n v="0.1231573361290141"/>
+    <n v="0.2087789913971396"/>
+    <n v="6.6703661501070599E-2"/>
+  </r>
+  <r>
+    <n v="711"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.3624999999999998"/>
+    <n v="3.2117647100000002"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.3438355109122999"/>
+    <n v="2.1919832647016602"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.1603989810815425"/>
+    <n v="0.75330109462901684"/>
+    <n v="1.0399541961747714"/>
+    <n v="0.33934729419115339"/>
+  </r>
+  <r>
+    <n v="733"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.3187500000000001"/>
+    <n v="3.26"/>
+    <n v="3.3184578890531098"/>
+    <n v="3.0555951297083199"/>
+    <n v="3.1004184669516301"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.4173247925457181E-3"/>
+    <n v="4.1781350998958466E-2"/>
+    <n v="2.546626569006789E-2"/>
+    <n v="0.3978714489010704"/>
+  </r>
+  <r>
+    <n v="800"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.42777778"/>
+    <n v="3.1166666699999999"/>
+    <n v="3.4128468238552698"/>
+    <n v="3.1367470980298502"/>
+    <n v="3.20519038070797"/>
+    <n v="2.6292294799999998"/>
+    <n v="8.7722683537731383E-2"/>
+    <n v="4.0322358986199873E-4"/>
+    <n v="7.8364473575083908E-3"/>
+    <n v="0.23759501419509618"/>
+  </r>
+  <r>
+    <n v="1078"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.25"/>
+    <n v="2.9153846099999998"/>
+    <n v="3.2145963290356301"/>
+    <n v="3.0044228695334501"/>
+    <n v="3.0343521010870602"/>
+    <n v="2.6292294799999998"/>
+    <n v="8.9527652808256947E-2"/>
+    <n v="7.9278116607460428E-3"/>
+    <n v="1.4153263935549795E-2"/>
+    <n v="8.1884758425316923E-2"/>
+  </r>
+  <r>
+    <n v="1186"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.3333333299999999"/>
+    <n v="2.25"/>
+    <n v="3.3302262343339701"/>
+    <n v="3.0664498513154901"/>
+    <n v="3.11443254423894"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.1668887173433493"/>
+    <n v="0.66659035971308589"/>
+    <n v="0.74724362353940699"/>
+    <n v="0.14381499850107024"/>
+  </r>
+  <r>
+    <n v="1225"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.2266666700000002"/>
+    <n v="2.56470588"/>
+    <n v="2.1289926890138902"/>
+    <n v="2.2427315304512501"/>
+    <n v="2.0752121014570299"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.18984598479929823"/>
+    <n v="0.1036674817673406"/>
+    <n v="0.23960415923227421"/>
+    <n v="4.1632949569599736E-3"/>
+  </r>
+  <r>
+    <n v="1378"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.25"/>
+    <n v="1.825"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.5157753008097301"/>
+    <n v="1.6002051505434001"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.4218775922936003E-2"/>
+    <n v="9.5619914589312877E-2"/>
+    <n v="5.053272434221541E-2"/>
+    <n v="0.6467850565010701"/>
+  </r>
+  <r>
+    <n v="1423"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.25"/>
+    <n v="2.5249999999999999"/>
+    <n v="2.1328869598281299"/>
+    <n v="2.2600990851715901"/>
+    <n v="2.0952709513476102"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.15375263627282654"/>
+    <n v="7.0172494676928432E-2"/>
+    <n v="0.18466705525568791"/>
+    <n v="1.0863784501070374E-2"/>
+  </r>
+  <r>
+    <n v="1496"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.2533333299999998"/>
+    <n v="2.78"/>
+    <n v="3.2145963290356301"/>
+    <n v="3.0069039485665399"/>
+    <n v="3.0375553185056301"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.18887396921124583"/>
+    <n v="5.1485401875087058E-2"/>
+    <n v="6.6334742090536664E-2"/>
+    <n v="2.2731749701070406E-2"/>
+  </r>
+  <r>
+    <n v="1575"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.85"/>
+    <n v="3.0071428600000001"/>
+    <n v="1.6741969297250101"/>
+    <n v="1.9623695714268401"/>
+    <n v="1.75524991477115"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.7767448530366585"/>
+    <n v="1.0915512245159755"/>
+    <n v="1.5672359463137646"/>
+    <n v="0.14281852278302462"/>
+  </r>
+  <r>
+    <n v="1576"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.41764706"/>
+    <n v="0"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.64055899420175"/>
+    <n v="1.62486005103686"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.7868168027664537"/>
+    <n v="2.6914338134562574"/>
+    <n v="2.6401701854555073"/>
+    <n v="6.912847658501069"/>
+  </r>
+  <r>
+    <n v="1614"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.375"/>
+    <n v="3.2"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.35313955821682"/>
+    <n v="2.20272907729656"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.1351910707806587"/>
+    <n v="0.71717260785720316"/>
+    <n v="0.99454929326977104"/>
+    <n v="0.32577898650107084"/>
+  </r>
+  <r>
+    <n v="1704"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.9"/>
+    <n v="3.85"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.4882333293686498"/>
+    <n v="3.6589795601702"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.13886165985208487"/>
+    <n v="0.13087512397969187"/>
+    <n v="3.6488808432770282E-2"/>
+    <n v="1.4902806625010712"/>
+  </r>
+  <r>
+    <n v="1775"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2.4705882400000001"/>
+    <n v="2.7835341341706701"/>
+    <n v="2.8183419234429801"/>
+    <n v="2.79411077067047"/>
+    <n v="2.6292294799999998"/>
+    <n v="9.7935132678280176E-2"/>
+    <n v="0.12093262434816032"/>
+    <n v="0.10466682785142513"/>
+    <n v="2.5167043028737499E-2"/>
+  </r>
+  <r>
+    <n v="1833"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.92307692"/>
+    <n v="0.61538461"/>
+    <n v="1.71422884153465"/>
+    <n v="2.0167624633037202"/>
+    <n v="1.81569202858755"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.2074586451769755"/>
+    <n v="1.9638598877301432"/>
+    <n v="1.4407378991163078"/>
+    <n v="4.0555711604253162"/>
+  </r>
+  <r>
+    <n v="1891"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.22"/>
+    <n v="2.3199999999999998"/>
+    <n v="3.1695142804586398"/>
+    <n v="2.9820931560025898"/>
+    <n v="3.00552314143708"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.72167451270316085"/>
+    <n v="0.43836734722546999"/>
+    <n v="0.46994197744576299"/>
+    <n v="9.5622871301070361E-2"/>
+  </r>
+  <r>
+    <n v="1954"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.2437499999999999"/>
+    <n v="3.08"/>
+    <n v="3.2042135478881102"/>
+    <n v="2.99977084588118"/>
+    <n v="3.0283460678266501"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.5429005478951827E-2"/>
+    <n v="6.4367171706213779E-3"/>
+    <n v="2.6681287089690437E-3"/>
+    <n v="0.20319406170107066"/>
+  </r>
+  <r>
+    <n v="2125"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.3538461499999999"/>
+    <n v="2.06666667"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.3373942475082901"/>
+    <n v="2.18454385611438"/>
+    <n v="2.6292294799999998"/>
+    <n v="4.6076770471690717E-3"/>
+    <n v="7.3293421223507182E-2"/>
+    <n v="1.3895031006244162E-2"/>
+    <n v="0.3164769151950958"/>
+  </r>
+  <r>
+    <n v="2145"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="2.3250000000000002"/>
+    <n v="2.2799999999999998"/>
+    <n v="2.1145917200905702"/>
+    <n v="2.31592336899873"/>
+    <n v="2.1597458269169798"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.7359899062596223E-2"/>
+    <n v="1.2904884402189275E-3"/>
+    <n v="1.4461066143880931E-2"/>
+    <n v="0.12196122970107039"/>
+  </r>
+  <r>
+    <n v="2208"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.1749999999999998"/>
+    <n v="2.5249999999999999"/>
+    <n v="3.13169473675935"/>
+    <n v="2.9485985857063102"/>
+    <n v="2.9622797019620899"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.36807850361149702"/>
+    <n v="0.17943576181238627"/>
+    <n v="0.19121353774805425"/>
+    <n v="1.0863784501070374E-2"/>
+  </r>
+  <r>
+    <n v="2433"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1.82975846005156"/>
+    <n v="2.0740181390811201"/>
+    <n v="1.88035478032176"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.8982181924016307E-2"/>
+    <n v="5.4786849130320373E-3"/>
+    <n v="1.4314978591854318E-2"/>
+    <n v="0.39592973850107011"/>
+  </r>
+  <r>
+    <n v="2450"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.75"/>
+    <n v="1.4117647099999999"/>
+    <n v="2.4268339756327002"/>
+    <n v="2.6322609773525198"/>
+    <n v="2.55388030678807"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.0303656140321094"/>
+    <n v="1.4896111386214339"/>
+    <n v="1.3044280364265695"/>
+    <n v="1.4822204661911527"/>
+  </r>
+  <r>
+    <n v="2455"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.8666666699999999"/>
+    <n v="3.6"/>
+    <n v="2.58061318960389"/>
+    <n v="2.7190987524428398"/>
+    <n v="2.6659848994971602"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.0391494692095549"/>
+    <n v="0.77598700794776132"/>
+    <n v="0.87238420796733007"/>
+    <n v="0.94239540250107101"/>
+  </r>
+  <r>
+    <n v="2545"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.0588235300000002"/>
+    <n v="3.0625"/>
+    <n v="3.0282668356614799"/>
+    <n v="2.8621256751577802"/>
+    <n v="2.8506381421375102"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.1719095406281233E-3"/>
+    <n v="4.0149870055975437E-2"/>
+    <n v="4.4885446816945826E-2"/>
+    <n v="0.18772334350107059"/>
+  </r>
+  <r>
+    <n v="2638"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.43333333"/>
+    <n v="1.8"/>
+    <n v="2.1946003593157202"/>
+    <n v="2.3965584453898199"/>
+    <n v="2.2530463411231598"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.15570944357209543"/>
+    <n v="0.35588197876591865"/>
+    <n v="0.20525098720508245"/>
+    <n v="0.68762153050107"/>
+  </r>
+  <r>
+    <n v="2690"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.3357142899999999"/>
+    <n v="0.28571428999999998"/>
+    <n v="2.12642877146923"/>
+    <n v="2.3238982669009798"/>
+    <n v="2.1689565236725099"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.3882298022905362"/>
+    <n v="4.1541939236958934"/>
+    <n v="3.5466013106878242"/>
+    <n v="5.4920634457607349"/>
+  </r>
+  <r>
+    <n v="2694"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.27058823"/>
+    <n v="3.3374999999999999"/>
+    <n v="2.1267776003640599"/>
+    <n v="2.27542339816012"/>
+    <n v="2.1129699365451802"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.4658487289802087"/>
+    <n v="1.128006708175747"/>
+    <n v="1.4994738763046649"/>
+    <n v="0.5016471295010706"/>
+  </r>
+  <r>
+    <n v="2922"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.8"/>
+    <n v="0.30769231000000002"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.9251533822087501"/>
+    <n v="1.7207121299663499"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.8541829393175768"/>
+    <n v="2.6161803201106797"/>
+    <n v="1.996625011617736"/>
+    <n v="5.3895348316916074"/>
+  </r>
+  <r>
+    <n v="3014"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.1933333300000002"/>
+    <n v="3"/>
+    <n v="3.1504737931486702"/>
+    <n v="2.9622445215048301"/>
+    <n v="2.9798973992056501"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.2642362424548774E-2"/>
+    <n v="1.4254761563992379E-3"/>
+    <n v="4.0411455869699683E-4"/>
+    <n v="0.13747077850107056"/>
+  </r>
+  <r>
+    <n v="3150"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.3529411800000002"/>
+    <n v="1.69230769"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.3367206508585698"/>
+    <n v="2.1837658781951301"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.1955752023774574"/>
+    <n v="0.41526806412250861"/>
+    <n v="0.24153115074403991"/>
+    <n v="0.87782244057680359"/>
+  </r>
+  <r>
+    <n v="3218"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.4750000000000001"/>
+    <n v="2.4874999999999998"/>
+    <n v="2.28684031407664"/>
+    <n v="2.4275719366530102"/>
+    <n v="2.29121749751301"/>
+    <n v="2.6292294799999998"/>
+    <n v="4.0264309554861405E-2"/>
+    <n v="3.5913727765208027E-3"/>
+    <n v="3.8526820782555184E-2"/>
+    <n v="2.008724550107039E-2"/>
+  </r>
+  <r>
+    <n v="3283"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.1588235299999998"/>
+    <n v="2.0166666700000002"/>
+    <n v="2.1084836931259199"/>
+    <n v="2.19223426923211"/>
+    <n v="2.01688972971322"/>
+    <n v="2.6292294799999998"/>
+    <n v="8.4303657357056652E-3"/>
+    <n v="3.0823981900126699E-2"/>
+    <n v="4.9755635661693375E-8"/>
+    <n v="0.3752331961950956"/>
+  </r>
+  <r>
+    <n v="3313"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="1.375"/>
+    <n v="1.8642857100000001"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.60881577385496"/>
+    <n v="1.61867835234019"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.7989728105525547E-2"/>
+    <n v="6.5264888273950869E-2"/>
+    <n v="6.0322974136633886E-2"/>
+    <n v="0.58513897126181247"/>
+  </r>
+  <r>
+    <n v="3337"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.2687499999999998"/>
+    <n v="1.12857143"/>
+    <n v="2.1267776003640599"/>
+    <n v="2.2740551561283699"/>
+    <n v="2.1113896702399502"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.99641555855288255"/>
+    <n v="1.3121329668249344"/>
+    <n v="0.96593169334835227"/>
+    <n v="2.2519745830298019"/>
+  </r>
+  <r>
+    <n v="3460"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.3266666699999998"/>
+    <n v="0.42499999999999999"/>
+    <n v="2.1145917200905702"/>
+    <n v="2.3171639088874398"/>
+    <n v="2.1611786022161898"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.8547201805986115"/>
+    <n v="3.5802842580961958"/>
+    <n v="3.0143161387933626"/>
+    <n v="4.8586276005010705"/>
+  </r>
+  <r>
+    <n v="3633"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.3235294099999999"/>
+    <n v="3.0882352900000001"/>
+    <n v="3.3225658944660701"/>
+    <n v="3.0591525597351898"/>
+    <n v="3.1050113161415802"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.4910832189433753E-2"/>
+    <n v="8.4580519965570889E-4"/>
+    <n v="2.8143505310298009E-4"/>
+    <n v="0.21068633361375635"/>
+  </r>
+  <r>
+    <n v="3787"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.53125"/>
+    <n v="3.3812500000000001"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.21376393388522"/>
+    <n v="3.3046235978057301"/>
+    <n v="2.6292294799999998"/>
+    <n v="9.2368509087034315E-3"/>
+    <n v="2.8051582342604499E-2"/>
+    <n v="5.8716055132380218E-3"/>
+    <n v="0.56553486250107088"/>
+  </r>
+  <r>
+    <n v="3795"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.625"/>
+    <n v="2.6749999999999998"/>
+    <n v="2.4130769766633402"/>
+    <n v="2.5392205043072802"/>
+    <n v="2.43399839390761"/>
+    <n v="2.6292294799999998"/>
+    <n v="6.860367015381634E-2"/>
+    <n v="1.8436071450569268E-2"/>
+    <n v="5.808177413911144E-2"/>
+    <n v="2.0949405010704035E-3"/>
+  </r>
+  <r>
+    <n v="4076"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.3624999999999998"/>
+    <n v="2.85"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.3438355109122999"/>
+    <n v="2.1919832647016602"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.51187365030663745"/>
+    <n v="0.25620249001341255"/>
+    <n v="0.43298602393268554"/>
+    <n v="4.8739622501070536E-2"/>
+  </r>
+  <r>
+    <n v="4133"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.5235294100000001"/>
+    <n v="2.51176471"/>
+    <n v="2.2964860490881698"/>
+    <n v="2.4636935322457001"/>
+    <n v="2.3371675089093298"/>
+    <n v="2.6292294799999998"/>
+    <n v="4.6344901843990781E-2"/>
+    <n v="2.3108381306854997E-3"/>
+    <n v="3.0484182628695938E-2"/>
+    <n v="1.3797972191152847E-2"/>
+  </r>
+  <r>
+    <n v="4135"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.04"/>
+    <n v="2.6923076899999998"/>
+    <n v="1.8570138782427701"/>
+    <n v="2.1037910904556001"/>
+    <n v="1.9147413279769401"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.6977157519599223"/>
+    <n v="0.34635178793930332"/>
+    <n v="0.60460944734977595"/>
+    <n v="3.9788605768041026E-3"/>
+  </r>
+  <r>
+    <n v="4193"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.26"/>
+    <n v="3.46"/>
+    <n v="3.2752631330384498"/>
+    <n v="3.0118661073770698"/>
+    <n v="3.0439617543037301"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.4127710014769469E-2"/>
+    <n v="0.20082398571737986"/>
+    <n v="0.17308782188202984"/>
+    <n v="0.69017965690107075"/>
+  </r>
+  <r>
+    <n v="4240"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.08"/>
+    <n v="2.8"/>
+    <n v="3.0900416456844599"/>
+    <n v="2.8778878261919298"/>
+    <n v="2.8709879964037799"/>
+    <n v="2.6292294799999998"/>
+    <n v="8.4124156231349903E-2"/>
+    <n v="6.0665134689042999E-3"/>
+    <n v="5.0392956334230909E-3"/>
+    <n v="2.9162570501070413E-2"/>
+  </r>
+  <r>
+    <n v="4277"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.9437500000000001"/>
+    <n v="4"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.5207974949344898"/>
+    <n v="3.7010217929931"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.27315409871396684"/>
+    <n v="0.22963504086106035"/>
+    <n v="8.9387968265060763E-2"/>
+    <n v="1.8790118185010709"/>
+  </r>
+  <r>
+    <n v="4368"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.7615384599999999"/>
+    <n v="1.925"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.89652554469221"/>
+    <n v="1.6999798679040901"/>
+    <n v="2.6292294799999998"/>
+    <n v="6.5343541575346026E-2"/>
+    <n v="8.1079460507533152E-4"/>
+    <n v="5.0634059848460783E-2"/>
+    <n v="0.49593916050107001"/>
+  </r>
+  <r>
+    <n v="4678"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.4249999999999998"/>
+    <n v="3.25"/>
+    <n v="2.1861803102149602"/>
+    <n v="2.39035574743491"/>
+    <n v="2.2457807183424099"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.1317123323743383"/>
+    <n v="0.73898824096819227"/>
+    <n v="1.0084563656528862"/>
+    <n v="0.38535603850107064"/>
+  </r>
+  <r>
+    <n v="4727"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1.6693761717379501"/>
+    <n v="0.58537057035741102"/>
+    <n v="1.8646698201193399"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.7868168027664537"/>
+    <n v="0.3426587046405607"/>
+    <n v="3.4769935380638914"/>
+    <n v="6.912847658501069"/>
+  </r>
+  <r>
+    <n v="5019"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="2.27857143"/>
+    <n v="2.7835341341706701"/>
+    <n v="2.8183419234429801"/>
+    <n v="2.79411077067047"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.25498733260335571"/>
+    <n v="0.29135218559167825"/>
+    <n v="0.26578081177894297"/>
+    <n v="0.12296106802980238"/>
+  </r>
+  <r>
+    <n v="5086"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.6875"/>
+    <n v="2.78"/>
+    <n v="2.4370907000633499"/>
+    <n v="2.5857407408299"/>
+    <n v="2.4938797404568098"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.1175867879830433"/>
+    <n v="3.7736659773316E-2"/>
+    <n v="8.1864802921062393E-2"/>
+    <n v="2.2731749701070406E-2"/>
+  </r>
+  <r>
+    <n v="5108"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.75"/>
+    <n v="2.0714285700000001"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.8879371929906601"/>
+    <n v="1.6937752894566001"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.16164613094826613"/>
+    <n v="3.3669085436783763E-2"/>
+    <n v="0.14262200030519204"/>
+    <n v="0.31114185519682769"/>
+  </r>
+  <r>
+    <n v="5299"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.68"/>
+    <n v="3.82"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.3244820968090498"/>
+    <n v="3.4475671894036002"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.11740317207970828"/>
+    <n v="0.2455379923827557"/>
+    <n v="0.13870619840873369"/>
+    <n v="1.4179344313010704"/>
+  </r>
+  <r>
+    <n v="5370"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.4615384599999999"/>
+    <n v="2.8466666699999998"/>
+    <n v="2.23557064212573"/>
+    <n v="2.41755219374551"/>
+    <n v="2.2784714575545602"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.37343835528371039"/>
+    <n v="0.18413923373116511"/>
+    <n v="0.32284579944591835"/>
+    <n v="4.7278931595096128E-2"/>
+  </r>
+  <r>
+    <n v="5611"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="2.0733333300000001"/>
+    <n v="1.9437500000000001"/>
+    <n v="1.8683366017363701"/>
+    <n v="2.1286018830195501"/>
+    <n v="1.94339679971988"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.687180637668876E-3"/>
+    <n v="3.4170218655873406E-2"/>
+    <n v="1.2475043787691127E-7"/>
+    <n v="0.46988211750107001"/>
+  </r>
+  <r>
+    <n v="5629"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0437500000000002"/>
+    <n v="3.39230769"/>
+    <n v="2.9594009981706599"/>
+    <n v="2.8509060890088098"/>
+    <n v="2.8361530034933802"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.1874082038306232"/>
+    <n v="0.2931156935558239"/>
+    <n v="0.30930803532327655"/>
+    <n v="0.58228835457680439"/>
+  </r>
+  <r>
+    <n v="5673"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.2"/>
+    <n v="3.25"/>
+    <n v="3.1695142804586398"/>
+    <n v="2.9672066803153498"/>
+    <n v="2.9863038350037501"/>
+    <n v="2.6292294799999998"/>
+    <n v="6.4779510500904899E-3"/>
+    <n v="7.9972061658264745E-2"/>
+    <n v="6.9535667433729464E-2"/>
+    <n v="0.38535603850107064"/>
+  </r>
+  <r>
+    <n v="5740"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.0833333299999999"/>
+    <n v="2.5625"/>
+    <n v="1.87713657272614"/>
+    <n v="2.1360451208631699"/>
+    <n v="1.95199344979579"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.46972302744457162"/>
+    <n v="0.18186376393960837"/>
+    <n v="0.37271824784224555"/>
+    <n v="4.4528235010703717E-3"/>
+  </r>
+  <r>
+    <n v="5843"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4"/>
+    <n v="2.54"/>
+    <n v="2.1331126799203499"/>
+    <n v="2.3717476528258699"/>
+    <n v="2.2242207024863498"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.16555729124159965"/>
+    <n v="2.8308852329604031E-2"/>
+    <n v="9.97165647382144E-2"/>
+    <n v="7.9619001010703561E-3"/>
+  </r>
+  <r>
+    <n v="5896"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="0.92307691999999997"/>
+    <n v="0"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.27243867894187"/>
+    <n v="1.5467708141863099"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.7868168027664537"/>
+    <n v="1.6191001916673313"/>
+    <n v="2.3924999516185799"/>
+    <n v="6.912847658501069"/>
+  </r>
+  <r>
+    <n v="5977"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.1538461499999999"/>
+    <n v="1.6466666700000001"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.4442057062740601"/>
+    <n v="1.5817607593762699"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.157214691859515E-4"/>
+    <n v="4.09904418328364E-2"/>
+    <n v="4.2127772338956511E-3"/>
+    <n v="0.96542967559509552"/>
+  </r>
+  <r>
+    <n v="5987"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.2777777800000001"/>
+    <n v="3.5"/>
+    <n v="3.2938055279210698"/>
+    <n v="3.02509853037557"/>
+    <n v="3.0610455824580201"/>
+    <n v="2.6292294799999998"/>
+    <n v="4.2516160315908706E-2"/>
+    <n v="0.22553140585144343"/>
+    <n v="0.19268098067961886"/>
+    <n v="0.7582412985010708"/>
+  </r>
+  <r>
+    <n v="6009"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.0625"/>
+    <n v="3.06470588"/>
+    <n v="1.8527878883105"/>
+    <n v="2.1205383756037399"/>
+    <n v="1.93408376242419"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.4687452185807111"/>
+    <n v="0.89145227635786173"/>
+    <n v="1.2783063727516086"/>
+    <n v="0.18963969495696018"/>
+  </r>
+  <r>
+    <n v="6073"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.8642857099999999"/>
+    <n v="2.1428571399999998"/>
+    <n v="2.4716235726320801"/>
+    <n v="2.7173265524954902"/>
+    <n v="2.6636970500780599"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.10808736722562418"/>
+    <n v="0.33001510589291383"/>
+    <n v="0.27127421193012169"/>
+    <n v="0.23655805311707556"/>
+  </r>
+  <r>
+    <n v="6082"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.6"/>
+    <n v="1.37142857"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.7762886253363801"/>
+    <n v="1.65148636432194"/>
+    <n v="2.6292294799999998"/>
+    <n v="8.8772773381396122E-2"/>
+    <n v="0.1639116644069768"/>
+    <n v="7.8432368160470042E-2"/>
+    <n v="1.5820631291968277"/>
+  </r>
+  <r>
+    <n v="6239"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.4615384599999999"/>
+    <n v="3.5"/>
+    <n v="3.4695442100361098"/>
+    <n v="3.16187597810737"/>
+    <n v="3.2376332272677"/>
+    <n v="2.6292294799999998"/>
+    <n v="9.2755514232459508E-4"/>
+    <n v="0.11432785418084775"/>
+    <n v="6.8836323433962371E-2"/>
+    <n v="0.7582412985010708"/>
+  </r>
+  <r>
+    <n v="6319"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.55384615"/>
+    <n v="1.3230769200000001"/>
+    <n v="2.2934972872293198"/>
+    <n v="2.4862590043806598"/>
+    <n v="2.3658870077417502"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.94171568913348769"/>
+    <n v="1.3529925614241363"/>
+    <n v="1.0874528790959566"/>
+    <n v="1.7060345099945529"/>
+  </r>
+  <r>
+    <n v="6367"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.3882352899999999"/>
+    <n v="1.6066666700000001"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.3629909023340399"/>
+    <n v="2.2141069964135398"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.2786571594527415"/>
+    <n v="0.57202634441567457"/>
+    <n v="0.36898375015338769"/>
+    <n v="1.0456347003950954"/>
+  </r>
+  <r>
+    <n v="6379"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.06666667"/>
+    <n v="1.4285714300000001"/>
+    <n v="1.8527878883105"/>
+    <n v="2.1236397249533598"/>
+    <n v="1.9376657002423701"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.17995960350150411"/>
+    <n v="0.4831199346493707"/>
+    <n v="0.25917697599361122"/>
+    <n v="1.4415797530298018"/>
+  </r>
+  <r>
+    <n v="6577"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.42352941"/>
+    <n v="3.6352941200000002"/>
+    <n v="3.4128468238552698"/>
+    <n v="3.1335849381713698"/>
+    <n v="3.20110784830822"/>
+    <n v="2.6292294799999998"/>
+    <n v="4.9482799562101366E-2"/>
+    <n v="0.25171210313115366"/>
+    <n v="0.18851771852560834"/>
+    <n v="1.0121660598583304"/>
+  </r>
+  <r>
+    <n v="6681"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0.9"/>
+    <n v="1.6166666700000001"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.2552619762830799"/>
+    <n v="1.5437622156346"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.7782915734629512E-3"/>
+    <n v="0.13061335264062088"/>
+    <n v="5.3150594663166984E-3"/>
+    <n v="1.0252834441950955"/>
+  </r>
+  <r>
+    <n v="6702"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1.675"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.3296943547192599"/>
+    <n v="1.55679947606881"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.1627444321032211E-5"/>
+    <n v="0.11923598866274834"/>
+    <n v="1.3971363857607836E-2"/>
+    <n v="0.91055390050106988"/>
+  </r>
+  <r>
+    <n v="7056"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.6666666700000001"/>
+    <n v="0.15384614999999999"/>
+    <n v="2.4370907000633499"/>
+    <n v="2.5702339955704701"/>
+    <n v="2.4739192919264399"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.213205675393989"/>
+    <n v="5.8389302202206972"/>
+    <n v="5.3827393838884223"/>
+    <n v="6.1275226304418871"/>
+  </r>
+  <r>
+    <n v="7128"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.8833333300000001"/>
+    <n v="2.9437500000000001"/>
+    <n v="2.68261603353612"/>
+    <n v="2.7315041483526601"/>
+    <n v="2.6819998406263998"/>
+    <n v="2.6292294799999998"/>
+    <n v="6.8190948441158861E-2"/>
+    <n v="4.5048301541504659E-2"/>
+    <n v="6.8513145932105127E-2"/>
+    <n v="9.8923157501070585E-2"/>
+  </r>
+  <r>
+    <n v="7141"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.8857142900000001"/>
+    <n v="2.54"/>
+    <n v="2.6948003443868198"/>
+    <n v="2.7332763483"/>
+    <n v="2.6842876900455002"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.3963146622278005E-2"/>
+    <n v="3.7355746812182893E-2"/>
+    <n v="2.0818937498666316E-2"/>
+    <n v="7.9619001010703561E-3"/>
+  </r>
+  <r>
+    <n v="7158"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.8125"/>
+    <n v="2.6666666700000001"/>
+    <n v="2.42373999810042"/>
+    <n v="2.6787812138751299"/>
+    <n v="2.6139363384249199"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.9013367920206276E-2"/>
+    <n v="1.4676217330244446E-4"/>
+    <n v="2.7804878680179027E-3"/>
+    <n v="1.4015431950961256E-3"/>
+  </r>
+  <r>
+    <n v="7241"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.5687500000000001"/>
+    <n v="2.0499999999999998"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.75302850707507"/>
+    <n v="1.64688724502034"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.14487449864085836"/>
+    <n v="8.8192067610061667E-2"/>
+    <n v="0.16249989322729125"/>
+    <n v="0.33550679050107035"/>
+  </r>
+  <r>
+    <n v="7883"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.6875"/>
+    <n v="2.9529411799999998"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.33006452519176"/>
+    <n v="3.4547744293161"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.27501356445613045"/>
+    <n v="0.14222201748862348"/>
+    <n v="0.25183661011915515"/>
+    <n v="0.10478926471689003"/>
+  </r>
+  <r>
+    <n v="7999"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.625"/>
+    <n v="2.35"/>
+    <n v="2.4130769766633402"/>
+    <n v="2.5392205043072802"/>
+    <n v="2.43399839390761"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.9787049849875529E-3"/>
+    <n v="3.5804399250301405E-2"/>
+    <n v="7.0557301790579929E-3"/>
+    <n v="7.7969102501070225E-2"/>
+  </r>
+  <r>
+    <n v="8014"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.1937500000000001"/>
+    <n v="0.93846154000000004"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.4739070879393801"/>
+    <n v="1.58952026788116"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.53423619888862306"/>
+    <n v="0.28670193480810291"/>
+    <n v="0.42387746715023428"/>
+    <n v="2.8586962269318428"/>
+  </r>
+  <r>
+    <n v="8072"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="0.4"/>
+    <n v="0"/>
+    <n v="1.6693761717379501"/>
+    <n v="0.88310008410215501"/>
+    <n v="1.58974132772155"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.7868168027664537"/>
+    <n v="0.7798657585412333"/>
+    <n v="2.5272774890658765"/>
+    <n v="6.912847658501069"/>
+  </r>
+  <r>
+    <n v="8110"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.5384615400000001"/>
+    <n v="3.60769231"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.2191316531404501"/>
+    <n v="3.3115536357396098"/>
+    <n v="2.6292294799999998"/>
+    <n v="1.6986892351295142E-2"/>
+    <n v="0.15097938405912487"/>
+    <n v="8.769811439270149E-2"/>
+    <n v="0.9573895096916093"/>
+  </r>
+  <r>
+    <n v="8139"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.1166666699999999"/>
+    <n v="1.36470588"/>
+    <n v="2.11284134672665"/>
+    <n v="2.1608559141714498"/>
+    <n v="1.98064895062195"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.5597066765743024"/>
+    <n v="0.63385487691120068"/>
+    <n v="0.37938586624719645"/>
+    <n v="1.5990199349569594"/>
+  </r>
+  <r>
+    <n v="8231"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.8"/>
+    <n v="2.22142857"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.9251533822087501"/>
+    <n v="1.7207121299663499"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.30476185042688103"/>
+    <n v="8.777898690074043E-2"/>
+    <n v="0.25071695331997196"/>
+    <n v="0.16630158219682789"/>
+  </r>
+  <r>
+    <n v="8248"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="1.6133333299999999"/>
+    <n v="1.24615385"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.7862129422130999"/>
+    <n v="1.65344866881928"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.17911713361726089"/>
+    <n v="0.29166382308203753"/>
+    <n v="0.16588906943703011"/>
+    <n v="1.9128981982998963"/>
+  </r>
+  <r>
+    <n v="8305"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="0.52941176000000001"/>
+    <n v="2.25"/>
+    <n v="1.6693761717379501"/>
+    <n v="0.97942433876790203"/>
+    <n v="1.5679286181496199"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.33712402994567847"/>
+    <n v="1.614362510915383"/>
+    <n v="0.46522136993928698"/>
+    <n v="0.14381499850107024"/>
+  </r>
+  <r>
+    <n v="8406"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.1749999999999998"/>
+    <n v="2.8250000000000002"/>
+    <n v="2.1084836931259199"/>
+    <n v="2.2042748013444502"/>
+    <n v="2.0307960757782402"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.51339561801647127"/>
+    <n v="0.38529977224597201"/>
+    <n v="0.6307598732492431"/>
+    <n v="3.832609650107055E-2"/>
+  </r>
+  <r>
+    <n v="8670"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.75"/>
+    <n v="2"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.8879371929906601"/>
+    <n v="1.6937752894566001"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.1093121158146535"/>
+    <n v="1.2558072714812562E-2"/>
+    <n v="9.3773573347389089E-2"/>
+    <n v="0.39592973850107011"/>
+  </r>
+  <r>
+    <n v="8765"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.93333333"/>
+    <n v="3.02"/>
+    <n v="2.7451728199246199"/>
+    <n v="2.7687203375707501"/>
+    <n v="2.7300464155723998"/>
+    <n v="2.6292294799999998"/>
+    <n v="7.5529978908185399E-2"/>
+    <n v="6.3141468750557803E-2"/>
+    <n v="8.407308112241349E-2"/>
+    <n v="0.15270159930107058"/>
+  </r>
+  <r>
+    <n v="8797"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="3.7692307700000001"/>
+    <n v="2.7835341341706701"/>
+    <n v="2.8183419234429801"/>
+    <n v="2.79411077067047"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.97159785788525876"/>
+    <n v="0.9041895985065399"/>
+    <n v="0.95085901309242271"/>
+    <n v="1.2996029412016648"/>
+  </r>
+  <r>
+    <n v="8825"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.1769230799999999"/>
+    <n v="3.45333333"/>
+    <n v="3.13169473675935"/>
+    <n v="2.9500299776565702"/>
+    <n v="2.9641277122699798"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.10345138466182432"/>
+    <n v="0.25331426448013467"/>
+    <n v="0.23932213641861058"/>
+    <n v="0.67914715558482286"/>
+  </r>
+  <r>
+    <n v="9039"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.1687500000000002"/>
+    <n v="2.1"/>
+    <n v="2.1084836931259199"/>
+    <n v="2.1996227776921899"/>
+    <n v="2.0254231694807898"/>
+    <n v="2.6292294799999998"/>
+    <n v="7.1973049054778682E-5"/>
+    <n v="9.9246978351074811E-3"/>
+    <n v="5.5617036502910123E-3"/>
+    <n v="0.2800838425010701"/>
+  </r>
+  <r>
+    <n v="9057"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.8312499999999998"/>
+    <n v="3.62142857"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.43706106919378"/>
+    <n v="3.5929131943056398"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.0756174372010033E-2"/>
+    <n v="3.3991375353531535E-2"/>
+    <n v="8.1312665099050473E-4"/>
+    <n v="0.98445903419682845"/>
+  </r>
+  <r>
+    <n v="9165"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.5352941200000001"/>
+    <n v="3.94"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.2167740670993799"/>
+    <n v="3.3085098549604601"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.21403712316921397"/>
+    <n v="0.52305575001997229"/>
+    <n v="0.39877980328205903"/>
+    <n v="1.7181193561010708"/>
+  </r>
+  <r>
+    <n v="9234"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.1133333300000001"/>
+    <n v="1.5153846200000001"/>
+    <n v="2.11284134672665"/>
+    <n v="2.1583748343940301"/>
+    <n v="1.9777834000235399"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.35695454031092289"/>
+    <n v="0.41343641580648072"/>
+    <n v="0.21381263176725798"/>
+    <n v="1.240650372148419"/>
+  </r>
+  <r>
+    <n v="9365"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.4"/>
+    <n v="3.2437499999999999"/>
+    <n v="3.3302262343339701"/>
+    <n v="3.1160714371877298"/>
+    <n v="3.17849689933702"/>
+    <n v="2.6292294799999998"/>
+    <n v="7.4781391045837305E-3"/>
+    <n v="1.6301815401806797E-2"/>
+    <n v="4.2579671461329951E-3"/>
+    <n v="0.37763546950107058"/>
+  </r>
+  <r>
+    <n v="9410"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.1818181800000001"/>
+    <n v="2.2799999999999998"/>
+    <n v="2.1084836931259199"/>
+    <n v="2.2093497363731598"/>
+    <n v="2.03665742825903"/>
+    <n v="2.6292294799999998"/>
+    <n v="2.9417843523723557E-2"/>
+    <n v="4.9914597505419933E-3"/>
+    <n v="5.9215607221509058E-2"/>
+    <n v="0.12196122970107039"/>
+  </r>
+  <r>
+    <n v="9411"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="1.575"/>
+    <n v="2.34"/>
+    <n v="1.6693761717379501"/>
+    <n v="1.75768053072733"/>
+    <n v="1.6478070688806601"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.44973631903284728"/>
+    <n v="0.3390959642940039"/>
+    <n v="0.47913105389158306"/>
+    <n v="8.3653692101070362E-2"/>
+  </r>
+  <r>
+    <n v="9534"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.3764705899999998"/>
+    <n v="2.88"/>
+    <n v="2.1345465421799701"/>
+    <n v="2.3542341518422201"/>
+    <n v="2.20399329034074"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.555700857775839"/>
+    <n v="0.2764297270890696"/>
+    <n v="0.45698507150433892"/>
+    <n v="6.2885853701070457E-2"/>
+  </r>
+  <r>
+    <n v="9931"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.5384615400000001"/>
+    <n v="3.4"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.2191316531404501"/>
+    <n v="3.3115536357396098"/>
+    <n v="2.6292294799999998"/>
+    <n v="5.9843432664387171E-3"/>
+    <n v="3.271335889570641E-2"/>
+    <n v="7.8227593508816105E-3"/>
+    <n v="0.59408719450107061"/>
+  </r>
+  <r>
+    <n v="9959"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.72"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.4353197734994998"/>
+    <n v="2.6099312638216601"/>
+    <n v="2.5250534116023702"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.239786724225581"/>
+    <n v="9.9268308517016249E-2"/>
+    <n v="0.15995727357090297"/>
+    <n v="8.7480200501070415E-2"/>
+  </r>
+  <r>
+    <n v="10062"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.7562500000000001"/>
+    <n v="2.9624999999999999"/>
+    <n v="2.4343100569650198"/>
+    <n v="2.6369130010047801"/>
+    <n v="2.5598859099517499"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.27898461592329554"/>
+    <n v="0.10600689391471327"/>
+    <n v="0.16209810550538037"/>
+    <n v="0.11106923950107048"/>
+  </r>
+  <r>
+    <n v="10364"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="3.1"/>
+    <n v="3.15"/>
+    <n v="3.0900416456844599"/>
+    <n v="2.8927743018791698"/>
+    <n v="2.8902073028371098"/>
+    <n v="2.6292294799999998"/>
+    <n v="3.5950042522278312E-3"/>
+    <n v="6.6165059773748397E-2"/>
+    <n v="6.7492245499169129E-2"/>
+    <n v="0.27120193450107055"/>
+  </r>
+  <r>
+    <n v="10436"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.2266666700000002"/>
+    <n v="3.8875000000000002"/>
+    <n v="3.183745911895"/>
+    <n v="2.98705531481311"/>
+    <n v="3.0119295772351702"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.49526981652450036"/>
+    <n v="0.81080063108131772"/>
+    <n v="0.76662356522058317"/>
+    <n v="1.5832447015010713"/>
+  </r>
+  <r>
+    <n v="10641"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4773585371270599"/>
+    <n v="3.56266570780484"/>
+    <n v="3.7550760923368398"/>
+    <n v="2.6292294799999998"/>
+    <n v="0.27315409871396684"/>
+    <n v="0.19126128312984156"/>
+    <n v="5.9987720544992219E-2"/>
+    <n v="1.8790118185010709"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.6161839256134898"/>
+    <n v="3.76194106914136"/>
+    <n v="2.631167112"/>
+    <n v="0.30424797244199475"/>
+    <n v="0.14731477895747114"/>
+    <n v="5.6672054561558764E-2"/>
+    <n v="1.8737034752704207"/>
+  </r>
+  <r>
+    <n v="342"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.5687500000000001"/>
+    <n v="3.0294117599999999"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.2863817376574902"/>
+    <n v="3.3655910133984901"/>
+    <n v="2.631167112"/>
+    <n v="0.17556222608672853"/>
+    <n v="6.6033569417291063E-2"/>
+    <n v="0.11301649041556629"/>
+    <n v="0.15859879966064383"/>
+  </r>
+  <r>
+    <n v="524"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="2.8176470600000001"/>
+    <n v="2.8264759312775101"/>
+    <n v="2.8514252289039299"/>
+    <n v="2.8428992376822402"/>
+    <n v="2.631167112"/>
+    <n v="7.7948968034840621E-5"/>
+    <n v="1.1409646945024113E-3"/>
+    <n v="6.3767247769542417E-4"/>
+    <n v="3.4774771006082748E-2"/>
+  </r>
+  <r>
+    <n v="570"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.35"/>
+    <n v="0.42857142999999998"/>
+    <n v="2.2646754264428401"/>
+    <n v="2.3543320760427102"/>
+    <n v="2.2507274916647999"/>
+    <n v="2.631167112"/>
+    <n v="3.3712778857533698"/>
+    <n v="3.7085540658468372"/>
+    <n v="3.3202527130617745"/>
+    <n v="4.8514277383650457"/>
+  </r>
+  <r>
+    <n v="1051"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1.9548725317934701"/>
+    <n v="2.0866665321943598"/>
+    <n v="1.97725079832984"/>
+    <n v="2.631167112"/>
+    <n v="0.9117815519736715"/>
+    <n v="1.1808441521913156"/>
+    <n v="0.95501912283630952"/>
+    <n v="2.6607061472704205"/>
+  </r>
+  <r>
+    <n v="1315"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3.1823529399999999"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.6161839256134898"/>
+    <n v="3.76194106914136"/>
+    <n v="2.631167112"/>
+    <n v="7.0788074247562338E-2"/>
+    <n v="0.18820932407837207"/>
+    <n v="0.33592239944158186"/>
+    <n v="0.30380581698804549"/>
+  </r>
+  <r>
+    <n v="1345"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="3.5750000000000002"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.5091177080741498"/>
+    <n v="3.63335614935083"/>
+    <n v="2.631167112"/>
+    <n v="1.6024212083879726E-2"/>
+    <n v="4.3404763894029702E-3"/>
+    <n v="3.4054401670563506E-3"/>
+    <n v="0.89082052047042093"/>
+  </r>
+  <r>
+    <n v="1579"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.86"/>
+    <n v="1.6"/>
+    <n v="2.5249539004259498"/>
+    <n v="2.7443590113645899"/>
+    <n v="2.7143648153209199"/>
+    <n v="2.631167112"/>
+    <n v="0.85553971791317773"/>
+    <n v="1.3095575468913414"/>
+    <n v="1.2418089416252276"/>
+    <n v="1.0633056128704204"/>
+  </r>
+  <r>
+    <n v="1617"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.4428571400000001"/>
+    <n v="0.42499999999999999"/>
+    <n v="2.3705767417365999"/>
+    <n v="2.4253453837035601"/>
+    <n v="2.3336544404842501"/>
+    <n v="2.631167112"/>
+    <n v="3.7852688579864044"/>
+    <n v="4.0013816541041436"/>
+    <n v="3.6429617731802457"/>
+    <n v="4.8671733260704215"/>
+  </r>
+  <r>
+    <n v="1691"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.8235294099999999"/>
+    <n v="3.6"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.48122650872704"/>
+    <n v="3.59985923768873"/>
+    <n v="2.631167112"/>
+    <n v="2.2978550928474711E-2"/>
+    <n v="1.4107142229167931E-2"/>
+    <n v="1.9814028274111016E-8"/>
+    <n v="0.93863716487042081"/>
+  </r>
+  <r>
+    <n v="1724"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.3312499999999998"/>
+    <n v="0.26666666999999999"/>
+    <n v="2.1397661995035699"/>
+    <n v="2.3399928504794101"/>
+    <n v="2.2342169929648801"/>
+    <n v="2.631167112"/>
+    <n v="3.5085018474264951"/>
+    <n v="4.2986814506613387"/>
+    <n v="3.8712542733992041"/>
+    <n v="5.5908623402181945"/>
+  </r>
+  <r>
+    <n v="1825"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.1428571399999998"/>
+    <n v="2.5750000000000002"/>
+    <n v="2.0234683846030799"/>
+    <n v="2.1959177746906899"/>
+    <n v="2.07988639238883"/>
+    <n v="2.631167112"/>
+    <n v="0.30418712278233639"/>
+    <n v="0.14370333354545864"/>
+    <n v="0.24513748444174779"/>
+    <n v="3.1547444704205212E-3"/>
+  </r>
+  <r>
+    <n v="1832"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.4249999999999998"/>
+    <n v="2.375"/>
+    <n v="2.3323458407866902"/>
+    <n v="2.4116889782959299"/>
+    <n v="2.3177069502236201"/>
+    <n v="2.631167112"/>
+    <n v="1.8193772981943846E-3"/>
+    <n v="1.3460811283992134E-3"/>
+    <n v="3.28249355267875E-3"/>
+    <n v="6.5621589270420527E-2"/>
+  </r>
+  <r>
+    <n v="1901"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.0714285700000001"/>
+    <n v="0.88888889000000004"/>
+    <n v="1.9768641587573199"/>
+    <n v="2.1412921530601499"/>
+    <n v="2.0270350123066998"/>
+    <n v="2.631167112"/>
+    <n v="1.1836901854275623"/>
+    <n v="1.5685139333237108"/>
+    <n v="1.2953765957217771"/>
+    <n v="3.035533402855481"/>
+  </r>
+  <r>
+    <n v="1999"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.8687499999999999"/>
+    <n v="3.53125"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.5158093466703599"/>
+    <n v="3.6413927068377299"/>
+    <n v="2.631167112"/>
+    <n v="6.8619316058384271E-3"/>
+    <n v="2.3841377524612479E-4"/>
+    <n v="1.2131415869542105E-2"/>
+    <n v="0.81014920527042056"/>
+  </r>
+  <r>
+    <n v="2046"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0.8125"/>
+    <n v="1.35714286"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.1785155798517599"/>
+    <n v="1.38208947204352"/>
+    <n v="2.631167112"/>
+    <n v="9.6740900598139182E-2"/>
+    <n v="3.1907705213157826E-2"/>
+    <n v="6.2233345244989708E-4"/>
+    <n v="1.6231377946841596"/>
+  </r>
+  <r>
+    <n v="2074"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.9357142899999999"/>
+    <n v="3.91"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.5670208667578001"/>
+    <n v="3.70289697358159"/>
+    <n v="2.631167112"/>
+    <n v="0.21306235260145284"/>
+    <n v="0.11763468583957085"/>
+    <n v="4.2891663551664697E-2"/>
+    <n v="1.635413555430421"/>
+  </r>
+  <r>
+    <n v="2097"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.6062500000000002"/>
+    <n v="2.42352941"/>
+    <n v="2.3903776068332201"/>
+    <n v="2.5503014920745399"/>
+    <n v="2.48139617479102"/>
+    <n v="2.631167112"/>
+    <n v="1.0990420532089179E-3"/>
+    <n v="1.6071160793513891E-2"/>
+    <n v="3.3485624673792367E-3"/>
+    <n v="4.3113415291840797E-2"/>
+  </r>
+  <r>
+    <n v="2115"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.42"/>
+    <n v="2.76234053514119"/>
+    <n v="2.7940683266507098"/>
+    <n v="2.7740415114172499"/>
+    <n v="2.631167112"/>
+    <n v="0.11719704200075642"/>
+    <n v="0.13992711300326219"/>
+    <n v="0.12534539180661072"/>
+    <n v="4.4591549190420562E-2"/>
+  </r>
+  <r>
+    <n v="2255"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.4538461499999999"/>
+    <n v="2.8384615399999999"/>
+    <n v="3.4454368997929099"/>
+    <n v="3.19850802214361"/>
+    <n v="3.2598907608878198"/>
+    <n v="2.631167112"/>
+    <n v="0.36841908739573248"/>
+    <n v="0.12963346930398889"/>
+    <n v="0.17760258821811487"/>
+    <n v="4.2970979879847174E-2"/>
+  </r>
+  <r>
+    <n v="2358"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.95333333"/>
+    <n v="2.38461539"/>
+    <n v="2.7985071719248702"/>
+    <n v="2.8157364894692298"/>
+    <n v="2.8000544299224299"/>
+    <n v="2.631167112"/>
+    <n v="0.1713064071449443"/>
+    <n v="0.18586540240755756"/>
+    <n v="0.17258959589167033"/>
+    <n v="6.0787751621165273E-2"/>
+  </r>
+  <r>
+    <n v="2405"/>
+    <n v="11"/>
+    <x v="10"/>
+    <n v="1.3"/>
+    <n v="2.15"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.5513354444976699"/>
+    <n v="1.60195243230011"/>
+    <n v="2.631167112"/>
+    <n v="0.23215547239219853"/>
+    <n v="0.35839925001480233"/>
+    <n v="0.30035613646176545"/>
+    <n v="0.23152178967042061"/>
+  </r>
+  <r>
+    <n v="2676"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.6333333300000001"/>
+    <n v="2.59166667"/>
+    <n v="2.4181439157597602"/>
+    <n v="2.5710137065221699"/>
+    <n v="2.50626146452512"/>
+    <n v="2.631167112"/>
+    <n v="3.0110146239118649E-2"/>
+    <n v="4.2654490041658304E-4"/>
+    <n v="7.2940491222064649E-3"/>
+    <n v="1.560284918195366E-3"/>
+  </r>
+  <r>
+    <n v="2680"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.53333333"/>
+    <n v="0"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.72977914014165"/>
+    <n v="1.7162792843013399"/>
+    <n v="2.631167112"/>
+    <n v="2.7828073397985591"/>
+    <n v="2.9921358736691861"/>
+    <n v="2.9456145817219195"/>
+    <n v="6.92304037127042"/>
+  </r>
+  <r>
+    <n v="2738"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.5941176499999998"/>
+    <n v="2.5"/>
+    <n v="2.3909503173180999"/>
+    <n v="2.54102316960623"/>
+    <n v="2.47025742490003"/>
+    <n v="2.631167112"/>
+    <n v="1.1891833293023096E-2"/>
+    <n v="1.6829004445415112E-3"/>
+    <n v="8.8462077357735693E-4"/>
+    <n v="1.7204811270420537E-2"/>
+  </r>
+  <r>
+    <n v="2828"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.46"/>
+    <n v="3.86"/>
+    <n v="3.4454368997929099"/>
+    <n v="3.2032142293903201"/>
+    <n v="3.2655516947795502"/>
+    <n v="2.631167112"/>
+    <n v="0.17186256405331371"/>
+    <n v="0.43136754847535091"/>
+    <n v="0.35336878757946488"/>
+    <n v="1.5100302666304204"/>
+  </r>
+  <r>
+    <n v="2907"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.15"/>
+    <n v="2.5"/>
+    <n v="2.0234683846030799"/>
+    <n v="2.2013803367008"/>
+    <n v="2.0853418211728498"/>
+    <n v="2.631167112"/>
+    <n v="0.22708238047279822"/>
+    <n v="8.9173703308927557E-2"/>
+    <n v="0.17194140526824886"/>
+    <n v="1.7204811270420537E-2"/>
+  </r>
+  <r>
+    <n v="3075"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="0.26666666999999999"/>
+    <n v="0"/>
+    <n v="1.6681748528852001"/>
+    <n v="0.76108479148604502"/>
+    <n v="1.5946082354561999"/>
+    <n v="2.631167112"/>
+    <n v="2.7828073397985591"/>
+    <n v="0.57925005983135658"/>
+    <n v="2.5427754245847356"/>
+    <n v="6.92304037127042"/>
+  </r>
+  <r>
+    <n v="3229"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.9437500000000001"/>
+    <n v="4"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.57316624892358"/>
+    <n v="3.7102774852969498"/>
+    <n v="2.631167112"/>
+    <n v="0.30424797244199475"/>
+    <n v="0.18218705105796723"/>
+    <n v="8.3939135525859146E-2"/>
+    <n v="1.8737034752704207"/>
+  </r>
+  <r>
+    <n v="3366"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.61538461"/>
+    <n v="0.5"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.79252857162732"/>
+    <n v="1.75750034776769"/>
+    <n v="2.631167112"/>
+    <n v="1.3646324869133588"/>
+    <n v="1.6706301084729602"/>
+    <n v="1.5813071246358614"/>
+    <n v="4.5418732592704201"/>
+  </r>
+  <r>
+    <n v="3605"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.46"/>
+    <n v="3.66"/>
+    <n v="3.4454368997929099"/>
+    <n v="3.2032142293903201"/>
+    <n v="3.2655516947795502"/>
+    <n v="2.631167112"/>
+    <n v="4.6037323970477849E-2"/>
+    <n v="0.20865324023147924"/>
+    <n v="0.15558946549128524"/>
+    <n v="1.0584971114304209"/>
+  </r>
+  <r>
+    <n v="3838"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.75"/>
+    <n v="2.6"/>
+    <n v="2.45627555457401"/>
+    <n v="2.6602355547265302"/>
+    <n v="2.61337348346559"/>
+    <n v="2.631167112"/>
+    <n v="2.0656716213008394E-2"/>
+    <n v="3.6283220532128007E-3"/>
+    <n v="1.7885006000440548E-4"/>
+    <n v="9.7138887042053687E-4"/>
+  </r>
+  <r>
+    <n v="3856"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="2.85"/>
+    <n v="2.8264759312775101"/>
+    <n v="2.8514252289039299"/>
+    <n v="2.8428992376822402"/>
+    <n v="2.631167112"/>
+    <n v="5.5338180926043333E-4"/>
+    <n v="2.0312774285969975E-6"/>
+    <n v="5.0420825493319122E-5"/>
+    <n v="4.7887832870420595E-2"/>
+  </r>
+  <r>
+    <n v="3861"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="1.07857143"/>
+    <n v="2.8264759312775101"/>
+    <n v="2.8514252289039299"/>
+    <n v="2.8428992376822402"/>
+    <n v="2.631167112"/>
+    <n v="3.0551701455861813"/>
+    <n v="3.1430105922880958"/>
+    <n v="3.1128526129608201"/>
+    <n v="2.4105533517650453"/>
+  </r>
+  <r>
+    <n v="3895"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.7562500000000001"/>
+    <n v="3.6"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.4297739932905298"/>
+    <n v="3.5380439337412199"/>
+    <n v="2.631167112"/>
+    <n v="2.2978550928474711E-2"/>
+    <n v="2.8976893360252626E-2"/>
+    <n v="3.8385541462623548E-3"/>
+    <n v="0.93863716487042081"/>
+  </r>
+  <r>
+    <n v="3908"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.6161839256134898"/>
+    <n v="3.76194106914136"/>
+    <n v="2.631167112"/>
+    <n v="0.30424797244199475"/>
+    <n v="0.14731477895747114"/>
+    <n v="5.6672054561558764E-2"/>
+    <n v="1.8737034752704207"/>
+  </r>
+  <r>
+    <n v="4483"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.43333333"/>
+    <n v="1.46"/>
+    <n v="2.34382755002034"/>
+    <n v="2.4180619671802499"/>
+    <n v="2.3251491119880199"/>
+    <n v="2.631167112"/>
+    <n v="0.78115113817495674"/>
+    <n v="0.91788273295729028"/>
+    <n v="0.74848298597365948"/>
+    <n v="1.3716324042304207"/>
+  </r>
+  <r>
+    <n v="4506"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.75"/>
+    <n v="2.3199999999999998"/>
+    <n v="2.45627555457401"/>
+    <n v="2.6602355547265302"/>
+    <n v="2.61337348346559"/>
+    <n v="2.631167112"/>
+    <n v="1.857102677445403E-2"/>
+    <n v="0.11576023270006981"/>
+    <n v="8.6068000800734873E-2"/>
+    <n v="9.6824971590420625E-2"/>
+  </r>
+  <r>
+    <n v="4508"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="0.72857143000000002"/>
+    <n v="2.7"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.1143304752770999"/>
+    <n v="1.40002249893563"/>
+    <n v="2.631167112"/>
+    <n v="1.0646631342184789"/>
+    <n v="2.5143478416349483"/>
+    <n v="1.6899415032735645"/>
+    <n v="4.737966470420572E-3"/>
+  </r>
+  <r>
+    <n v="4522"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.1937500000000001"/>
+    <n v="3.45"/>
+    <n v="3.0852873363521001"/>
+    <n v="2.9995972263913999"/>
+    <n v="3.0207826846344399"/>
+    <n v="2.631167112"/>
+    <n v="0.13301532702514632"/>
+    <n v="0.20286265847432003"/>
+    <n v="0.18422750380961883"/>
+    <n v="0.67048729847042088"/>
+  </r>
+  <r>
+    <n v="4602"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.65714286"/>
+    <n v="2.3153846200000001"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.3539809437752401"/>
+    <n v="3.4469037599277801"/>
+    <n v="2.631167112"/>
+    <n v="1.2837538154610919"/>
+    <n v="1.0786823237594432"/>
+    <n v="1.2803355640229028"/>
+    <n v="9.9718582253729982E-2"/>
+  </r>
+  <r>
+    <n v="4641"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.8117647099999998"/>
+    <n v="2.7"/>
+    <n v="2.47990426501033"/>
+    <n v="2.7074706507897401"/>
+    <n v="2.6700798463800699"/>
+    <n v="2.631167112"/>
+    <n v="4.8442132560643121E-2"/>
+    <n v="5.5810623222242336E-5"/>
+    <n v="8.9521559264022692E-4"/>
+    <n v="4.737966470420572E-3"/>
+  </r>
+  <r>
+    <n v="4648"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.0625"/>
+    <n v="0"/>
+    <n v="1.9830078586867399"/>
+    <n v="2.1344639507387102"/>
+    <n v="2.0205464085402101"/>
+    <n v="2.631167112"/>
+    <n v="3.9323201676133692"/>
+    <n v="4.5559363570031035"/>
+    <n v="4.0826077890647419"/>
+    <n v="6.92304037127042"/>
+  </r>
+  <r>
+    <n v="4712"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.75"/>
+    <n v="2.1428571399999998"/>
+    <n v="2.45627555457401"/>
+    <n v="2.6602355547265302"/>
+    <n v="2.61337348346559"/>
+    <n v="2.631167112"/>
+    <n v="9.8231102594086128E-2"/>
+    <n v="0.26768042402493764"/>
+    <n v="0.22138562946822918"/>
+    <n v="0.23844662875464093"/>
+  </r>
+  <r>
+    <n v="4831"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.78333333"/>
+    <n v="2.6812499999999999"/>
+    <n v="2.4810886601978202"/>
+    <n v="2.6857275110285999"/>
+    <n v="2.64397691705511"/>
+    <n v="2.631167112"/>
+    <n v="4.006456195140367E-2"/>
+    <n v="2.0048105011234139E-5"/>
+    <n v="1.3892827122166465E-3"/>
+    <n v="2.5082956704205375E-3"/>
+  </r>
+  <r>
+    <n v="5023"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.8941176500000001"/>
+    <n v="3.9437500000000001"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.5352094753286698"/>
+    <n v="3.66469197008609"/>
+    <n v="2.631167112"/>
+    <n v="0.24535852254165605"/>
+    <n v="0.16690536029872582"/>
+    <n v="7.7873384059432713E-2"/>
+    <n v="1.7228738378704209"/>
+  </r>
+  <r>
+    <n v="5077"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.125"/>
+    <n v="2.7692307700000001"/>
+    <n v="2.0252234408479"/>
+    <n v="2.1822613692830601"/>
+    <n v="2.06651886577112"/>
+    <n v="2.631167112"/>
+    <n v="0.55354690583204147"/>
+    <n v="0.34453307737800359"/>
+    <n v="0.49380402034497872"/>
+    <n v="1.9061573660340989E-2"/>
+  </r>
+  <r>
+    <n v="5148"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.6642857100000001"/>
+    <n v="2.2200000000000002"/>
+    <n v="2.4202521878665002"/>
+    <n v="2.5946848090757801"/>
+    <n v="2.5346789389004298"/>
+    <n v="2.631167112"/>
+    <n v="4.0100938745320017E-2"/>
+    <n v="0.14038870615215368"/>
+    <n v="9.902283458750033E-2"/>
+    <n v="0.16905839399042036"/>
+  </r>
+  <r>
+    <n v="5215"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="0.23076922999999999"/>
+    <n v="1.5"/>
+    <n v="1.6681748528852001"/>
+    <n v="0.73363191511546999"/>
+    <n v="1.6175024559533999"/>
+    <n v="2.631167112"/>
+    <n v="2.8282781142958686E-2"/>
+    <n v="0.58732004152958217"/>
+    <n v="1.3806827155080689E-2"/>
+    <n v="1.2795390352704206"/>
+  </r>
+  <r>
+    <n v="5278"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.5"/>
+    <n v="2.0785714300000002"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.7042871838395799"/>
+    <n v="1.6997539223134499"/>
+    <n v="2.631167112"/>
+    <n v="0.16842535050754412"/>
+    <n v="0.14008869692387413"/>
+    <n v="0.14350270412984961"/>
+    <n v="0.30536198776504486"/>
+  </r>
+  <r>
+    <n v="5526"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0.33333332999999998"/>
+    <n v="0.15384614999999999"/>
+    <n v="1.6681748528852001"/>
+    <n v="0.81206870409017695"/>
+    <n v="1.55274836566372"/>
+    <n v="2.631167112"/>
+    <n v="2.293191420381973"/>
+    <n v="0.43325693071299592"/>
+    <n v="1.9569274089888653"/>
+    <n v="6.1371191487646044"/>
+  </r>
+  <r>
+    <n v="5563"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.9"/>
+    <n v="3.0076923099999999"/>
+    <n v="1.67332145235749"/>
+    <n v="2.0101906625234101"/>
+    <n v="1.91495884501935"/>
+    <n v="2.631167112"/>
+    <n v="1.7805455857256076"/>
+    <n v="0.995009536718511"/>
+    <n v="1.1940664254886173"/>
+    <n v="0.14177122472893916"/>
+  </r>
+  <r>
+    <n v="5616"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.38461539"/>
+    <n v="2.39230769"/>
+    <n v="2.28101262233724"/>
+    <n v="2.3808044927614098"/>
+    <n v="2.2816410882662002"/>
+    <n v="2.631167112"/>
+    <n v="1.2386592086058324E-2"/>
+    <n v="1.3232354670990846E-4"/>
+    <n v="1.2247096739307467E-2"/>
+    <n v="5.705382347817408E-2"/>
+  </r>
+  <r>
+    <n v="5686"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="0.80769230999999997"/>
+    <n v="1.74"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.17483885558366"/>
+    <n v="1.3828716116034301"/>
+    <n v="2.631167112"/>
+    <n v="5.1588517580626525E-3"/>
+    <n v="0.31940711915798714"/>
+    <n v="0.12754068579873129"/>
+    <n v="0.79417882151042052"/>
+  </r>
+  <r>
+    <n v="5756"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.54"/>
+    <n v="0.79285713999999996"/>
+    <n v="2.3733862735599498"/>
+    <n v="2.49963622841753"/>
+    <n v="2.4206223418105099"/>
+    <n v="2.631167112"/>
+    <n v="2.4980723420317656"/>
+    <n v="2.9130948566593746"/>
+    <n v="2.6496195522252104"/>
+    <n v="3.379383553154641"/>
+  </r>
+  <r>
+    <n v="6205"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.6"/>
+    <n v="2.85"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.3102804469296601"/>
+    <n v="3.3943379440361099"/>
+    <n v="2.631167112"/>
+    <n v="0.35809838559062451"/>
+    <n v="0.21185808982576754"/>
+    <n v="0.29630379731745898"/>
+    <n v="4.7887832870420595E-2"/>
+  </r>
+  <r>
+    <n v="6304"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.94"/>
+    <n v="2.76234053514119"/>
+    <n v="2.7940683266507098"/>
+    <n v="2.7740415114172499"/>
+    <n v="2.631167112"/>
+    <n v="3.1562885453918707E-2"/>
+    <n v="2.1296053286523918E-2"/>
+    <n v="2.7542219932670791E-2"/>
+    <n v="9.5377752710420524E-2"/>
+  </r>
+  <r>
+    <n v="6308"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.6875"/>
+    <n v="2.7437499999999999"/>
+    <n v="2.4449700362417599"/>
+    <n v="2.61243813618219"/>
+    <n v="2.55599204491143"/>
+    <n v="2.631167112"/>
+    <n v="8.9269466743375214E-2"/>
+    <n v="1.7242805579307054E-2"/>
+    <n v="3.5253049699041451E-2"/>
+    <n v="1.267490667042053E-2"/>
+  </r>
+  <r>
+    <n v="6325"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.78571429"/>
+    <n v="0"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.9227896688322399"/>
+    <n v="1.85066983740241"/>
+    <n v="2.631167112"/>
+    <n v="2.7828073397985591"/>
+    <n v="3.6971201105679947"/>
+    <n v="3.4249788470710625"/>
+    <n v="6.92304037127042"/>
+  </r>
+  <r>
+    <n v="6332"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.7562500000000001"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.4602418407695299"/>
+    <n v="2.6650152965809699"/>
+    <n v="2.61911162732101"/>
+    <n v="2.631167112"/>
+    <n v="0.21600014657129485"/>
+    <n v="6.7592046011880944E-2"/>
+    <n v="9.3567696540200571E-2"/>
+    <n v="8.6337766070420457E-2"/>
+  </r>
+  <r>
+    <n v="6395"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.71428571"/>
+    <n v="1.8"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.8681640472017"/>
+    <n v="1.81116295535324"/>
+    <n v="2.631167112"/>
+    <n v="1.7377869411838658E-2"/>
+    <n v="4.6463373309155852E-3"/>
+    <n v="1.2461157221842884E-4"/>
+    <n v="0.69083876807042044"/>
+  </r>
+  <r>
+    <n v="6417"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2.54"/>
+    <n v="2.8264759312775101"/>
+    <n v="2.8514252289039299"/>
+    <n v="2.8428992376822402"/>
+    <n v="2.631167112"/>
+    <n v="8.2068459201316654E-2"/>
+    <n v="9.6985673197865122E-2"/>
+    <n v="9.1747948188482212E-2"/>
+    <n v="8.3114423104205335E-3"/>
+  </r>
+  <r>
+    <n v="6454"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4615384599999999"/>
+    <n v="0"/>
+    <n v="2.3751557526798899"/>
+    <n v="2.4396320848748201"/>
+    <n v="2.3503379689080401"/>
+    <n v="2.631167112"/>
+    <n v="5.6413648494883741"/>
+    <n v="5.951804709550661"/>
+    <n v="5.5240885680907716"/>
+    <n v="6.92304037127042"/>
+  </r>
+  <r>
+    <n v="6456"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.3333333299999999"/>
+    <n v="2.0714285700000001"/>
+    <n v="2.1529181169865699"/>
+    <n v="2.3415860975093001"/>
+    <n v="2.2359592498805401"/>
+    <n v="2.631167112"/>
+    <n v="6.6405462680763569E-3"/>
+    <n v="7.2985089669938191E-2"/>
+    <n v="2.7070344621952708E-2"/>
+    <n v="0.3133072354002856"/>
+  </r>
+  <r>
+    <n v="6730"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.1538461500000001"/>
+    <n v="2.5"/>
+    <n v="2.0197304579970998"/>
+    <n v="2.2043217164211799"/>
+    <n v="2.0882793599251102"/>
+    <n v="2.631167112"/>
+    <n v="0.23065883297567549"/>
+    <n v="8.7425647380117155E-2"/>
+    <n v="0.16951388546367699"/>
+    <n v="1.7204811270420537E-2"/>
+  </r>
+  <r>
+    <n v="6766"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.5750000000000002"/>
+    <n v="2.85"/>
+    <n v="2.3707986692988601"/>
+    <n v="2.5264027828023599"/>
+    <n v="2.4527054555139398"/>
+    <n v="2.631167112"/>
+    <n v="0.22963391534574334"/>
+    <n v="0.10471515897805675"/>
+    <n v="0.15784295507838614"/>
+    <n v="4.7887832870420595E-2"/>
+  </r>
+  <r>
+    <n v="6822"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.1538461500000001"/>
+    <n v="2"/>
+    <n v="2.0197304579970998"/>
+    <n v="2.2043217164211799"/>
+    <n v="2.0882793599251102"/>
+    <n v="2.631167112"/>
+    <n v="3.8929097277532051E-4"/>
+    <n v="4.1747363801297059E-2"/>
+    <n v="7.7932453887871456E-3"/>
+    <n v="0.39837192327042054"/>
+  </r>
+  <r>
+    <n v="6844"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.5"/>
+    <n v="3.3312499999999998"/>
+    <n v="2.3744949744420101"/>
+    <n v="2.4690458805491402"/>
+    <n v="2.3846864087824402"/>
+    <n v="2.631167112"/>
+    <n v="0.91538017893046963"/>
+    <n v="0.74339594359803218"/>
+    <n v="0.89598263221868335"/>
+    <n v="0.49011605007042031"/>
+  </r>
+  <r>
+    <n v="6922"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0.86666666999999997"/>
+    <n v="2"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.2199400095117801"/>
+    <n v="1.3866759296456801"/>
+    <n v="2.631167112"/>
+    <n v="0.11010792825775861"/>
+    <n v="0.60849358876048176"/>
+    <n v="0.37616641527599076"/>
+    <n v="0.39837192327042054"/>
+  </r>
+  <r>
+    <n v="6972"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0.69230769000000003"/>
+    <n v="1.12857143"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.08659746703116"/>
+    <n v="1.40868493151539"/>
+    <n v="2.631167112"/>
+    <n v="0.29117185398942402"/>
+    <n v="1.7618135673095549E-3"/>
+    <n v="7.8463573731212363E-2"/>
+    <n v="2.2577937835650448"/>
+  </r>
+  <r>
+    <n v="7053"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.25"/>
+    <n v="2.1"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.5130975096621899"/>
+    <n v="1.57758596839745"/>
+    <n v="2.631167112"/>
+    <n v="0.18647295768071867"/>
+    <n v="0.34445453316472335"/>
+    <n v="0.27291642041523018"/>
+    <n v="0.28213850087042042"/>
+  </r>
+  <r>
+    <n v="7244"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.6161839256134898"/>
+    <n v="3.76194106914136"/>
+    <n v="2.631167112"/>
+    <n v="0.30424797244199475"/>
+    <n v="0.14731477895747114"/>
+    <n v="5.6672054561558764E-2"/>
+    <n v="1.8737034752704207"/>
+  </r>
+  <r>
+    <n v="7270"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="3.1375000000000002"/>
+    <n v="3.4454368997929099"/>
+    <n v="3.2338045772587098"/>
+    <n v="3.3023477659957101"/>
+    <n v="2.631167112"/>
+    <n v="9.4825134254068522E-2"/>
+    <n v="9.2745716009787794E-3"/>
+    <n v="2.7174785953776343E-2"/>
+    <n v="0.25637299347042075"/>
+  </r>
+  <r>
+    <n v="7357"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.6357142900000001"/>
+    <n v="3.0625"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.3375932577449401"/>
+    <n v="3.4271915793133698"/>
+    <n v="2.631167112"/>
+    <n v="0.14892901576968212"/>
+    <n v="7.5676300456724035E-2"/>
+    <n v="0.1329999480220799"/>
+    <n v="0.18604806027042056"/>
+  </r>
+  <r>
+    <n v="7364"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="1.66"/>
+    <n v="2.3250000000000002"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.8266485753131101"/>
+    <n v="1.7812984794290301"/>
+    <n v="2.631167112"/>
+    <n v="0.43141927388237883"/>
+    <n v="0.24835414248745308"/>
+    <n v="0.29561134347118501"/>
+    <n v="9.3738300470420421E-2"/>
+  </r>
+  <r>
+    <n v="7609"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="1.54"/>
+    <n v="2.2117647100000002"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.7348775317079601"/>
+    <n v="1.71958435689722"/>
+    <n v="2.631167112"/>
+    <n v="0.29548993275808882"/>
+    <n v="0.22742138081934402"/>
+    <n v="0.24224149998037739"/>
+    <n v="0.17589837480336942"/>
+  </r>
+  <r>
+    <n v="7671"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.2"/>
+    <n v="3.28235294"/>
+    <n v="3.1028267009716002"/>
+    <n v="3.0043769682458401"/>
+    <n v="3.0265209475988102"/>
+    <n v="2.631167112"/>
+    <n v="3.2229670499682145E-2"/>
+    <n v="7.7270640872669494E-2"/>
+    <n v="6.5450008335962442E-2"/>
+    <n v="0.42404298258804562"/>
+  </r>
+  <r>
+    <n v="7694"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.1"/>
+    <n v="3"/>
+    <n v="1.98439379219768"/>
+    <n v="2.1631424018653198"/>
+    <n v="2.0480439167088198"/>
+    <n v="2.631167112"/>
+    <n v="1.0314559693266092"/>
+    <n v="0.70033063955574593"/>
+    <n v="0.90622038451508446"/>
+    <n v="0.13603769927042056"/>
+  </r>
+  <r>
+    <n v="7763"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0.9375"/>
+    <n v="0.6"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.27411041694045"/>
+    <n v="1.4199706866019499"/>
+    <n v="2.631167112"/>
+    <n v="1.1409975163363191"/>
+    <n v="0.45442485422762741"/>
+    <n v="0.67235192688647316"/>
+    <n v="4.1256398368704197"/>
+  </r>
+  <r>
+    <n v="7841"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="3.6181818200000002"/>
+    <n v="3.3333333299999999"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.3241851503671498"/>
+    <n v="3.4110634307852901"/>
+    <n v="2.631167112"/>
+    <n v="1.324338179777174E-2"/>
+    <n v="8.3689190594893103E-5"/>
+    <n v="6.0419685680913708E-3"/>
+    <n v="0.49303739770042337"/>
+  </r>
+  <r>
+    <n v="7896"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.00666667"/>
+    <n v="2.5437500000000002"/>
+    <n v="1.9591854228050201"/>
+    <n v="2.0917649237606799"/>
+    <n v="1.9816019371798399"/>
+    <n v="2.631167112"/>
+    <n v="0.34171574491114587"/>
+    <n v="0.20429050914306415"/>
+    <n v="0.31601044453245886"/>
+    <n v="7.6417514704205085E-3"/>
+  </r>
+  <r>
+    <n v="7951"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.4249999999999998"/>
+    <n v="2.1928571400000001"/>
+    <n v="2.3323458407866902"/>
+    <n v="2.4116889782959299"/>
+    <n v="2.3177069502236201"/>
+    <n v="2.631167112"/>
+    <n v="1.945709764715875E-2"/>
+    <n v="4.7887373451975961E-2"/>
+    <n v="1.558747511287392E-2"/>
+    <n v="0.19211563155464068"/>
+  </r>
+  <r>
+    <n v="7955"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.1538461500000001"/>
+    <n v="2.61538461"/>
+    <n v="2.0197304579970998"/>
+    <n v="2.2043217164211799"/>
+    <n v="2.0882793599251102"/>
+    <n v="2.631167112"/>
+    <n v="0.35480386879829412"/>
+    <n v="0.16897270247739238"/>
+    <n v="0.27783994465651218"/>
+    <n v="2.4908736938000325E-4"/>
+  </r>
+  <r>
+    <n v="7970"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="2.1235294100000002"/>
+    <n v="3"/>
+    <n v="2.0252234408479"/>
+    <n v="2.1811367243207802"/>
+    <n v="2.0654209063903601"/>
+    <n v="2.631167112"/>
+    <n v="0.95018934027240765"/>
+    <n v="0.67053706425610193"/>
+    <n v="0.87343808221221597"/>
+    <n v="0.13603769927042056"/>
+  </r>
+  <r>
+    <n v="7987"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.88"/>
+    <n v="2.34"/>
+    <n v="2.7322846938445098"/>
+    <n v="2.7596541852987801"/>
+    <n v="2.7327268756582499"/>
+    <n v="2.631167112"/>
+    <n v="0.15388728102468088"/>
+    <n v="0.17610963523878304"/>
+    <n v="0.15423439886429058"/>
+    <n v="8.4778287110420611E-2"/>
+  </r>
+  <r>
+    <n v="8086"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.2066666700000002"/>
+    <n v="2.6823529399999999"/>
+    <n v="2.1370821893008598"/>
+    <n v="2.2447166631025901"/>
+    <n v="2.1304015866072801"/>
+    <n v="2.631167112"/>
+    <n v="0.29732019156800382"/>
+    <n v="0.19152551085662634"/>
+    <n v="0.30465029651205511"/>
+    <n v="2.619988988045577E-3"/>
+  </r>
+  <r>
+    <n v="8294"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.6"/>
+    <n v="0.65"/>
+    <n v="2.3903776068332201"/>
+    <n v="2.5455217502201002"/>
+    <n v="2.4756580309356"/>
+    <n v="2.631167112"/>
+    <n v="3.0289142143665266"/>
+    <n v="3.5930027055574723"/>
+    <n v="3.3330272459196526"/>
+    <n v="3.9250231256704207"/>
+  </r>
+  <r>
+    <n v="8315"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.40625"/>
+    <n v="2.3333333299999999"/>
+    <n v="2.28101262233724"/>
+    <n v="2.39734975273262"/>
+    <n v="2.3009620855839099"/>
+    <n v="2.631167112"/>
+    <n v="2.7374564503319793E-3"/>
+    <n v="4.0981023794815184E-3"/>
+    <n v="1.0478974650462356E-3"/>
+    <n v="8.8704961700423579E-2"/>
+  </r>
+  <r>
+    <n v="8318"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.5384615399999999"/>
+    <n v="2.70588235"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.73370097951391"/>
+    <n v="1.7188216476459499"/>
+    <n v="2.631167112"/>
+    <n v="1.0768368495682625"/>
+    <n v="0.94513661712021213"/>
+    <n v="0.97428883013167067"/>
+    <n v="5.5823667893966462E-3"/>
+  </r>
+  <r>
+    <n v="8359"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.9142857100000001"/>
+    <n v="3.8384615399999999"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.5506331799627402"/>
+    <n v="3.6832156077826999"/>
+    <n v="2.631167112"/>
+    <n v="0.15213768951020404"/>
+    <n v="8.2845164841738428E-2"/>
+    <n v="2.4101299470018538E-2"/>
+    <n v="1.4575598358798472"/>
+  </r>
+  <r>
+    <n v="8444"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.8"/>
+    <n v="0.25"/>
+    <n v="2.4810886601978202"/>
+    <n v="2.6984734895620099"/>
+    <n v="2.6592786343089201"/>
+    <n v="2.631167112"/>
+    <n v="4.9777566096633041"/>
+    <n v="5.9950224290879657"/>
+    <n v="5.8046235377374549"/>
+    <n v="5.6699568152704201"/>
+  </r>
+  <r>
+    <n v="8513"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.9076923099999998"/>
+    <n v="3.7818181800000001"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.5455908153832998"/>
+    <n v="3.6771598036280002"/>
+    <n v="2.631167112"/>
+    <n v="0.11115886528008982"/>
+    <n v="5.5803367793751495E-2"/>
+    <n v="1.0953375744823192E-2"/>
+    <n v="1.3239978802895409"/>
+  </r>
+  <r>
+    <n v="8804"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.76666667"/>
+    <n v="1.92307692"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.9082228365503799"/>
+    <n v="1.84012020577049"/>
+    <n v="2.631167112"/>
+    <n v="6.4975063819397952E-2"/>
+    <n v="2.2064379512827555E-4"/>
+    <n v="6.8818164357565886E-3"/>
+    <n v="0.50139172000659682"/>
+  </r>
+  <r>
+    <n v="8964"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.3250000000000002"/>
+    <n v="3.55"/>
+    <n v="3.32407244665026"/>
+    <n v="3.0999718053345302"/>
+    <n v="3.1413649544250002"/>
+    <n v="2.631167112"/>
+    <n v="5.104325936259952E-2"/>
+    <n v="0.20252537599386181"/>
+    <n v="0.16698260047208202"/>
+    <n v="0.84425387607042024"/>
+  </r>
+  <r>
+    <n v="9071"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.5"/>
+    <n v="3.54"/>
+    <n v="3.4454368997929099"/>
+    <n v="3.2338045772587098"/>
+    <n v="3.3023477659957101"/>
+    <n v="2.631167112"/>
+    <n v="8.9421799207761703E-3"/>
+    <n v="9.3755636907717405E-2"/>
+    <n v="5.6478584327229776E-2"/>
+    <n v="0.8259772183104207"/>
+  </r>
+  <r>
+    <n v="9127"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0.49166666999999997"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.6681748528852001"/>
+    <n v="0.93315549824569599"/>
+    <n v="1.4773040408889899"/>
+    <n v="2.631167112"/>
+    <n v="0.2828379871036788"/>
+    <n v="1.6048949916251112"/>
+    <n v="0.52228944931538301"/>
+    <n v="0.18590507847042037"/>
+  </r>
+  <r>
+    <n v="9148"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.86"/>
+    <n v="2.62"/>
+    <n v="2.5249539004259498"/>
+    <n v="2.7443590113645899"/>
+    <n v="2.7143648153209199"/>
+    <n v="2.631167112"/>
+    <n v="9.0337610442402846E-3"/>
+    <n v="1.5465163707578181E-2"/>
+    <n v="8.9047183705512969E-3"/>
+    <n v="1.2470439042054106E-4"/>
+  </r>
+  <r>
+    <n v="9228"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.3642857099999999"/>
+    <n v="2.25"/>
+    <n v="2.2766703892515201"/>
+    <n v="2.3652572000629202"/>
+    <n v="2.2634854835160798"/>
+    <n v="2.631167112"/>
+    <n v="7.1130966282759883E-4"/>
+    <n v="1.3284222166344006E-2"/>
+    <n v="1.8185826566246028E-4"/>
+    <n v="0.14528836727042052"/>
+  </r>
+  <r>
+    <n v="9352"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.0714285700000001"/>
+    <n v="1.0833333300000001"/>
+    <n v="1.9768641587573199"/>
+    <n v="2.1412921530601499"/>
+    <n v="2.0270350123066998"/>
+    <n v="2.631167112"/>
+    <n v="0.79839734193974277"/>
+    <n v="1.1192768712908172"/>
+    <n v="0.89057286518849521"/>
+    <n v="2.3957894167004232"/>
+  </r>
+  <r>
+    <n v="9370"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.6161839256134898"/>
+    <n v="3.76194106914136"/>
+    <n v="2.631167112"/>
+    <n v="0.30424797244199475"/>
+    <n v="0.14731477895747114"/>
+    <n v="5.6672054561558764E-2"/>
+    <n v="1.8737034752704207"/>
+  </r>
+  <r>
+    <n v="9475"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.9428571400000001"/>
+    <n v="1.65"/>
+    <n v="1.7841710427937001"/>
+    <n v="2.0429660353487802"/>
+    <n v="1.9409659772322001"/>
+    <n v="2.631167112"/>
+    <n v="1.8001868724348925E-2"/>
+    <n v="0.15442230493773884"/>
+    <n v="8.4661199906689244E-2"/>
+    <n v="0.96268890167042065"/>
+  </r>
+  <r>
+    <n v="9532"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.4375"/>
+    <n v="2.25"/>
+    <n v="3.4454368997929099"/>
+    <n v="3.1860071587143599"/>
+    <n v="3.2448539047204501"/>
+    <n v="2.631167112"/>
+    <n v="1.4290693813864837"/>
+    <n v="0.87610940116452896"/>
+    <n v="0.98973429173752636"/>
+    <n v="0.14528836727042052"/>
+  </r>
+  <r>
+    <n v="9584"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.8"/>
+    <n v="1.75"/>
+    <n v="1.6681748528852001"/>
+    <n v="1.9337147928524501"/>
+    <n v="1.85858338983414"/>
+    <n v="2.631167112"/>
+    <n v="6.6953547003586519E-3"/>
+    <n v="3.3751125112818636E-2"/>
+    <n v="1.1790352547872808E-2"/>
+    <n v="0.77645547927042047"/>
+  </r>
+  <r>
+    <n v="9689"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.6"/>
+    <n v="2.38461539"/>
+    <n v="2.3903776068332201"/>
+    <n v="2.5455217502201002"/>
+    <n v="2.4756580309356"/>
+    <n v="2.631167112"/>
+    <n v="3.3203142833044973E-5"/>
+    <n v="2.5890856759280639E-2"/>
+    <n v="8.2887624685285873E-3"/>
+    <n v="6.0787751621165273E-2"/>
+  </r>
+  <r>
+    <n v="9767"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.6"/>
+    <n v="3.4823529400000002"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.3102804469296601"/>
+    <n v="3.3943379440361099"/>
+    <n v="2.631167112"/>
+    <n v="1.1519043827023377E-3"/>
+    <n v="2.9608942871442247E-2"/>
+    <n v="7.746639514523623E-3"/>
+    <n v="0.72451731378804596"/>
+  </r>
+  <r>
+    <n v="9795"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2.0071428600000001"/>
+    <n v="1.9548725317934701"/>
+    <n v="2.0866665321943598"/>
+    <n v="1.97725079832984"/>
+    <n v="2.631167112"/>
+    <n v="2.732187210818365E-3"/>
+    <n v="6.3240144392759847E-3"/>
+    <n v="8.9353535089265574E-4"/>
+    <n v="0.38940626708415937"/>
+  </r>
+  <r>
+    <n v="9916"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.2000000000000002"/>
+    <n v="2.4"/>
+    <n v="2.1008473739473601"/>
+    <n v="2.2396182715362798"/>
+    <n v="2.1249140830916402"/>
+    <n v="2.631167112"/>
+    <n v="8.9492293674190551E-2"/>
+    <n v="2.5722298825010453E-2"/>
+    <n v="7.5672261681312983E-2"/>
+    <n v="5.3438233670420575E-2"/>
+  </r>
+  <r>
+    <n v="10174"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.74"/>
+    <n v="3.5249999999999999"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.417346664469"/>
+    <n v="3.5231090056448999"/>
+    <n v="2.631167112"/>
+    <n v="5.8655343946896624E-3"/>
+    <n v="1.1589240650950039E-2"/>
+    <n v="3.575859651020005E-6"/>
+    <n v="0.79893723167042041"/>
+  </r>
+  <r>
+    <n v="10468"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.8941176500000001"/>
+    <n v="0.69230769000000003"/>
+    <n v="1.67332145235749"/>
+    <n v="2.0056920819095398"/>
+    <n v="1.91161438647047"/>
+    <n v="2.631167112"/>
+    <n v="0.96238800193479779"/>
+    <n v="1.7249785609115917"/>
+    <n v="1.4867088200577308"/>
+    <n v="3.7591758582781738"/>
+  </r>
+  <r>
+    <n v="10529"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="3.5444444399999999"/>
+    <n v="4"/>
+    <n v="3.4484132231080999"/>
+    <n v="3.26779385232813"/>
+    <n v="3.3432322891603801"/>
+    <n v="2.631167112"/>
+    <n v="0.30424797244199475"/>
+    <n v="0.53612584268848029"/>
+    <n v="0.43134382600151461"/>
+    <n v="1.8737034752704207"/>
+  </r>
+  <r>
+    <n v="10555"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.46"/>
+    <n v="2.88"/>
+    <n v="2.3751557526798899"/>
+    <n v="2.4384555326807602"/>
+    <n v="2.3489640308844"/>
+    <n v="2.631167112"/>
+    <n v="0.25486771405220843"/>
+    <n v="0.19496151662023112"/>
+    <n v="0.28199920049454441"/>
+    <n v="6.1917806150420501E-2"/>
+  </r>
+  <r>
+    <n v="10643"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.8"/>
+    <n v="2.1666666700000001"/>
+    <n v="2.4810886601978202"/>
+    <n v="2.6984734895620099"/>
+    <n v="2.6592786343089201"/>
+    <n v="2.631167112"/>
+    <n v="9.886118791995803E-2"/>
+    <n v="0.28281849333266007"/>
+    <n v="0.24266654738029264"/>
+    <n v="0.21576066061819521"/>
+  </r>
+  <r>
+    <n v="10693"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.8388888900000002"/>
+    <n v="2.66"/>
+    <n v="2.5098045074212201"/>
+    <n v="2.7282141056301401"/>
+    <n v="2.6949826406224102"/>
+    <n v="2.631167112"/>
+    <n v="2.2558685990982378E-2"/>
+    <n v="4.6531642069198931E-3"/>
+    <n v="1.2237851449166956E-3"/>
+    <n v="8.3133543042055369E-4"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.675"/>
+    <n v="2"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.79681724989932"/>
+    <n v="1.8058926877632699"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.14556370440948876"/>
+    <n v="4.1283229938475371E-2"/>
+    <n v="3.7677648663767417E-2"/>
+    <n v="0.37114977601759669"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.54"/>
+    <n v="2.76"/>
+    <n v="2.2733645414357899"/>
+    <n v="2.4625119786021301"/>
+    <n v="2.4159804843849102"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.23681406953199882"/>
+    <n v="8.8499122875219369E-2"/>
+    <n v="0.11834942712404087"/>
+    <n v="2.273441841759689E-2"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.7923076899999999"/>
+    <n v="3.1"/>
+    <n v="2.3976267257052402"/>
+    <n v="2.6566852740652198"/>
+    <n v="2.6531251971572698"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.49332821644354208"/>
+    <n v="0.19652794623062936"/>
+    <n v="0.19969708941572906"/>
+    <n v="0.24086439001759716"/>
+  </r>
+  <r>
+    <n v="281"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.54"/>
+    <n v="3.74"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2321012603394799"/>
+    <n v="3.4114236792016999"/>
+    <n v="2.6092206299999998"/>
+    <n v="5.5899983049615014E-2"/>
+    <n v="0.25796112974874502"/>
+    <n v="0.10796239858934759"/>
+    <n v="1.2786619836175979"/>
+  </r>
+  <r>
+    <n v="291"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.6"/>
+    <n v="2.72"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2782766172437299"/>
+    <n v="3.4725951134959501"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.61397916714045497"/>
+    <n v="0.31167278136110182"/>
+    <n v="0.56639940485798168"/>
+    <n v="1.2272068817596984E-2"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.2066666700000002"/>
+    <n v="2.1"/>
+    <n v="3.1880598057673"/>
+    <n v="2.9755715000168999"/>
+    <n v="3.07252290645302"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.1838741409263744"/>
+    <n v="0.76662545164184392"/>
+    <n v="0.94580080357582919"/>
+    <n v="0.25930565001759665"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.0125000000000002"/>
+    <n v="1.60769231"/>
+    <n v="1.8192235963658001"/>
+    <n v="2.0565536324856701"/>
+    <n v="1.9952580529852699"/>
+    <n v="2.6092206299999998"/>
+    <n v="4.474548511157013E-2"/>
+    <n v="0.20147648682358474"/>
+    <n v="0.1502072051357243"/>
+    <n v="1.0030589757620221"/>
+  </r>
+  <r>
+    <n v="512"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.77692308"/>
+    <n v="2.2625000000000002"/>
+    <n v="2.4021386694039601"/>
+    <n v="2.6448454392575602"/>
+    <n v="2.63803544058519"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.9498957992908426E-2"/>
+    <n v="0.14618803492105653"/>
+    <n v="0.14102686713551266"/>
+    <n v="0.12021519526759665"/>
+  </r>
+  <r>
+    <n v="702"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.06666667"/>
+    <n v="0.75"/>
+    <n v="1.81524235112474"/>
+    <n v="2.09823971883631"/>
+    <n v="2.0286264698063401"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.1347412666297638"/>
+    <n v="1.8177503394478123"/>
+    <n v="1.6348856492894235"/>
+    <n v="3.4567013510175961"/>
+  </r>
+  <r>
+    <n v="970"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.28571429"/>
+    <n v="2.78333333"/>
+    <n v="2.1082392397249299"/>
+    <n v="2.2668164186088"/>
+    <n v="2.1923523806110699"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.45575203072432457"/>
+    <n v="0.26678971975310478"/>
+    <n v="0.34925848254064129"/>
+    <n v="3.0315232301290081E-2"/>
+  </r>
+  <r>
+    <n v="990"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.1124999999999998"/>
+    <n v="2.98666667"/>
+    <n v="3.0163552724002098"/>
+    <n v="2.9031018423967598"/>
+    <n v="2.9768518942990601"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.8141311247774744E-4"/>
+    <n v="6.983080412359244E-3"/>
+    <n v="9.6329822059760601E-5"/>
+    <n v="0.14246551311168171"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.1071428600000002"/>
+    <n v="3"/>
+    <n v="3.0163552724002098"/>
+    <n v="2.89897904256323"/>
+    <n v="2.9714091690822499"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.6749493528506577E-4"/>
+    <n v="1.0205233841441692E-2"/>
+    <n v="8.1743561256737241E-4"/>
+    <n v="0.15270851601759705"/>
+  </r>
+  <r>
+    <n v="1103"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="3.75"/>
+    <n v="3.50356822749551"/>
+    <n v="3.5861123299386701"/>
+    <n v="3.88020336029457"/>
+    <n v="2.6092206299999998"/>
+    <n v="6.0728618499704713E-2"/>
+    <n v="2.6859168398131319E-2"/>
+    <n v="1.6952915031997615E-2"/>
+    <n v="1.3013775710175972"/>
+  </r>
+  <r>
+    <n v="1235"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.1666666699999999"/>
+    <n v="1.75"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.40560936527269"/>
+    <n v="1.5493592907657201"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.7299645681508793E-2"/>
+    <n v="0.11860490928787948"/>
+    <n v="4.025669420203485E-2"/>
+    <n v="0.7382600910175966"/>
+  </r>
+  <r>
+    <n v="1278"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.0769230799999998"/>
+    <n v="3.15"/>
+    <n v="3.00894724198479"/>
+    <n v="2.8757222237787698"/>
+    <n v="2.94070661761921"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.9895880543697359E-2"/>
+    <n v="7.5228298528863161E-2"/>
+    <n v="4.3803719908391527E-2"/>
+    <n v="0.29244232701759698"/>
+  </r>
+  <r>
+    <n v="1455"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.4"/>
+    <n v="1.29411765"/>
+    <n v="2.23192844148396"/>
+    <n v="2.3547694791588998"/>
+    <n v="2.2903259530384599"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.8794890806237714"/>
+    <n v="1.1249823026981198"/>
+    <n v="0.99243098304276789"/>
+    <n v="1.7294958480048799"/>
+  </r>
+  <r>
+    <n v="1516"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.1875"/>
+    <n v="0.71428570999999996"/>
+    <n v="2.12957477843785"/>
+    <n v="2.1912317567897102"/>
+    <n v="2.1099104506270701"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.0030431472396772"/>
+    <n v="2.1813696251277528"/>
+    <n v="1.9477684166503766"/>
+    <n v="3.5907783510354059"/>
+  </r>
+  <r>
+    <n v="1639"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.37857143"/>
+    <n v="0.67500000000000004"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.5686889988569901"/>
+    <n v="1.6542790260537601"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.89013919315119483"/>
+    <n v="0.79868002667800919"/>
+    <n v="0.9589874108688009"/>
+    <n v="3.7412094455175962"/>
+  </r>
+  <r>
+    <n v="1857"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.1937500000000001"/>
+    <n v="3.5071428600000001"/>
+    <n v="3.1380672181226101"/>
+    <n v="2.9656309715379199"/>
+    <n v="3.0593998912193401"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.13621682942720739"/>
+    <n v="0.2932351253457684"/>
+    <n v="0.20047376609251907"/>
+    <n v="0.80626433112817342"/>
+  </r>
+  <r>
+    <n v="1930"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.28235294"/>
+    <n v="2.4"/>
+    <n v="2.1082392397249299"/>
+    <n v="2.2642295635245802"/>
+    <n v="2.1894956253362001"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.5124341236286885E-2"/>
+    <n v="1.8433611420725991E-2"/>
+    <n v="4.4312091752597392E-2"/>
+    <n v="4.3773272017596863E-2"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4249999999999998"/>
+    <n v="1.8538461500000001"/>
+    <n v="2.23192844148396"/>
+    <n v="2.3740092112023299"/>
+    <n v="2.3126513255072099"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.14294621913376201"/>
+    <n v="0.2705696102393787"/>
+    <n v="0.21050218907220158"/>
+    <n v="0.57059060503527004"/>
+  </r>
+  <r>
+    <n v="2057"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.34"/>
+    <n v="3.7562500000000001"/>
+    <n v="3.3092937881190299"/>
+    <n v="3.0781834039920102"/>
+    <n v="3.2079887810652798"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.19976985533898675"/>
+    <n v="0.45977430862186258"/>
+    <n v="0.30059036418778523"/>
+    <n v="1.3156763756425975"/>
+  </r>
+  <r>
+    <n v="2240"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.70714286"/>
+    <n v="1.925"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.82155404813093"/>
+    <n v="1.82327759814143"/>
+    <n v="2.6092206299999998"/>
+    <n v="9.3959486791094796E-2"/>
+    <n v="1.0701064958097951E-2"/>
+    <n v="1.0347447039876419E-2"/>
+    <n v="0.46815787051759661"/>
+  </r>
+  <r>
+    <n v="2307"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2.9076923099999998"/>
+    <n v="1.7444170823123699"/>
+    <n v="2.04693376646396"/>
+    <n v="1.9876949257622201"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.3532092553517072"/>
+    <n v="0.74090527027028463"/>
+    <n v="0.84639518700435701"/>
+    <n v="8.9085343762022415E-2"/>
+  </r>
+  <r>
+    <n v="2346"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.2"/>
+    <n v="2.3076923100000002"/>
+    <n v="3.1880598057673"/>
+    <n v="2.9704409045487798"/>
+    <n v="3.0657497371362901"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.77504692760358662"/>
+    <n v="0.43923569957638275"/>
+    <n v="0.57465106283649148"/>
+    <n v="9.0919327762022176E-2"/>
+  </r>
+  <r>
+    <n v="2394"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.0625"/>
+    <n v="4"/>
+    <n v="3.0006267338395101"/>
+    <n v="2.8646223783099001"/>
+    <n v="2.92605312696349"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.99874692511628549"/>
+    <n v="1.2890823438346677"/>
+    <n v="1.1533618861048978"/>
+    <n v="1.9342672560175973"/>
+  </r>
+  <r>
+    <n v="2448"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.05"/>
+    <n v="2.4272727299999999"/>
+    <n v="2.9206749927119899"/>
+    <n v="2.8550025122881801"/>
+    <n v="2.9133534351296002"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.24344579284931164"/>
+    <n v="0.18295276665629409"/>
+    <n v="0.23627445189928947"/>
+    <n v="3.3105038314409981E-2"/>
+  </r>
+  <r>
+    <n v="2748"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="0.69230769000000003"/>
+    <n v="2.5750000000000002"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.0405477824167699"/>
+    <n v="1.4483404611864099"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.91494603948384301"/>
+    <n v="2.3545436080460931"/>
+    <n v="1.269361716399652"/>
+    <n v="1.1710515175968755E-3"/>
+  </r>
+  <r>
+    <n v="2797"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.8125"/>
+    <n v="2.7647058800000002"/>
+    <n v="2.4175876151239302"/>
+    <n v="2.67222505787556"/>
+    <n v="2.67304514846907"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.12049108981057349"/>
+    <n v="8.5527024608123472E-3"/>
+    <n v="8.4016897047852479E-3"/>
+    <n v="2.417566296756261E-2"/>
+  </r>
+  <r>
+    <n v="2937"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.8235294099999999"/>
+    <n v="3.34545454"/>
+    <n v="2.4175876151239302"/>
+    <n v="2.68071317513462"/>
+    <n v="2.6840035197609402"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.86093703027897417"/>
+    <n v="0.44188108216308819"/>
+    <n v="0.43751745217529309"/>
+    <n v="0.54204037023388829"/>
+  </r>
+  <r>
+    <n v="2971"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.40714286"/>
+    <n v="2.87857143"/>
+    <n v="3.3338591227176901"/>
+    <n v="3.1298558270844401"/>
+    <n v="3.2762054423127198"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.2072868831401978"/>
+    <n v="6.3143848218090548E-2"/>
+    <n v="0.15811280774791217"/>
+    <n v="7.2549853460640121E-2"/>
+  </r>
+  <r>
+    <n v="3003"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.7583333299999999"/>
+    <n v="3.2470588199999999"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.8609496897875699"/>
+    <n v="1.85102731054856"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.6522954128521823"/>
+    <n v="1.9212985208582591"/>
+    <n v="1.9489039753812658"/>
+    <n v="0.40683755662247623"/>
+  </r>
+  <r>
+    <n v="3071"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.46"/>
+    <n v="2.72"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.6313555543257801"/>
+    <n v="1.6951415210374301"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.2133641935460715"/>
+    <n v="1.1851467290973301"/>
+    <n v="1.0503349019014727"/>
+    <n v="1.2272068817596984E-2"/>
+  </r>
+  <r>
+    <n v="3293"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.2"/>
+    <n v="3.4375"/>
+    <n v="3.1880598057673"/>
+    <n v="2.9704409045487798"/>
+    <n v="3.0657497371362901"/>
+    <n v="2.6092206299999998"/>
+    <n v="6.222041049884712E-2"/>
+    <n v="0.21814419864371198"/>
+    <n v="0.13819825793923743"/>
+    <n v="0.68604671476759715"/>
+  </r>
+  <r>
+    <n v="3297"/>
+    <n v="12"/>
+    <x v="11"/>
+    <n v="3"/>
+    <n v="3.7"/>
+    <n v="2.76399705270999"/>
+    <n v="2.8165230482013102"/>
+    <n v="2.8625546677940501"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.87610151733558561"/>
+    <n v="0.78053152435950479"/>
+    <n v="0.70131468443353406"/>
+    <n v="1.1897996340175976"/>
+  </r>
+  <r>
+    <n v="3489"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.16923077"/>
+    <n v="2.9249999999999998"/>
+    <n v="3.09265517757279"/>
+    <n v="2.9467612341638798"/>
+    <n v="3.03448895700302"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.8108258566963792E-2"/>
+    <n v="4.7355131233521737E-4"/>
+    <n v="1.1987831705609204E-2"/>
+    <n v="9.9716610517596907E-2"/>
+  </r>
+  <r>
+    <n v="3551"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.2437499999999999"/>
+    <n v="3.375"/>
+    <n v="3.1891117838184302"/>
+    <n v="3.0041104356247899"/>
+    <n v="3.1101989141857702"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.4554428915166031E-2"/>
+    <n v="0.13755906896243314"/>
+    <n v="7.011961504839509E-2"/>
+    <n v="0.58641804351759719"/>
+  </r>
+  <r>
+    <n v="3680"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.4764705899999999"/>
+    <n v="2.2999999999999998"/>
+    <n v="2.2762588933419399"/>
+    <n v="2.41362042405185"/>
+    <n v="2.3588146393017202"/>
+    <n v="2.6092206299999998"/>
+    <n v="5.636401453493786E-4"/>
+    <n v="1.2909600761722245E-2"/>
+    <n v="3.4591617961914705E-3"/>
+    <n v="9.5617398017596902E-2"/>
+  </r>
+  <r>
+    <n v="3780"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.60714286"/>
+    <n v="0.69230769000000003"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.7445951199572001"/>
+    <n v="1.77087395575464"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.85778011155075362"/>
+    <n v="1.1073088352459293"/>
+    <n v="1.1633051896239086"/>
+    <n v="3.6745552195394429"/>
+  </r>
+  <r>
+    <n v="3801"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.9357142899999999"/>
+    <n v="2.7336608072548301"/>
+    <n v="2.7588038520710101"/>
+    <n v="2.7863565167907001"/>
+    <n v="2.6092206299999998"/>
+    <n v="4.0825609889452663E-2"/>
+    <n v="3.1297303048226977E-2"/>
+    <n v="2.2307744418040659E-2"/>
+    <n v="0.10659811002019569"/>
+  </r>
+  <r>
+    <n v="3833"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.72"/>
+    <n v="2.5625"/>
+    <n v="2.3851760081725701"/>
+    <n v="2.6010380493148499"/>
+    <n v="2.5822033397972302"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.144379807761441E-2"/>
+    <n v="1.4851812449938062E-3"/>
+    <n v="3.8822159916511375E-4"/>
+    <n v="2.1828172675968831E-3"/>
+  </r>
+  <r>
+    <n v="4017"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.5625"/>
+    <n v="0.25"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.7102384557038599"/>
+    <n v="1.74788273477653"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.8727152933136291"/>
+    <n v="2.1322963475163936"/>
+    <n v="2.2436526871416165"/>
+    <n v="5.5659219810175964"/>
+  </r>
+  <r>
+    <n v="4045"/>
+    <n v="11"/>
+    <x v="10"/>
+    <n v="3.45333333"/>
+    <n v="3.28571429"/>
+    <n v="3.47431562657271"/>
+    <n v="3.16540352233238"/>
+    <n v="3.3231345566121"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.5570464157012614E-2"/>
+    <n v="1.4474680816772051E-2"/>
+    <n v="1.4002763533206431E-3"/>
+    <n v="0.4576436720201959"/>
+  </r>
+  <r>
+    <n v="4052"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.46"/>
+    <n v="2.4249999999999998"/>
+    <n v="2.2387667125639998"/>
+    <n v="2.40094483606314"/>
+    <n v="2.3440334261480098"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.4682837349219786E-2"/>
+    <n v="5.7865091202920042E-4"/>
+    <n v="6.5555860813297541E-3"/>
+    <n v="3.3937240517596896E-2"/>
+  </r>
+  <r>
+    <n v="4221"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.2333333299999998"/>
+    <n v="3"/>
+    <n v="3.1891117838184302"/>
+    <n v="2.9960938803501702"/>
+    <n v="3.09961559492075"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.5763266778988674E-2"/>
+    <n v="1.5257770718786377E-5"/>
+    <n v="9.9232667514149546E-3"/>
+    <n v="0.15270851601759705"/>
+  </r>
+  <r>
+    <n v="4260"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="3.7749999999999999"/>
+    <n v="3.50356822749551"/>
+    <n v="3.5861123299386701"/>
+    <n v="3.88020336029457"/>
+    <n v="2.6092206299999998"/>
+    <n v="7.3675207124929171E-2"/>
+    <n v="3.5678551901197779E-2"/>
+    <n v="1.1067747017269132E-2"/>
+    <n v="1.3590415395175972"/>
+  </r>
+  <r>
+    <n v="4547"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.8812500000000001"/>
+    <n v="1.0055555599999999"/>
+    <n v="1.6424225527982199"/>
+    <n v="1.9555450392576399"/>
+    <n v="1.91873301286918"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.405599566515848"/>
+    <n v="0.90248001070020201"/>
+    <n v="0.83389306042864353"/>
+    <n v="2.5717416567381046"/>
+  </r>
+  <r>
+    <n v="4675"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.08125"/>
+    <n v="1.3"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.33987361386776"/>
+    <n v="1.5080047889562"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.10142433997114482"/>
+    <n v="1.5899050828752229E-3"/>
+    <n v="4.3265992228713301E-2"/>
+    <n v="1.7140586580175963"/>
+  </r>
+  <r>
+    <n v="4785"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.67777778"/>
+    <n v="2.7076923100000001"/>
+    <n v="2.3820346803248502"/>
+    <n v="2.56854427981252"/>
+    <n v="2.5414462648961198"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.10605289176563706"/>
+    <n v="1.9362174305055879E-2"/>
+    <n v="2.7637747512681405E-2"/>
+    <n v="9.696671762022456E-3"/>
+  </r>
+  <r>
+    <n v="4992"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.5"/>
+    <n v="2.1538461500000001"/>
+    <n v="2.2776994643173598"/>
+    <n v="2.43172840733263"/>
+    <n v="2.3799829694189998"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.5339643467394694E-2"/>
+    <n v="7.7218548940277909E-2"/>
+    <n v="5.113786109694126E-2"/>
+    <n v="0.20736591703527013"/>
+  </r>
+  <r>
+    <n v="5083"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.6823529399999999"/>
+    <n v="2.8250000000000002"/>
+    <n v="2.3820346803248502"/>
+    <n v="2.57206527621952"/>
+    <n v="2.5456787007061101"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.1962182744349078"/>
+    <n v="6.3975974493907822E-2"/>
+    <n v="7.8020388239226898E-2"/>
+    <n v="4.6560736517597054E-2"/>
+  </r>
+  <r>
+    <n v="5173"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.8333333299999999"/>
+    <n v="1.64705882"/>
+    <n v="2.4283181812972798"/>
+    <n v="2.6882581676552202"/>
+    <n v="2.6937442934698401"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.61036618961463363"/>
+    <n v="1.0840960815576559"/>
+    <n v="1.0955504803727834"/>
+    <n v="0.92575534862247566"/>
+  </r>
+  <r>
+    <n v="5498"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.5941176499999998"/>
+    <n v="3.4142857100000001"/>
+    <n v="3.50356822749551"/>
+    <n v="3.27374962142353"/>
+    <n v="3.46659791399536"/>
+    <n v="2.6092206299999998"/>
+    <n v="7.9713679303360253E-3"/>
+    <n v="1.9750392192373463E-2"/>
+    <n v="2.736566686852143E-3"/>
+    <n v="0.64812978303540691"/>
+  </r>
+  <r>
+    <n v="5676"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.85714286"/>
+    <n v="2.2266666700000002"/>
+    <n v="1.6424225527982199"/>
+    <n v="1.9369924403915399"/>
+    <n v="1.90516327274845"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.34134118848488754"/>
+    <n v="8.3911159299254939E-2"/>
+    <n v="0.1033644344442881"/>
+    <n v="0.14634753231168132"/>
+  </r>
+  <r>
+    <n v="5734"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.1277777800000002"/>
+    <n v="2.7352941199999998"/>
+    <n v="3.0163552724002098"/>
+    <n v="2.9148594565943302"/>
+    <n v="2.99237374009958"/>
+    <n v="2.6092206299999998"/>
+    <n v="7.8995371388534075E-2"/>
+    <n v="3.2243710106235168E-2"/>
+    <n v="6.6089931070544478E-2"/>
+    <n v="1.5894524880780102E-2"/>
+  </r>
+  <r>
+    <n v="5795"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.8571428600000002"/>
+    <n v="1.60714286"/>
+    <n v="2.46275811833415"/>
+    <n v="2.7065817221288899"/>
+    <n v="2.7176860988408098"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.73207747029421444"/>
+    <n v="1.2087658115592683"/>
+    <n v="1.2333062853350361"/>
+    <n v="1.0041598571281727"/>
+  </r>
+  <r>
+    <n v="5909"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.8928571399999998"/>
+    <n v="2.0076923099999999"/>
+    <n v="2.7336608072548301"/>
+    <n v="2.7340670538393899"/>
+    <n v="2.7537819475962602"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.5270302590064363"/>
+    <n v="0.52762026848773935"/>
+    <n v="0.55664974732851891"/>
+    <n v="0.3618363197620223"/>
+  </r>
+  <r>
+    <n v="6020"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.8235294099999999"/>
+    <n v="2.7333333299999998"/>
+    <n v="2.4175876151239302"/>
+    <n v="2.68071317513462"/>
+    <n v="2.6840035197609402"/>
+    <n v="2.6092206299999998"/>
+    <n v="9.9695356462600249E-2"/>
+    <n v="2.7688806980565475E-3"/>
+    <n v="2.4334301782216274E-3"/>
+    <n v="1.5403962301289991E-2"/>
+  </r>
+  <r>
+    <n v="6145"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.0529411799999999"/>
+    <n v="3.1428571399999998"/>
+    <n v="2.9206749927119899"/>
+    <n v="2.8572660098134799"/>
+    <n v="2.9163415974359501"/>
+    <n v="2.6092206299999998"/>
+    <n v="4.9364906573510919E-2"/>
+    <n v="8.1562293641213784E-2"/>
+    <n v="5.1309291023085818E-2"/>
+    <n v="0.28476792480498009"/>
+  </r>
+  <r>
+    <n v="6147"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="2.73"/>
+    <n v="1.7444170823123699"/>
+    <n v="2.04693376646396"/>
+    <n v="1.9876949257622201"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.97137368763766174"/>
+    <n v="0.46657947939711197"/>
+    <n v="0.55101682323915591"/>
+    <n v="1.458765621759694E-2"/>
+  </r>
+  <r>
+    <n v="6464"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.44615385"/>
+    <n v="2.65"/>
+    <n v="3.45484519186753"/>
+    <n v="3.1598782660888101"/>
+    <n v="3.31584026144108"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.64777578287228132"/>
+    <n v="0.25997584622973147"/>
+    <n v="0.44334325375592593"/>
+    <n v="1.6629570175969075E-3"/>
+  </r>
+  <r>
+    <n v="6846"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="0.93571428999999995"/>
+    <n v="0"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.22787088826337"/>
+    <n v="1.44818005328894"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.6194512345856489"/>
+    <n v="1.5076669182446771"/>
+    <n v="2.0972254667439572"/>
+    <n v="6.8080322960175961"/>
+  </r>
+  <r>
+    <n v="6940"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4"/>
+    <n v="1.6"/>
+    <n v="2.23192844148396"/>
+    <n v="2.3547694791588998"/>
+    <n v="2.2903259530384599"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.3993335551563465"/>
+    <n v="0.56967696666979672"/>
+    <n v="0.47654992143845776"/>
+    <n v="1.0185262800175963"/>
+  </r>
+  <r>
+    <n v="7005"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.19"/>
+    <n v="2.22307692"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.4235664482567001"/>
+    <n v="1.5607944720414699"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.36554725131712273"/>
+    <n v="0.63921699442719393"/>
+    <n v="0.43861804087394313"/>
+    <n v="0.14910696477256394"/>
+  </r>
+  <r>
+    <n v="7049"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.28"/>
+    <n v="3.22"/>
+    <n v="3.2958833757827501"/>
+    <n v="3.0320080470877699"/>
+    <n v="3.1470288640494801"/>
+    <n v="2.6092206299999998"/>
+    <n v="5.7582867201860415E-3"/>
+    <n v="3.5340974359754196E-2"/>
+    <n v="5.3247866819092831E-3"/>
+    <n v="0.37305143881759734"/>
+  </r>
+  <r>
+    <n v="7127"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.1"/>
+    <n v="2.8250000000000002"/>
+    <n v="3.0163552724002098"/>
+    <n v="2.8934819763750501"/>
+    <n v="2.9641522024651699"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.6616840275358442E-2"/>
+    <n v="4.6897810882328972E-3"/>
+    <n v="1.9363335450907574E-2"/>
+    <n v="4.6560736517597054E-2"/>
+  </r>
+  <r>
+    <n v="7132"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.9058823499999999"/>
+    <n v="2.48"/>
+    <n v="1.64702138969017"/>
+    <n v="1.9745018341104199"/>
+    <n v="1.93295850260665"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.69385336523369567"/>
+    <n v="0.2555283957177294"/>
+    <n v="0.29925439987035851"/>
+    <n v="1.6697971217596856E-2"/>
+  </r>
+  <r>
+    <n v="7200"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.34166667"/>
+    <n v="2.7"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.54028748957673"/>
+    <n v="1.6360389110695499"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.1697030688478331"/>
+    <n v="1.3449331068322434"/>
+    <n v="1.1320131987580695"/>
+    <n v="8.2408940175969659E-3"/>
+  </r>
+  <r>
+    <n v="7282"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.8133333299999999"/>
+    <n v="1.9312499999999999"/>
+    <n v="2.4175876151239302"/>
+    <n v="2.6728663820204801"/>
+    <n v="2.67387311395116"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.23652427588443212"/>
+    <n v="0.54999485808114679"/>
+    <n v="0.55148908937451768"/>
+    <n v="0.45964417514259676"/>
+  </r>
+  <r>
+    <n v="7341"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="2.6666666700000001"/>
+    <n v="3.15"/>
+    <n v="2.3553094060972102"/>
+    <n v="2.5599932878787199"/>
+    <n v="2.5311674914217699"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.63153314003756866"/>
+    <n v="0.34810792034816296"/>
+    <n v="0.38295367367322514"/>
+    <n v="0.29244232701759698"/>
+  </r>
+  <r>
+    <n v="7389"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.2749999999999999"/>
+    <n v="2.42"/>
+    <n v="2.1094747719284901"/>
+    <n v="2.2585708189417302"/>
+    <n v="2.1832464741816602"/>
+    <n v="2.6092206299999998"/>
+    <n v="9.6425917268863209E-2"/>
+    <n v="2.6059380497143639E-2"/>
+    <n v="5.6052231987415269E-2"/>
+    <n v="3.5804446817596855E-2"/>
+  </r>
+  <r>
+    <n v="7441"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="2.9473684200000001"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.2773444847266"/>
+    <n v="1.47233881024707"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.7659660072624397"/>
+    <n v="2.7889799443860537"/>
+    <n v="2.1757123496478812"/>
+    <n v="0.11434392788188429"/>
+  </r>
+  <r>
+    <n v="7489"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.54"/>
+    <n v="3.8"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2321012603394799"/>
+    <n v="3.4114236792016999"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.7871795750153608E-2"/>
+    <n v="0.32250897850800703"/>
+    <n v="0.15099155708514331"/>
+    <n v="1.417955508017597"/>
+  </r>
+  <r>
+    <n v="7560"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.5941176500000001"/>
+    <n v="0"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.73457105794882"/>
+    <n v="1.7641659289499001"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.6194512345856489"/>
+    <n v="3.0087367550736888"/>
+    <n v="3.112281424867664"/>
+    <n v="6.8080322960175961"/>
+  </r>
+  <r>
+    <n v="7563"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="3.4249999999999998"/>
+    <n v="2.76399705270999"/>
+    <n v="2.8165230482013102"/>
+    <n v="2.8625546677940501"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.43692489632607956"/>
+    <n v="0.37024420087022492"/>
+    <n v="0.31634475172026116"/>
+    <n v="0.66549598051759695"/>
+  </r>
+  <r>
+    <n v="7801"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.4"/>
+    <n v="3.46"/>
+    <n v="3.3338591227176901"/>
+    <n v="3.12435876089625"/>
+    <n v="3.2689483628971101"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.5911520921550747E-2"/>
+    <n v="0.11265504138710067"/>
+    <n v="3.650072803969432E-2"/>
+    <n v="0.72382553641759717"/>
+  </r>
+  <r>
+    <n v="7871"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="3.71538462"/>
+    <n v="3.50356822749551"/>
+    <n v="3.5861123299386701"/>
+    <n v="3.88020336029457"/>
+    <n v="2.6092206299999998"/>
+    <n v="4.4866184133616177E-2"/>
+    <n v="1.6711324977700611E-2"/>
+    <n v="2.7165217152288913E-2"/>
+    <n v="1.2235987727727207"/>
+  </r>
+  <r>
+    <n v="7948"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="1.84375"/>
+    <n v="2.9"/>
+    <n v="1.63861439954606"/>
+    <n v="1.9266854411924901"/>
+    <n v="1.8976413250917199"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.5910936330325465"/>
+    <n v="0.94734123038665752"/>
+    <n v="1.0047229131638831"/>
+    <n v="8.4552642017596949E-2"/>
+  </r>
+  <r>
+    <n v="8133"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.87142857"/>
+    <n v="3.2"/>
+    <n v="2.63012466070046"/>
+    <n v="2.71757585450526"/>
+    <n v="2.7321048104122698"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.32475790234176599"/>
+    <n v="0.23273305615633028"/>
+    <n v="0.21892590843933812"/>
+    <n v="0.34902026401759734"/>
+  </r>
+  <r>
+    <n v="8167"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="3.01333333"/>
+    <n v="1.8"/>
+    <n v="2.8775779501511201"/>
+    <n v="2.8267842383679498"/>
+    <n v="2.8761010054115301"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.1611742386518897"/>
+    <n v="1.0542858721608506"/>
+    <n v="1.157993373847706"/>
+    <n v="0.6548380280175965"/>
+  </r>
+  <r>
+    <n v="8376"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.66923077"/>
+    <n v="2.71428571"/>
+    <n v="2.3553094060972102"/>
+    <n v="2.5619665932952"/>
+    <n v="2.5335395155715701"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.12886398676370808"/>
+    <n v="2.3201113313730457E-2"/>
+    <n v="3.2669186800359774E-2"/>
+    <n v="1.1038671035406429E-2"/>
+  </r>
+  <r>
+    <n v="8420"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.55384615"/>
+    <n v="3.8"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2427571120511698"/>
+    <n v="3.4255401641956902"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.7871795750153608E-2"/>
+    <n v="0.31051963616955236"/>
+    <n v="0.14022016863059053"/>
+    <n v="1.417955508017597"/>
+  </r>
+  <r>
+    <n v="8442"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.6176470599999999"/>
+    <n v="3.7687499999999998"/>
+    <n v="3.50356822749551"/>
+    <n v="3.29185760470431"/>
+    <n v="3.4905867119976999"/>
+    <n v="2.6092206299999998"/>
+    <n v="7.0321372468622995E-2"/>
+    <n v="0.22742635669086048"/>
+    <n v="7.737481479225046E-2"/>
+    <n v="1.3445083598925969"/>
+  </r>
+  <r>
+    <n v="8519"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.1538461500000001"/>
+    <n v="1"/>
+    <n v="2.12716229999827"/>
+    <n v="2.16533211761887"/>
+    <n v="2.0843415311744899"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.2704948505373901"/>
+    <n v="1.3579989443540799"/>
+    <n v="1.1757965562298374"/>
+    <n v="2.5895910360175964"/>
+  </r>
+  <r>
+    <n v="8542"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.0692307699999999"/>
+    <n v="3.1749999999999998"/>
+    <n v="1.81524235112474"/>
+    <n v="2.1002130242527901"/>
+    <n v="2.0302202845182"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.8489408636747744"/>
+    <n v="1.1551670432358332"/>
+    <n v="1.3105205969785905"/>
+    <n v="0.32010629551759689"/>
+  </r>
+  <r>
+    <n v="8592"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0750000000000002"/>
+    <n v="3"/>
+    <n v="3.00894724198479"/>
+    <n v="2.8742422443316098"/>
+    <n v="2.9387528187973899"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.0053139134389286E-5"/>
+    <n v="1.581501311075053E-2"/>
+    <n v="3.7512172052653536E-3"/>
+    <n v="0.15270851601759705"/>
+  </r>
+  <r>
+    <n v="8697"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.04375"/>
+    <n v="3"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.31101401580261"/>
+    <n v="1.49077355073799"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.9086199393214087"/>
+    <n v="2.8526736548152263"/>
+    <n v="2.2777644751520145"/>
+    <n v="0.15270851601759705"/>
+  </r>
+  <r>
+    <n v="8806"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.69230769"/>
+    <n v="1.69230769"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.8101370641541299"/>
+    <n v="1.8152537932266899"/>
+    <n v="2.6092206299999998"/>
+    <n v="5.4517264626735935E-3"/>
+    <n v="1.3883761413553927E-2"/>
+    <n v="1.511574429862788E-2"/>
+    <n v="0.84072933953944318"/>
+  </r>
+  <r>
+    <n v="8989"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.6363636399999999"/>
+    <n v="1.77333333"/>
+    <n v="1.6184718825440401"/>
+    <n v="1.7670831182796101"/>
+    <n v="1.7859214995160599"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.3982067908155054E-2"/>
+    <n v="3.9065146549700218E-5"/>
+    <n v="1.5846201176505971E-4"/>
+    <n v="0.6987075783012896"/>
+  </r>
+  <r>
+    <n v="9008"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.28"/>
+    <n v="2.9"/>
+    <n v="3.2958833757827501"/>
+    <n v="3.0320080470877699"/>
+    <n v="3.1470288640494801"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.15672364722114623"/>
+    <n v="1.7426124495926908E-2"/>
+    <n v="6.102325967357658E-2"/>
+    <n v="8.4552642017596949E-2"/>
+  </r>
+  <r>
+    <n v="9024"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.15"/>
+    <n v="2.75"/>
+    <n v="2.1292917368871702"/>
+    <n v="2.1623721587245601"/>
+    <n v="2.0815325693619999"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.38527874789654593"/>
+    <n v="0.34530647984203355"/>
+    <n v="0.44684870582376945"/>
+    <n v="1.981883101759695E-2"/>
+  </r>
+  <r>
+    <n v="9043"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.37058824"/>
+    <n v="3.4117647099999999"/>
+    <n v="3.3198233058857798"/>
+    <n v="3.1017237817952799"/>
+    <n v="3.2390662702892898"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.4532217904943353E-3"/>
+    <n v="9.612537716204439E-2"/>
+    <n v="2.9824751078513765E-2"/>
+    <n v="0.6440770003430466"/>
+  </r>
+  <r>
+    <n v="9097"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.7277777799999998"/>
+    <n v="3.85"/>
+    <n v="3.50356822749551"/>
+    <n v="3.3766130256367402"/>
+    <n v="3.6028676126824801"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.12001497300060278"/>
+    <n v="0.22409522749680172"/>
+    <n v="6.1074416861256704E-2"/>
+    <n v="1.5395334450175975"/>
+  </r>
+  <r>
+    <n v="9183"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.93529412"/>
+    <n v="1.7"/>
+    <n v="1.69494392515283"/>
+    <n v="1.99713681321139"/>
+    <n v="1.9499441621239699"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.5563892860184803E-5"/>
+    <n v="8.8290285765420515E-2"/>
+    <n v="6.2472084179853386E-2"/>
+    <n v="0.8266821540175967"/>
+  </r>
+  <r>
+    <n v="9201"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="1.86"/>
+    <n v="1.425"/>
+    <n v="1.6424225527982199"/>
+    <n v="1.9391912670207301"/>
+    <n v="1.90676795501257"/>
+    <n v="2.6092206299999998"/>
+    <n v="4.7272566465294708E-2"/>
+    <n v="0.26439265908038367"/>
+    <n v="0.23210036247699364"/>
+    <n v="1.4023785005175964"/>
+  </r>
+  <r>
+    <n v="9268"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.25"/>
+    <n v="2.75"/>
+    <n v="2.1267776624385402"/>
+    <n v="2.2393310868983001"/>
+    <n v="2.1619993597463001"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.3884060820355702"/>
+    <n v="0.26078273880847153"/>
+    <n v="0.345744752938761"/>
+    <n v="1.981883101759695E-2"/>
+  </r>
+  <r>
+    <n v="9279"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="3.3250000000000002"/>
+    <n v="3.1"/>
+    <n v="3.2948858313816598"/>
+    <n v="3.0666395647659499"/>
+    <n v="3.1927488018113301"/>
+    <n v="2.6092206299999998"/>
+    <n v="3.79804872733207E-2"/>
+    <n v="1.1129186390052574E-3"/>
+    <n v="8.6023402374373805E-3"/>
+    <n v="0.24086439001759716"/>
+  </r>
+  <r>
+    <n v="9330"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0625"/>
+    <n v="3.25"/>
+    <n v="3.0006267338395101"/>
+    <n v="2.8646223783099001"/>
+    <n v="2.9260531269635002"/>
+    <n v="2.6092206299999998"/>
+    <n v="6.2187025875550556E-2"/>
+    <n v="0.14851591129951777"/>
+    <n v="0.10494157655012613"/>
+    <n v="0.41059820101759714"/>
+  </r>
+  <r>
+    <n v="9376"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.68"/>
+    <n v="3.5750000000000002"/>
+    <n v="3.50356822749551"/>
+    <n v="3.3398437597827102"/>
+    <n v="3.55415702588828"/>
+    <n v="2.6092206299999998"/>
+    <n v="5.1024981231332384E-3"/>
+    <n v="5.5298457313131787E-2"/>
+    <n v="4.344295698218386E-4"/>
+    <n v="0.93272979151759761"/>
+  </r>
+  <r>
+    <n v="9378"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.9307692300000001"/>
+    <n v="3.85"/>
+    <n v="3.50356822749551"/>
+    <n v="3.5328330721498298"/>
+    <n v="3.8098178098651601"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.12001497300060278"/>
+    <n v="0.10059486012191514"/>
+    <n v="1.6146084040324358E-3"/>
+    <n v="1.5395334450175975"/>
+  </r>
+  <r>
+    <n v="9389"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4"/>
+    <n v="1.45714286"/>
+    <n v="2.23192844148396"/>
+    <n v="2.3547694791588998"/>
+    <n v="2.2903259530384599"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.60029269727543788"/>
+    <n v="0.80573354742263648"/>
+    <n v="0.69419406652513482"/>
+    <n v="1.3272831881281724"/>
+  </r>
+  <r>
+    <n v="9405"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.4357142899999999"/>
+    <n v="3.09375"/>
+    <n v="2.2273730071288398"/>
+    <n v="2.3822548108694002"/>
+    <n v="2.3222390802200099"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.75060909377647445"/>
+    <n v="0.50622540415598805"/>
+    <n v="0.59522909933976631"/>
+    <n v="0.23476871039259709"/>
+  </r>
+  <r>
+    <n v="9535"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.50356822749551"/>
+    <n v="3.5861123299386701"/>
+    <n v="3.88020336029457"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.24644450475194971"/>
+    <n v="0.17130300342879626"/>
+    <n v="1.4351234884712601E-2"/>
+    <n v="1.9342672560175973"/>
+  </r>
+  <r>
+    <n v="9548"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.9"/>
+    <n v="1.5249999999999999"/>
+    <n v="2.7336608072548301"/>
+    <n v="2.73956412002758"/>
+    <n v="2.7610076596537199"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.4608609469938978"/>
+    <n v="1.4751660016583699"/>
+    <n v="1.527714934722666"/>
+    <n v="1.1755343745175968"/>
+  </r>
+  <r>
+    <n v="9572"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.6133333300000001"/>
+    <n v="2.3733333299999999"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2885378074103602"/>
+    <n v="3.4861887652214998"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.2774309235166863"/>
+    <n v="0.83759923547197068"/>
+    <n v="1.238447219702034"/>
+    <n v="5.5642818301289955E-2"/>
+  </r>
+  <r>
+    <n v="9591"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.8333333300000001"/>
+    <n v="0"/>
+    <n v="1.63861439954606"/>
+    <n v="1.91866888591787"/>
+    <n v="1.89179092110909"/>
+    <n v="2.6092206299999998"/>
+    <n v="2.6850571503996949"/>
+    <n v="3.6812902937893206"/>
+    <n v="3.5788728891907793"/>
+    <n v="6.8080322960175961"/>
+  </r>
+  <r>
+    <n v="9834"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="3.5437500000000002"/>
+    <n v="2.2200000000000002"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2349872201459999"/>
+    <n v="3.4152468938450902"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.6475473946359649"/>
+    <n v="1.0301990570597042"/>
+    <n v="1.4286151372463358"/>
+    <n v="0.15149269881759661"/>
+  </r>
+  <r>
+    <n v="10402"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.18"/>
+    <n v="2.7588235299999999"/>
+    <n v="3.1183551774192502"/>
+    <n v="2.9550491189140402"/>
+    <n v="3.0454302302020602"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.12926300549600009"/>
+    <n v="3.8504481744661936E-2"/>
+    <n v="8.2143400600713637E-2"/>
+    <n v="2.2381027688410028E-2"/>
+  </r>
+  <r>
+    <n v="10569"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="1.8062499999999999"/>
+    <n v="1.5941176500000001"/>
+    <n v="1.6281227712656099"/>
+    <n v="1.89782584312734"/>
+    <n v="1.87702151682103"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.1563482722888306E-3"/>
+    <n v="9.2238666572673642E-2"/>
+    <n v="8.0034597862291057E-2"/>
+    <n v="1.03043406000488"/>
+  </r>
+  <r>
+    <n v="10606"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0428571400000002"/>
+    <n v="3.0076923099999999"/>
+    <n v="2.91402434033215"/>
+    <n v="2.8495054460999998"/>
+    <n v="2.9060964685125201"/>
+    <n v="2.6092206299999998"/>
+    <n v="8.7736885416972599E-3"/>
+    <n v="2.5023083910517167E-2"/>
+    <n v="1.0321715007549121E-2"/>
+    <n v="0.15877967976202248"/>
+  </r>
+  <r>
+    <n v="10644"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.06"/>
+    <n v="2.9923076900000001"/>
+    <n v="1.81524235112474"/>
+    <n v="2.0931091233682002"/>
+    <n v="2.0244851654457099"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.385482811981531"/>
+    <n v="0.80855806223268345"/>
+    <n v="0.9366804390346396"/>
+    <n v="0.14675569553944379"/>
+  </r>
+  <r>
+    <n v="10649"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0214285699999999"/>
+    <n v="3.4375"/>
+    <n v="2.8775779501511201"/>
+    <n v="2.8330142467658601"/>
+    <n v="2.8843255676452899"/>
+    <n v="2.6092206299999998"/>
+    <n v="0.31351270190697161"/>
+    <n v="0.36540302586304546"/>
+    <n v="0.30600195261095575"/>
+    <n v="0.68604671476759715"/>
+  </r>
+  <r>
+    <n v="10661"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.53333333"/>
+    <n v="3.5166666700000002"/>
+    <n v="3.50356822749551"/>
+    <n v="3.2269706648713701"/>
+    <n v="3.4046268528291699"/>
+    <n v="2.6092206299999998"/>
+    <n v="1.715691960434359E-4"/>
+    <n v="8.3923775387487298E-2"/>
+    <n v="1.2552920631673087E-2"/>
+    <n v="0.82345831551168236"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.75"/>
+    <n v="0.66666667000000002"/>
+    <n v="1.59904023993008"/>
+    <n v="1.81857588984249"/>
+    <n v="1.72552775410089"/>
+    <n v="2.602377916"/>
+    <n v="0.86932047390416178"/>
+    <n v="1.3268948507581335"/>
+    <n v="1.1211867954233121"/>
+    <n v="3.7469780278908722"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.2400000000000002"/>
+    <n v="2.88"/>
+    <n v="2.1157411592116899"/>
+    <n v="2.2060980029164501"/>
+    <n v="2.0910287962257601"/>
+    <n v="2.602377916"/>
+    <n v="0.58409157572309134"/>
+    <n v="0.45414390167319679"/>
+    <n v="0.62247556038497298"/>
+    <n v="7.7074021524502989E-2"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.34"/>
+    <n v="3.46"/>
+    <n v="3.3568535104947199"/>
+    <n v="3.0760456036947299"/>
+    <n v="3.1286713600300402"/>
+    <n v="2.602377916"/>
+    <n v="1.0639198297262847E-2"/>
+    <n v="0.14742097844214438"/>
+    <n v="0.10977866766434322"/>
+    <n v="0.735515638964503"/>
+  </r>
+  <r>
+    <n v="348"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.6923076899999998"/>
+    <n v="2.6"/>
+    <n v="2.4138848288800498"/>
+    <n v="2.5638107224336899"/>
+    <n v="2.4692858740893402"/>
+    <n v="2.602377916"/>
+    <n v="3.4638856921008362E-2"/>
+    <n v="1.3096638107714417E-3"/>
+    <n v="1.7086182712587848E-2"/>
+    <n v="5.6544845030556408E-6"/>
+  </r>
+  <r>
+    <n v="439"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.93846154"/>
+    <n v="2.44615385"/>
+    <n v="2.6229189007281701"/>
+    <n v="2.7584843112973698"/>
+    <n v="2.71500554513739"/>
+    <n v="2.602377916"/>
+    <n v="3.1245883158932574E-2"/>
+    <n v="9.7550317054227842E-2"/>
+    <n v="7.2281233978248122E-2"/>
+    <n v="2.4405958797572371E-2"/>
+  </r>
+  <r>
+    <n v="452"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.0714285700000001"/>
+    <n v="1.06666667"/>
+    <n v="1.96160920374464"/>
+    <n v="2.0727813572634401"/>
+    <n v="1.95511616226019"/>
+    <n v="2.602377916"/>
+    <n v="0.80092213870527595"/>
+    <n v="1.0122667639272098"/>
+    <n v="0.78934250029738939"/>
+    <n v="2.3584090310908725"/>
+  </r>
+  <r>
+    <n v="515"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.6"/>
+    <n v="3.3285714300000002"/>
+    <n v="2.3287855758296501"/>
+    <n v="2.4908081268075302"/>
+    <n v="2.3866224584240201"/>
+    <n v="2.602377916"/>
+    <n v="0.99957175419913669"/>
+    <n v="0.70184735217595851"/>
+    <n v="0.88726786505304656"/>
+    <n v="0.52735701977566851"/>
+  </r>
+  <r>
+    <n v="679"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.7692307700000001"/>
+    <n v="2.2000000000000002"/>
+    <n v="2.4333777352088601"/>
+    <n v="2.6246462190524502"/>
+    <n v="2.5412278911786599"/>
+    <n v="2.602377916"/>
+    <n v="5.4465167291216754E-2"/>
+    <n v="0.18032441135554139"/>
+    <n v="0.11643647371823523"/>
+    <n v="0.16190798728450292"/>
+  </r>
+  <r>
+    <n v="700"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.6666666699999999"/>
+    <n v="2.5"/>
+    <n v="1.59904023993008"/>
+    <n v="1.75267076883503"/>
+    <n v="1.6760190693652901"/>
+    <n v="2.602377916"/>
+    <n v="0.81172848926524777"/>
+    <n v="0.55850097975362512"/>
+    <n v="0.67894457404964259"/>
+    <n v="1.0481237684503059E-2"/>
+  </r>
+  <r>
+    <n v="713"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.5"/>
+    <n v="2.25"/>
+    <n v="2.30368963295337"/>
+    <n v="2.4117219812822301"/>
+    <n v="2.3009303249062101"/>
+    <n v="2.602377916"/>
+    <n v="2.8825766866675978E-3"/>
+    <n v="2.6153999229849997E-2"/>
+    <n v="2.5938979950521227E-3"/>
+    <n v="0.12417019568450306"/>
+  </r>
+  <r>
+    <n v="715"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.1749999999999998"/>
+    <n v="3.75"/>
+    <n v="3.0550765102436399"/>
+    <n v="2.9455534635779901"/>
+    <n v="2.9581449621183502"/>
+    <n v="2.602377916"/>
+    <n v="0.48291865661515793"/>
+    <n v="0.64713422996136816"/>
+    <n v="0.62703440101854901"/>
+    <n v="1.3170364476845031"/>
+  </r>
+  <r>
+    <n v="761"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.46923077"/>
+    <n v="2.8142857100000001"/>
+    <n v="1.59904023993008"/>
+    <n v="1.5965263272235699"/>
+    <n v="1.59515602226924"/>
+    <n v="2.602377916"/>
+    <n v="1.4768215525254609"/>
+    <n v="1.4829379143400321"/>
+    <n v="1.4862771955065004"/>
+    <n v="4.4904913157946452E-2"/>
+  </r>
+  <r>
+    <n v="792"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.3250000000000002"/>
+    <n v="1.70714286"/>
+    <n v="2.08281312723203"/>
+    <n v="2.2733212266129601"/>
+    <n v="2.1595683738051799"/>
+    <n v="2.602377916"/>
+    <n v="0.14112814968218484"/>
+    <n v="0.32055794282051941"/>
+    <n v="0.20468884554188094"/>
+    <n v="0.80144580549132305"/>
+  </r>
+  <r>
+    <n v="839"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.66"/>
+    <n v="3.25"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.32912126937569"/>
+    <n v="3.4600804926906599"/>
+    <n v="2.602377916"/>
+    <n v="5.341538849209447E-2"/>
+    <n v="6.2601752676204958E-3"/>
+    <n v="4.4133813409150395E-2"/>
+    <n v="0.41941436368450302"/>
+  </r>
+  <r>
+    <n v="875"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.625"/>
+    <n v="3.1875"/>
+    <n v="2.37494332159801"/>
+    <n v="2.51057966318885"/>
+    <n v="2.4088280201842802"/>
+    <n v="2.602377916"/>
+    <n v="0.66024835561567496"/>
+    <n v="0.4582211423885208"/>
+    <n v="0.60633005215013269"/>
+    <n v="0.34236785318450302"/>
+  </r>
+  <r>
+    <n v="882"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.6"/>
+    <n v="1.425"/>
+    <n v="2.3287855758296501"/>
+    <n v="2.4908081268075302"/>
+    <n v="2.3866224584240201"/>
+    <n v="2.602377916"/>
+    <n v="0.8168283670777321"/>
+    <n v="1.1359469631689763"/>
+    <n v="0.92471775254545618"/>
+    <n v="1.386218757084503"/>
+  </r>
+  <r>
+    <n v="1183"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.78"/>
+    <n v="2.9"/>
+    <n v="2.4325057129363099"/>
+    <n v="2.63316318875306"/>
+    <n v="2.5522864694098999"/>
+    <n v="2.602377916"/>
+    <n v="0.2185509084371878"/>
+    <n v="7.120188383643504E-2"/>
+    <n v="0.12090469935543242"/>
+    <n v="8.8578904884502999E-2"/>
+  </r>
+  <r>
+    <n v="1196"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.6"/>
+    <n v="3.25"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.28166958206051"/>
+    <n v="3.3979170959090799"/>
+    <n v="2.602377916"/>
+    <n v="5.341538849209447E-2"/>
+    <n v="1.0029624278873742E-3"/>
+    <n v="2.187946726217593E-2"/>
+    <n v="0.41941436368450302"/>
+  </r>
+  <r>
+    <n v="1340"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.0812499999999998"/>
+    <n v="3.42777778"/>
+    <n v="3.04315943366155"/>
+    <n v="2.8714102021480201"/>
+    <n v="2.8616304413389502"/>
+    <n v="2.602377916"/>
+    <n v="0.1479312723401239"/>
+    <n v="0.30954488168487887"/>
+    <n v="0.32052280907298947"/>
+    <n v="0.68128493549121849"/>
+  </r>
+  <r>
+    <n v="1400"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.7666666700000002"/>
+    <n v="1.1538461499999999"/>
+    <n v="2.4333777352088601"/>
+    <n v="2.6226183696133099"/>
+    <n v="2.53859489699737"/>
+    <n v="2.602377916"/>
+    <n v="1.6372010775470986"/>
+    <n v="2.1572918331078093"/>
+    <n v="1.9175290923107864"/>
+    <n v="2.0982442771110792"/>
+  </r>
+  <r>
+    <n v="1904"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.8882352899999999"/>
+    <n v="3.3727272699999999"/>
+    <n v="2.5775829718493801"/>
+    <n v="2.7187623108756398"/>
+    <n v="2.66342982459286"/>
+    <n v="2.602377916"/>
+    <n v="0.63225445488144183"/>
+    <n v="0.42767016776252603"/>
+    <n v="0.50310286606109467"/>
+    <n v="0.5934381272082172"/>
+  </r>
+  <r>
+    <n v="1909"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.26"/>
+    <n v="3.3250000000000002"/>
+    <n v="3.2297509698818101"/>
+    <n v="3.0127766872744899"/>
+    <n v="3.0459918943758799"/>
+    <n v="2.602377916"/>
+    <n v="9.072377738455881E-3"/>
+    <n v="9.7483397009291803E-2"/>
+    <n v="7.7845523003960249E-2"/>
+    <n v="0.52218267628450332"/>
+  </r>
+  <r>
+    <n v="1967"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.8125"/>
+    <n v="3.4"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.4497276413017701"/>
+    <n v="3.6180791261771601"/>
+    <n v="2.602377916"/>
+    <n v="6.5800802841655152E-3"/>
+    <n v="2.4728383094375223E-3"/>
+    <n v="4.7558505274193752E-2"/>
+    <n v="0.63620098888450294"/>
+  </r>
+  <r>
+    <n v="2130"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.4"/>
+    <n v="2"/>
+    <n v="3.3810297945216701"/>
+    <n v="3.1234972910099099"/>
+    <n v="3.1907057733038302"/>
+    <n v="2.602377916"/>
+    <n v="1.9072432933565662"/>
+    <n v="1.2622461629066062"/>
+    <n v="1.4177802385790723"/>
+    <n v="0.36285915368450306"/>
+  </r>
+  <r>
+    <n v="2197"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.66"/>
+    <n v="3.25"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.32912126937569"/>
+    <n v="3.4600804926906599"/>
+    <n v="2.602377916"/>
+    <n v="5.341538849209447E-2"/>
+    <n v="6.2601752676204958E-3"/>
+    <n v="4.4133813409150395E-2"/>
+    <n v="0.41941436368450302"/>
+  </r>
+  <r>
+    <n v="2474"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.5980141641616998"/>
+    <n v="3.8123397411195801"/>
+    <n v="2.602377916"/>
+    <n v="0.26923884745244964"/>
+    <n v="0.16159261221461682"/>
+    <n v="3.5216372763066224E-2"/>
+    <n v="1.9533474896845031"/>
+  </r>
+  <r>
+    <n v="2527"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.8571428600000002"/>
+    <n v="2.60769231"/>
+    <n v="2.4384666088265998"/>
+    <n v="2.6941725009024502"/>
+    <n v="2.6315019973446199"/>
+    <n v="2.602377916"/>
+    <n v="2.8637337937628939E-2"/>
+    <n v="7.4788234185242273E-3"/>
+    <n v="5.6690121144855091E-4"/>
+    <n v="2.8242783587235999E-5"/>
+  </r>
+  <r>
+    <n v="2669"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.98"/>
+    <n v="3.6375000000000002"/>
+    <n v="2.6229189007281701"/>
+    <n v="2.79133547980366"/>
+    <n v="2.75766006073209"/>
+    <n v="2.602377916"/>
+    <n v="1.0293748069996351"/>
+    <n v="0.71599439523910258"/>
+    <n v="0.77411831873095982"/>
+    <n v="1.0714777287845034"/>
+  </r>
+  <r>
+    <n v="2736"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.35"/>
+    <n v="3"/>
+    <n v="2.0932292728507198"/>
+    <n v="2.2930927629942799"/>
+    <n v="2.17975874220528"/>
+    <n v="2.602377916"/>
+    <n v="0.82223315161483435"/>
+    <n v="0.49971784173106137"/>
+    <n v="0.67279572098866436"/>
+    <n v="0.15810332168450306"/>
+  </r>
+  <r>
+    <n v="2823"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.5"/>
+    <n v="2.4"/>
+    <n v="1.59904023993008"/>
+    <n v="1.6208605260292399"/>
+    <n v="1.6029362612006"/>
+    <n v="2.602377916"/>
+    <n v="0.64153653725126358"/>
+    <n v="0.6070583198994326"/>
+    <n v="0.63531060370887804"/>
+    <n v="4.0956820884503101E-2"/>
+  </r>
+  <r>
+    <n v="2839"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.85"/>
+    <n v="2.1749999999999998"/>
+    <n v="2.4384666088265998"/>
+    <n v="2.6885234906207698"/>
+    <n v="2.6241672263726699"/>
+    <n v="2.602377916"/>
+    <n v="6.9414653966588663E-2"/>
+    <n v="0.26370637541934"/>
+    <n v="0.20175119724731741"/>
+    <n v="0.18265188308450322"/>
+  </r>
+  <r>
+    <n v="3226"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0.16666666999999999"/>
+    <n v="1.77857143"/>
+    <n v="1.59904023993008"/>
+    <n v="0.56637858595555901"/>
+    <n v="1.35990508662327"/>
+    <n v="2.602377916"/>
+    <n v="3.223144820792171E-2"/>
+    <n v="1.4694114911525504"/>
+    <n v="0.17528150707644194"/>
+    <n v="0.67865712637566833"/>
+  </r>
+  <r>
+    <n v="3334"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.1749999999999998"/>
+    <n v="2.39230769"/>
+    <n v="2.1171836987741401"/>
+    <n v="2.1546920083250098"/>
+    <n v="2.03862180614346"/>
+    <n v="2.602377916"/>
+    <n v="7.5693210548047007E-2"/>
+    <n v="5.6461212177870243E-2"/>
+    <n v="0.12509370443938189"/>
+    <n v="4.4129499851691088E-2"/>
+  </r>
+  <r>
+    <n v="3794"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.3823529400000001"/>
+    <n v="3.64117647"/>
+    <n v="3.3810297945216701"/>
+    <n v="3.10954091224824"/>
+    <n v="3.17244284166456"/>
+    <n v="2.602377916"/>
+    <n v="6.7676292762427509E-2"/>
+    <n v="0.2826363662660249"/>
+    <n v="0.21971121433250637"/>
+    <n v="1.079102435792491"/>
+  </r>
+  <r>
+    <n v="3881"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.6769230799999999"/>
+    <n v="3.2"/>
+    <n v="2.4169127779937698"/>
+    <n v="2.5516436234262798"/>
+    <n v="2.4553364970906602"/>
+    <n v="2.602377916"/>
+    <n v="0.61322559726943515"/>
+    <n v="0.4203659910438039"/>
+    <n v="0.5545237325652087"/>
+    <n v="0.35715215528450323"/>
+  </r>
+  <r>
+    <n v="3910"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.36111111"/>
+    <n v="3.2052631599999999"/>
+    <n v="3.3772963984790998"/>
+    <n v="3.0927415676622001"/>
+    <n v="3.15048955224061"/>
+    <n v="2.602377916"/>
+    <n v="2.9595435141606861E-2"/>
+    <n v="1.2661108742234004E-2"/>
+    <n v="3.0001481069794958E-3"/>
+    <n v="0.3634706174329394"/>
+  </r>
+  <r>
+    <n v="3912"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.5750000000000002"/>
+    <n v="3.8250000000000002"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.26189804567918"/>
+    <n v="3.37201568058342"/>
+    <n v="2.602377916"/>
+    <n v="0.1182550403617002"/>
+    <n v="0.3170838109599271"/>
+    <n v="0.20519479363730228"/>
+    <n v="1.4948047602845034"/>
+  </r>
+  <r>
+    <n v="3972"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="2.8125"/>
+    <n v="1.8505125867254799"/>
+    <n v="2.0162912536557398"/>
+    <n v="1.8975260636142"/>
+    <n v="2.602377916"/>
+    <n v="0.92541978329860231"/>
+    <n v="0.63394836775509844"/>
+    <n v="0.83717730426532611"/>
+    <n v="4.4151290184503048E-2"/>
+  </r>
+  <r>
+    <n v="4013"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.1428571399999998"/>
+    <n v="2.6470588199999998"/>
+    <n v="3.0526855691141201"/>
+    <n v="2.9201329169149801"/>
+    <n v="2.92492553410138"/>
+    <n v="2.602377916"/>
+    <n v="0.16453305959688952"/>
+    <n v="7.4569462405932055E-2"/>
+    <n v="7.7209910805498161E-2"/>
+    <n v="1.9963831822571981E-3"/>
+  </r>
+  <r>
+    <n v="4116"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.7647058800000002"/>
+    <n v="2.2307692299999999"/>
+    <n v="2.4333777352088601"/>
+    <n v="2.62106766033477"/>
+    <n v="2.5365814297110698"/>
+    <n v="2.602377916"/>
+    <n v="4.1050206382968732E-2"/>
+    <n v="0.15233286472178537"/>
+    <n v="9.3521101492123282E-2"/>
+    <n v="0.13809301551064665"/>
+  </r>
+  <r>
+    <n v="4141"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.9624999999999999"/>
+    <n v="0"/>
+    <n v="1.7870824366645699"/>
+    <n v="1.9866339490837499"/>
+    <n v="1.86726436306759"/>
+    <n v="2.602377916"/>
+    <n v="3.1936636354349766"/>
+    <n v="3.9467144476520954"/>
+    <n v="3.4866762015822128"/>
+    <n v="6.7723708176845028"/>
+  </r>
+  <r>
+    <n v="4687"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.35"/>
+    <n v="2.56"/>
+    <n v="2.0932292728507198"/>
+    <n v="2.2930927629942799"/>
+    <n v="2.17975874220528"/>
+    <n v="2.602377916"/>
+    <n v="0.21787491172346785"/>
+    <n v="7.1239473166027675E-2"/>
+    <n v="0.14458341412931078"/>
+    <n v="1.7958877645030526E-3"/>
+  </r>
+  <r>
+    <n v="4814"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.15"/>
+    <n v="2.33076923"/>
+    <n v="3.0526855691141201"/>
+    <n v="2.9257819271966699"/>
+    <n v="2.9323076291014298"/>
+    <n v="2.602377916"/>
+    <n v="0.52116320067993327"/>
+    <n v="0.35404010982525591"/>
+    <n v="0.36184844559351104"/>
+    <n v="7.3771278310646587E-2"/>
+  </r>
+  <r>
+    <n v="4864"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.1124999999999998"/>
+    <n v="2.0833333299999999"/>
+    <n v="3.04315943366155"/>
+    <n v="2.8961246226246802"/>
+    <n v="2.8937200649830399"/>
+    <n v="2.602377916"/>
+    <n v="0.92126614927011263"/>
+    <n v="0.66062968536649869"/>
+    <n v="0.65672666023647197"/>
+    <n v="0.26940728225591154"/>
+  </r>
+  <r>
+    <n v="4940"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.38461539"/>
+    <n v="2.1187499999999999"/>
+    <n v="2.17268745745154"/>
+    <n v="2.32046873674952"/>
+    <n v="2.2077146372237402"/>
+    <n v="2.602377916"/>
+    <n v="2.9092493163366991E-3"/>
+    <n v="4.0690448755822201E-2"/>
+    <n v="7.9147066763517113E-3"/>
+    <n v="0.23389596113450314"/>
+  </r>
+  <r>
+    <n v="4995"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.95714286"/>
+    <n v="2.6"/>
+    <n v="1.7814145149417999"/>
+    <n v="1.98239719117477"/>
+    <n v="1.8629363324250301"/>
+    <n v="2.602377916"/>
+    <n v="0.67008219634796884"/>
+    <n v="0.38143322946881375"/>
+    <n v="0.54326285005906583"/>
+    <n v="5.6544845030556408E-6"/>
+  </r>
+  <r>
+    <n v="5091"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.3187500000000001"/>
+    <n v="2.90625"/>
+    <n v="3.3122462081889399"/>
+    <n v="3.0592397977706098"/>
+    <n v="3.10670962696565"/>
+    <n v="2.602377916"/>
+    <n v="0.16483292106379702"/>
+    <n v="2.3405878221892093E-2"/>
+    <n v="4.0184062043207555E-2"/>
+    <n v="9.2338243434503045E-2"/>
+  </r>
+  <r>
+    <n v="5133"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.6"/>
+    <n v="3.9307692300000001"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.28166958206051"/>
+    <n v="3.3979170959090799"/>
+    <n v="2.602377916"/>
+    <n v="0.2021865038033909"/>
+    <n v="0.42133035295517007"/>
+    <n v="0.28393139680524804"/>
+    <n v="1.7646234831106469"/>
+  </r>
+  <r>
+    <n v="5142"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.4"/>
+    <n v="1.9285714300000001"/>
+    <n v="3.3810297945216701"/>
+    <n v="3.1234972910099099"/>
+    <n v="3.1907057733038302"/>
+    <n v="2.602377916"/>
+    <n v="2.1096353006689643"/>
+    <n v="1.4278478133102743"/>
+    <n v="1.5929831005469905"/>
+    <n v="0.45401518057566809"/>
+  </r>
+  <r>
+    <n v="5357"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.77692308"/>
+    <n v="2.25"/>
+    <n v="2.4325057129363099"/>
+    <n v="2.6307297689515798"/>
+    <n v="2.5491268757762402"/>
+    <n v="2.602377916"/>
+    <n v="3.330833525439076E-2"/>
+    <n v="0.14495515696592337"/>
+    <n v="8.9476887811654235E-2"/>
+    <n v="0.12417019568450306"/>
+  </r>
+  <r>
+    <n v="5447"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="0.8125"/>
+    <n v="2"/>
+    <n v="1.59904023993008"/>
+    <n v="1.0771432755428201"/>
+    <n v="1.44975339140471"/>
+    <n v="2.602377916"/>
+    <n v="0.16076872919532778"/>
+    <n v="0.85166453387583529"/>
+    <n v="0.3027713302706182"/>
+    <n v="0.36285915368450306"/>
+  </r>
+  <r>
+    <n v="5625"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.1749999999999998"/>
+    <n v="1.85"/>
+    <n v="2.1171836987741401"/>
+    <n v="2.1546920083250098"/>
+    <n v="2.03862180614346"/>
+    <n v="2.602377916"/>
+    <n v="7.1387128890630411E-2"/>
+    <n v="9.2837219937127818E-2"/>
+    <n v="3.5578185752820971E-2"/>
+    <n v="0.56607252848450296"/>
+  </r>
+  <r>
+    <n v="5677"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.6"/>
+    <n v="3.21052632"/>
+    <n v="2.3287855758296501"/>
+    <n v="2.4908081268075302"/>
+    <n v="2.3866224584240201"/>
+    <n v="2.602377916"/>
+    <n v="0.77746673993008253"/>
+    <n v="0.51799427761223338"/>
+    <n v="0.6788175731198115"/>
+    <n v="0.36984448128774727"/>
+  </r>
+  <r>
+    <n v="6139"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="2.47142857"/>
+    <n v="1.59904023993008"/>
+    <n v="0.43456834314977399"/>
+    <n v="1.44116105964911"/>
+    <n v="2.602377916"/>
+    <n v="0.76106139844218368"/>
+    <n v="4.1487995837243545"/>
+    <n v="1.0614511428846214"/>
+    <n v="1.7147731217827707E-2"/>
+  </r>
+  <r>
+    <n v="6166"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.06666667"/>
+    <n v="3.12941176"/>
+    <n v="3.04315943366155"/>
+    <n v="2.8598768061892001"/>
+    <n v="2.84665528398066"/>
+    <n v="2.602377916"/>
+    <n v="7.4394637987944814E-3"/>
+    <n v="7.2649091325790005E-2"/>
+    <n v="7.995122473087557E-2"/>
+    <n v="0.27776467272141631"/>
+  </r>
+  <r>
+    <n v="6368"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="1.25"/>
+    <n v="3.5"/>
+    <n v="1.59904023993008"/>
+    <n v="1.4231451622160001"/>
+    <n v="1.54258067544078"/>
+    <n v="2.602377916"/>
+    <n v="3.6136480094050878"/>
+    <n v="4.3133260172268049"/>
+    <n v="3.8314904121578728"/>
+    <n v="0.80572540568450302"/>
+  </r>
+  <r>
+    <n v="6449"/>
+    <n v="12"/>
+    <x v="11"/>
+    <n v="2.9647058799999999"/>
+    <n v="3"/>
+    <n v="2.6229189007281701"/>
+    <n v="2.7792399513853701"/>
+    <n v="2.7419550210332599"/>
+    <n v="2.602377916"/>
+    <n v="0.14219015542805161"/>
+    <n v="4.8734999064333775E-2"/>
+    <n v="6.6587211169945315E-2"/>
+    <n v="0.15810332168450306"/>
+  </r>
+  <r>
+    <n v="6459"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.4636363600000002"/>
+    <n v="3.1"/>
+    <n v="2.2416507916793602"/>
+    <n v="2.3829633831969801"/>
+    <n v="2.2715331443175999"/>
+    <n v="2.602377916"/>
+    <n v="0.73676336342466919"/>
+    <n v="0.5141415098363209"/>
+    <n v="0.68635733096428286"/>
+    <n v="0.24762773848450312"/>
+  </r>
+  <r>
+    <n v="6513"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="1.39"/>
+    <n v="1"/>
+    <n v="1.59904023993008"/>
+    <n v="1.5338657659514201"/>
+    <n v="1.57603529247125"/>
+    <n v="2.602377916"/>
+    <n v="0.35884920905548784"/>
+    <n v="0.28501265605489645"/>
+    <n v="0.33181665817243849"/>
+    <n v="2.5676149856845032"/>
+  </r>
+  <r>
+    <n v="6516"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.1722222200000001"/>
+    <n v="2.1133333300000001"/>
+    <n v="1.59904023993008"/>
+    <n v="1.36163371552058"/>
+    <n v="1.52429196859427"/>
+    <n v="2.602377916"/>
+    <n v="0.26449738249366694"/>
+    <n v="0.5650523104085089"/>
+    <n v="0.346969725446716"/>
+    <n v="0.23916460709591128"/>
+  </r>
+  <r>
+    <n v="6597"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.71538462"/>
+    <n v="3.0125000000000002"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.3729228265932099"/>
+    <n v="3.51746208932131"/>
+    <n v="2.602377916"/>
+    <n v="0.2196025431546485"/>
+    <n v="0.12990461392943889"/>
+    <n v="0.25498671165174247"/>
+    <n v="0.16820012378450319"/>
+  </r>
+  <r>
+    <n v="6661"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.14"/>
+    <n v="1.95"/>
+    <n v="2.1171836987741401"/>
+    <n v="2.1270118573911501"/>
+    <n v="2.0104026576376102"/>
+    <n v="2.602377916"/>
+    <n v="2.7950389135802445E-2"/>
+    <n v="3.1333197657064861E-2"/>
+    <n v="3.6484810496863512E-3"/>
+    <n v="0.42559694528450315"/>
+  </r>
+  <r>
+    <n v="6676"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.4500000000000002"/>
+    <n v="2.1642857100000001"/>
+    <n v="2.2420005982884001"/>
+    <n v="2.3721789085195799"/>
+    <n v="2.2605202158056898"/>
+    <n v="2.602377916"/>
+    <n v="6.0396038616784926E-3"/>
+    <n v="4.3219581990701403E-2"/>
+    <n v="9.261080107665326E-3"/>
+    <n v="0.19192478095794632"/>
+  </r>
+  <r>
+    <n v="6750"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.9285714299999999"/>
+    <n v="2.8"/>
+    <n v="2.6183349357758798"/>
+    <n v="2.7506626053010201"/>
+    <n v="2.7048497091178998"/>
+    <n v="2.602377916"/>
+    <n v="3.3002195559553638E-2"/>
+    <n v="2.4341785156829087E-3"/>
+    <n v="9.0535778549482478E-3"/>
+    <n v="3.9054488084502979E-2"/>
+  </r>
+  <r>
+    <n v="6764"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.7374999999999998"/>
+    <n v="3.5058823499999998"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.3904130321577899"/>
+    <n v="3.54037488020019"/>
+    <n v="2.602377916"/>
+    <n v="6.1328818548927208E-4"/>
+    <n v="1.3333163362945301E-2"/>
+    <n v="1.1897346396110304E-3"/>
+    <n v="0.81632026225765997"/>
+  </r>
+  <r>
+    <n v="6765"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4"/>
+    <n v="2.3937499999999998"/>
+    <n v="2.1710936698420702"/>
+    <n v="2.3326358357569301"/>
+    <n v="2.22013947900549"/>
+    <n v="2.602377916"/>
+    <n v="4.9575841359396959E-2"/>
+    <n v="3.7349410711288995E-3"/>
+    <n v="3.0140612999985127E-2"/>
+    <n v="4.3525607334503134E-2"/>
+  </r>
+  <r>
+    <n v="6784"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0.81538462"/>
+    <n v="0.21428570999999999"/>
+    <n v="1.59904023993008"/>
+    <n v="1.0794246063595601"/>
+    <n v="1.4503170776099601"/>
+    <n v="2.602377916"/>
+    <n v="1.9175451081618771"/>
+    <n v="0.74846530999423766"/>
+    <n v="1.5277735417157483"/>
+    <n v="5.7029843843579471"/>
+  </r>
+  <r>
+    <n v="6927"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.85"/>
+    <n v="2.5750000000000002"/>
+    <n v="2.4384666088265998"/>
+    <n v="2.6885234906207698"/>
+    <n v="2.6241672263726699"/>
+    <n v="2.602377916"/>
+    <n v="1.8641366905308758E-2"/>
+    <n v="1.2887582922723965E-2"/>
+    <n v="2.4174161491813452E-3"/>
+    <n v="7.4955028450304697E-4"/>
+  </r>
+  <r>
+    <n v="6942"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.8"/>
+    <n v="3.6"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.4398418731110998"/>
+    <n v="3.60512841851433"/>
+    <n v="2.602377916"/>
+    <n v="1.4133002673593563E-2"/>
+    <n v="2.565062560856109E-2"/>
+    <n v="2.6300676458121495E-5"/>
+    <n v="0.99524982248450322"/>
+  </r>
+  <r>
+    <n v="7079"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.8928571399999998"/>
+    <n v="3.4153846099999998"/>
+    <n v="2.5775829718493801"/>
+    <n v="2.7224175531017401"/>
+    <n v="2.6681758532312601"/>
+    <n v="2.602377916"/>
+    <n v="0.70191158488786187"/>
+    <n v="0.48020334194623598"/>
+    <n v="0.55832092619188567"/>
+    <n v="0.66097988448880929"/>
+  </r>
+  <r>
+    <n v="7134"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.2"/>
+    <n v="1.8333333300000001"/>
+    <n v="1.59904023993008"/>
+    <n v="1.3836020894533501"/>
+    <n v="1.5308733042217499"/>
+    <n v="2.602377916"/>
+    <n v="5.489325205451167E-2"/>
+    <n v="0.2022581887236288"/>
+    <n v="9.1482067193779742E-2"/>
+    <n v="0.59142957525591122"/>
+  </r>
+  <r>
+    <n v="7651"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.5062500000000001"/>
+    <n v="3.625"/>
+    <n v="3.4757204296944701"/>
+    <n v="3.20752632063054"/>
+    <n v="3.3007867884378701"/>
+    <n v="2.602377916"/>
+    <n v="2.2284390110603632E-2"/>
+    <n v="0.17428427296627469"/>
+    <n v="0.1051142065514304"/>
+    <n v="1.0457559266845031"/>
+  </r>
+  <r>
+    <n v="7699"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.11111111"/>
+    <n v="3.8"/>
+    <n v="3.04315943366155"/>
+    <n v="2.8950262038489498"/>
+    <n v="2.89229385937365"/>
+    <n v="2.602377916"/>
+    <n v="0.57280764285550556"/>
+    <n v="0.81897757172004215"/>
+    <n v="0.82393043773078267"/>
+    <n v="1.4342986560845026"/>
+  </r>
+  <r>
+    <n v="7775"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.6"/>
+    <n v="1.0923076899999999"/>
+    <n v="2.3287855758296501"/>
+    <n v="2.4908081268075302"/>
+    <n v="2.3866224584240201"/>
+    <n v="2.602377916"/>
+    <n v="1.5288775621457613"/>
+    <n v="1.9558034717508528"/>
+    <n v="1.6752507197605249"/>
+    <n v="2.2803120874516911"/>
+  </r>
+  <r>
+    <n v="7798"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.5249999999999999"/>
+    <n v="2.5384615400000001"/>
+    <n v="2.30368963295337"/>
+    <n v="2.4314935176635499"/>
+    <n v="2.32146894104506"/>
+    <n v="2.602377916"/>
+    <n v="5.5117848338311522E-2"/>
+    <n v="1.1442157802571308E-2"/>
+    <n v="4.70857880012195E-2"/>
+    <n v="4.0853031209733617E-3"/>
+  </r>
+  <r>
+    <n v="7958"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="3.26"/>
+    <n v="3.46428571"/>
+    <n v="3.2297509698818101"/>
+    <n v="3.0127766872744899"/>
+    <n v="3.0459918943758799"/>
+    <n v="2.602377916"/>
+    <n v="5.5006544322306859E-2"/>
+    <n v="0.20386039760254518"/>
+    <n v="0.17496971618938534"/>
+    <n v="0.74288504535794631"/>
+  </r>
+  <r>
+    <n v="8045"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.2692307700000001"/>
+    <n v="1"/>
+    <n v="2.1115278917467299"/>
+    <n v="2.2292154914259599"/>
+    <n v="2.1145964365500798"/>
+    <n v="2.602377916"/>
+    <n v="1.2354942541309302"/>
+    <n v="1.510970724361564"/>
+    <n v="1.2423252163701359"/>
+    <n v="2.5676149856845032"/>
+  </r>
+  <r>
+    <n v="8106"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.8235294099999999"/>
+    <n v="3.9357142899999999"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.45845037812667"/>
+    <n v="3.6295062214175502"/>
+    <n v="2.602377916"/>
+    <n v="0.20665806507075729"/>
+    <n v="0.22778084157663367"/>
+    <n v="9.3763381264994256E-2"/>
+    <n v="1.7777858862314677"/>
+  </r>
+  <r>
+    <n v="8177"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.9294117599999998"/>
+    <n v="3"/>
+    <n v="2.6229189007281701"/>
+    <n v="2.7513271946528799"/>
+    <n v="2.70571262322908"/>
+    <n v="2.602377916"/>
+    <n v="0.14219015542805161"/>
+    <n v="6.1838164119206687E-2"/>
+    <n v="8.6605060126709418E-2"/>
+    <n v="0.15810332168450306"/>
+  </r>
+  <r>
+    <n v="8293"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.2250000000000001"/>
+    <n v="3.0181818200000001"/>
+    <n v="3.1150741755128699"/>
+    <n v="2.9850965363406399"/>
+    <n v="3.0098196281521901"/>
+    <n v="2.602377916"/>
+    <n v="9.3881285568323484E-3"/>
+    <n v="1.0946359948203305E-3"/>
+    <n v="6.992625249958108E-5"/>
+    <n v="0.17289288658164131"/>
+  </r>
+  <r>
+    <n v="8485"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="0.85714285999999995"/>
+    <n v="0"/>
+    <n v="1.59904023993008"/>
+    <n v="1.1124495903964899"/>
+    <n v="1.4584332849719499"/>
+    <n v="2.602377916"/>
+    <n v="2.5569296889156479"/>
+    <n v="1.2375440911733182"/>
+    <n v="2.127027646714073"/>
+    <n v="6.7723708176845028"/>
+  </r>
+  <r>
+    <n v="8540"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="0.38461538000000001"/>
+    <n v="2.4"/>
+    <n v="1.59904023993008"/>
+    <n v="0.738745826243561"/>
+    <n v="1.3395901931113401"/>
+    <n v="2.602377916"/>
+    <n v="0.64153653725126358"/>
+    <n v="2.7597654298231888"/>
+    <n v="1.1244689585456449"/>
+    <n v="4.0956820884503101E-2"/>
+  </r>
+  <r>
+    <n v="8551"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.4"/>
+    <n v="2.8"/>
+    <n v="3.3810297945216701"/>
+    <n v="3.1234972910099099"/>
+    <n v="3.1907057733038302"/>
+    <n v="2.602377916"/>
+    <n v="0.33759562212189437"/>
+    <n v="0.10465049729075046"/>
+    <n v="0.15265100129294409"/>
+    <n v="3.9054488084502979E-2"/>
+  </r>
+  <r>
+    <n v="8636"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.7533333299999998"/>
+    <n v="3.85"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.4029350049356801"/>
+    <n v="3.5567791095610901"/>
+    <n v="2.602377916"/>
+    <n v="0.13607415566037867"/>
+    <n v="0.19986710981186043"/>
+    <n v="8.5978490589787251E-2"/>
+    <n v="1.5565608644845033"/>
+  </r>
+  <r>
+    <n v="8661"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.34"/>
+    <n v="2.8687499999999999"/>
+    <n v="2.0752657465087498"/>
+    <n v="2.2851841484417501"/>
+    <n v="2.1716825948452398"/>
+    <n v="2.602377916"/>
+    <n v="0.62961726053856637"/>
+    <n v="0.34054910310490527"/>
+    <n v="0.48590296732919042"/>
+    <n v="7.0954087134503005E-2"/>
+  </r>
+  <r>
+    <n v="8771"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.8058823500000001"/>
+    <n v="3.8125"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.4444939993650001"/>
+    <n v="3.6112228692401298"/>
+    <n v="2.602377916"/>
+    <n v="0.10981423271236083"/>
+    <n v="0.13542841650336754"/>
+    <n v="4.051248336692588E-2"/>
+    <n v="1.4643954581845031"/>
+  </r>
+  <r>
+    <n v="8788"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3.9"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.5980141641616998"/>
+    <n v="3.8123397411195801"/>
+    <n v="2.602377916"/>
+    <n v="0.17546238625773553"/>
+    <n v="9.1195445046956716E-2"/>
+    <n v="7.6843209869822257E-3"/>
+    <n v="1.6838230728845027"/>
+  </r>
+  <r>
+    <n v="8884"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.7615384600000001"/>
+    <n v="2.8285714300000002"/>
+    <n v="2.4234895078310399"/>
+    <n v="2.6185626699441702"/>
+    <n v="2.5333289076079399"/>
+    <n v="2.602377916"/>
+    <n v="0.16409136366809962"/>
+    <n v="4.4103679300187187E-2"/>
+    <n v="8.7168147028426221E-2"/>
+    <n v="5.1163505775668291E-2"/>
+  </r>
+  <r>
+    <n v="9062"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.1749999999999998"/>
+    <n v="3.2"/>
+    <n v="2.1171836987741401"/>
+    <n v="2.1546920083250098"/>
+    <n v="2.03862180614346"/>
+    <n v="2.602377916"/>
+    <n v="1.1724911422004525"/>
+    <n v="1.0926687974596017"/>
+    <n v="1.3487993091654795"/>
+    <n v="0.35715215528450323"/>
+  </r>
+  <r>
+    <n v="9170"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.625"/>
+    <n v="3.6470588199999998"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.3014411184418302"/>
+    <n v="3.4238185112347299"/>
+    <n v="2.602377916"/>
+    <n v="2.75364572893762E-2"/>
+    <n v="0.119451595630352"/>
+    <n v="4.9836235457613044E-2"/>
+    <n v="1.0913581911822567"/>
+  </r>
+  <r>
+    <n v="9252"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.5"/>
+    <n v="1.25"/>
+    <n v="1.59904023993008"/>
+    <n v="1.6208605260292399"/>
+    <n v="1.6029362612006"/>
+    <n v="2.602377916"/>
+    <n v="0.12182908909044785"/>
+    <n v="0.13753752976668454"/>
+    <n v="0.12456400447025812"/>
+    <n v="1.8289260276845032"/>
+  </r>
+  <r>
+    <n v="9274"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.86111111"/>
+    <n v="2.3875000000000002"/>
+    <n v="2.45373333168923"/>
+    <n v="2.6973108400357102"/>
+    <n v="2.6355768702209099"/>
+    <n v="2.602377916"/>
+    <n v="4.3868542266555389E-3"/>
+    <n v="9.5982756603632299E-2"/>
+    <n v="6.1542133538602092E-2"/>
+    <n v="4.6172518784502986E-2"/>
+  </r>
+  <r>
+    <n v="9276"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.88461539"/>
+    <n v="3.4166666700000001"/>
+    <n v="2.5775829718493801"/>
+    <n v="2.7158994643760099"/>
+    <n v="2.65971265603492"/>
+    <n v="2.602377916"/>
+    <n v="0.70406145250212082"/>
+    <n v="0.49107467647805575"/>
+    <n v="0.5729793792578467"/>
+    <n v="0.66306617489087272"/>
+  </r>
+  <r>
+    <n v="9539"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.1538461499999999"/>
+    <n v="1.75"/>
+    <n v="1.59904023993008"/>
+    <n v="1.34710079164027"/>
+    <n v="1.51993480811791"/>
+    <n v="2.602377916"/>
+    <n v="2.2788849160367799E-2"/>
+    <n v="0.16232777209689717"/>
+    <n v="5.2929992515742874E-2"/>
+    <n v="0.72654811168450306"/>
+  </r>
+  <r>
+    <n v="9750"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.625"/>
+    <n v="2.12857143"/>
+    <n v="2.37494332159801"/>
+    <n v="2.51057966318885"/>
+    <n v="2.4088280201842802"/>
+    <n v="2.602377916"/>
+    <n v="6.0699108969581583E-2"/>
+    <n v="0.14593029022406673"/>
+    <n v="7.8543756341719562E-2"/>
+    <n v="0.22449258617566817"/>
+  </r>
+  <r>
+    <n v="9764"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.2"/>
+    <n v="3.4692307699999998"/>
+    <n v="3.0844820530383101"/>
+    <n v="2.9653249999593201"/>
+    <n v="2.9839822951352701"/>
+    <n v="2.602377916"/>
+    <n v="0.14803157520366639"/>
+    <n v="0.25392102508029041"/>
+    <n v="0.23546608235854619"/>
+    <n v="0.75143387048794497"/>
+  </r>
+  <r>
+    <n v="9789"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.46666667"/>
+    <n v="1.6"/>
+    <n v="2.2416507916793602"/>
+    <n v="2.38535993303742"/>
+    <n v="2.2739804616749599"/>
+    <n v="2.602377916"/>
+    <n v="0.41171573846274961"/>
+    <n v="0.61679022442054066"/>
+    <n v="0.454249662719592"/>
+    <n v="1.0047614864845029"/>
+  </r>
+  <r>
+    <n v="9810"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="2.25"/>
+    <n v="2.7"/>
+    <n v="2.1157411592116899"/>
+    <n v="2.2140066174689799"/>
+    <n v="2.0990914100845801"/>
+    <n v="2.602377916"/>
+    <n v="0.34135839303930005"/>
+    <n v="0.23618956786394263"/>
+    <n v="0.36109113343413846"/>
+    <n v="9.5300712845030888E-3"/>
+  </r>
+  <r>
+    <n v="9866"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.3062499999999999"/>
+    <n v="3.53333333"/>
+    <n v="3.3122462081889399"/>
+    <n v="3.04935402957994"/>
+    <n v="3.09379096045719"/>
+    <n v="2.602377916"/>
+    <n v="4.8879515430698552E-2"/>
+    <n v="0.23423596323509077"/>
+    <n v="0.19319749462330815"/>
+    <n v="0.86667798285591147"/>
+  </r>
+  <r>
+    <n v="9901"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.98"/>
+    <n v="3.1642857100000001"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.5821969350566398"/>
+    <n v="3.7916186088590602"/>
+    <n v="2.602377916"/>
+    <n v="0.10038250610212385"/>
+    <n v="0.17464979202834136"/>
+    <n v="0.3935465659909117"/>
+    <n v="0.3157403689579466"/>
+  </r>
+  <r>
+    <n v="9969"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.2"/>
+    <n v="3.9249999999999998"/>
+    <n v="3.0844820530383101"/>
+    <n v="2.9653249999593201"/>
+    <n v="2.9839822951352701"/>
+    <n v="2.602377916"/>
+    <n v="0.70647041916469377"/>
+    <n v="0.92097610570307864"/>
+    <n v="0.88551432086888349"/>
+    <n v="1.7493291770845025"/>
+  </r>
+  <r>
+    <n v="10031"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.34"/>
+    <n v="2.2799999999999998"/>
+    <n v="2.0752657465087498"/>
+    <n v="2.2851841484417501"/>
+    <n v="2.1716825948452398"/>
+    <n v="2.602377916"/>
+    <n v="4.1916114552619399E-2"/>
+    <n v="2.6875395066102089E-5"/>
+    <n v="1.1732660259460419E-2"/>
+    <n v="0.10392752072450319"/>
+  </r>
+  <r>
+    <n v="10047"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.1538461500000001"/>
+    <n v="1"/>
+    <n v="2.1171836987741401"/>
+    <n v="2.1379622468932502"/>
+    <n v="2.0215662769507801"/>
+    <n v="2.602377916"/>
+    <n v="1.2480994168066688"/>
+    <n v="1.2949580753543346"/>
+    <n v="1.0435976582030779"/>
+    <n v="2.5676149856845032"/>
+  </r>
+  <r>
+    <n v="10307"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="3.3636363600000001"/>
+    <n v="3.26363636"/>
+    <n v="3.3784452737808501"/>
+    <n v="3.0947386929246599"/>
+    <n v="3.15309938434913"/>
+    <n v="2.602377916"/>
+    <n v="1.3181086683538677E-2"/>
+    <n v="2.852642194349244E-2"/>
+    <n v="1.221842298604104E-2"/>
+    <n v="0.43726272976130115"/>
+  </r>
+  <r>
+    <n v="10412"/>
+    <n v="11"/>
+    <x v="10"/>
+    <n v="2.9249999999999998"/>
+    <n v="2.6749999999999998"/>
+    <n v="2.6183349357758798"/>
+    <n v="2.7478380997647398"/>
+    <n v="2.7011823231184899"/>
+    <n v="2.602377916"/>
+    <n v="3.2109295035236429E-3"/>
+    <n v="5.3053887773382149E-3"/>
+    <n v="6.8551404388102189E-4"/>
+    <n v="5.2739670845030279E-3"/>
+  </r>
+  <r>
+    <n v="10420"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.75"/>
+    <n v="2.06666667"/>
+    <n v="2.4194247150806798"/>
+    <n v="2.6094373450954702"/>
+    <n v="2.5216467996935399"/>
+    <n v="2.602377916"/>
+    <n v="0.12443823836914289"/>
+    <n v="0.29460000574359246"/>
+    <n v="0.20700691841595034"/>
+    <n v="0.28698653909087246"/>
+  </r>
+  <r>
+    <n v="10434"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.71764706"/>
+    <n v="2.4176470600000002"/>
+    <n v="2.4138848288800498"/>
+    <n v="2.5838506510945001"/>
+    <n v="2.4922613879098501"/>
+    <n v="2.602377916"/>
+    <n v="1.4154382999922732E-5"/>
+    <n v="2.7623633692707723E-2"/>
+    <n v="5.5672979294386056E-3"/>
+    <n v="3.4125489158492672E-2"/>
+  </r>
+  <r>
+    <n v="10518"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.5714285700000001"/>
+    <n v="1.38461539"/>
+    <n v="2.3237428720834399"/>
+    <n v="2.46821208488993"/>
+    <n v="2.3615655066853498"/>
+    <n v="2.602377916"/>
+    <n v="0.88196042760438165"/>
+    <n v="1.1741817971763802"/>
+    <n v="0.95443153049151863"/>
+    <n v="1.4829455697299008"/>
+  </r>
+  <r>
+    <n v="10592"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.7588235299999999"/>
+    <n v="3"/>
+    <n v="2.4234895078310399"/>
+    <n v="2.6164155340808799"/>
+    <n v="2.5305410299058999"/>
+    <n v="2.602377916"/>
+    <n v="0.33236434758089661"/>
+    <n v="0.14713704249445661"/>
+    <n v="0.22039172460181317"/>
+    <n v="0.15810332168450306"/>
+  </r>
+  <r>
+    <n v="10594"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.71666667"/>
+    <n v="3.06"/>
+    <n v="2.4138848288800498"/>
+    <n v="2.5830752968506601"/>
+    <n v="2.4913724048449102"/>
+    <n v="2.602377916"/>
+    <n v="0.41746481435136251"/>
+    <n v="0.22745717247408606"/>
+    <n v="0.32333734197186076"/>
+    <n v="0.20941797176450308"/>
+  </r>
+  <r>
+    <n v="10616"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0142857099999998"/>
+    <n v="3.8"/>
+    <n v="2.6978901965487498"/>
+    <n v="2.8184507294720902"/>
+    <n v="2.7928669618082198"/>
+    <n v="2.602377916"/>
+    <n v="1.2146460188633528"/>
+    <n v="0.9634389704738715"/>
+    <n v="1.0143169566174055"/>
+    <n v="1.4342986560845026"/>
+  </r>
+  <r>
+    <n v="10634"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.9357142899999999"/>
+    <n v="2.4"/>
+    <n v="1.7814145149417999"/>
+    <n v="1.9654501603297201"/>
+    <n v="1.8456242106626899"/>
+    <n v="2.602377916"/>
+    <n v="0.38264800232468854"/>
+    <n v="0.18883356315746591"/>
+    <n v="0.30733251580336551"/>
+    <n v="4.0956820884503101E-2"/>
+  </r>
+  <r>
+    <n v="10651"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.87142857"/>
+    <n v="3.75"/>
+    <n v="3.4811176940264299"/>
+    <n v="3.4963319767188099"/>
+    <n v="3.6791324618578898"/>
+    <n v="2.602377916"/>
+    <n v="7.2297694465664572E-2"/>
+    <n v="6.4347466035386394E-2"/>
+    <n v="5.0222079623234465E-3"/>
+    <n v="1.3170364476845031"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="3.14"/>
+    <n v="2.9"/>
+    <n v="3.00519344007032"/>
+    <n v="2.9128739862192599"/>
+    <n v="2.95967212663099"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.1065659833828017E-2"/>
+    <n v="1.6573952117369503E-4"/>
+    <n v="3.5607626966649162E-3"/>
+    <n v="8.7876594154097987E-2"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.48"/>
+    <n v="2.3199999999999998"/>
+    <n v="2.2233078822994501"/>
+    <n v="2.4124708173517"/>
+    <n v="2.3027842085285202"/>
+    <n v="2.6035601339999999"/>
+    <n v="9.3493656254169666E-3"/>
+    <n v="8.5508520616914899E-3"/>
+    <n v="2.9638347598947212E-4"/>
+    <n v="8.0406349594097967E-2"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.4"/>
+    <n v="3.2666666700000002"/>
+    <n v="3.3607362153820599"/>
+    <n v="3.1100025072883"/>
+    <n v="3.2261336188192602"/>
+    <n v="2.6035601339999999"/>
+    <n v="8.8490793683873876E-3"/>
+    <n v="2.454365987815809E-2"/>
+    <n v="1.6429282380204899E-3"/>
+    <n v="0.43971027808591978"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.9437500000000001"/>
+    <n v="4"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.52226648163942"/>
+    <n v="3.7831703274505601"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.33341747895185136"/>
+    <n v="0.22822931456517861"/>
+    <n v="4.7015106897897313E-2"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.8833333300000001"/>
+    <n v="2.75"/>
+    <n v="2.73022007754013"/>
+    <n v="2.71827275362915"/>
+    <n v="2.6966268070778701"/>
+    <n v="2.6035601339999999"/>
+    <n v="3.9124533251847112E-4"/>
+    <n v="1.0066181622766148E-3"/>
+    <n v="2.8486977227029017E-3"/>
+    <n v="2.1444634354097998E-2"/>
+  </r>
+  <r>
+    <n v="290"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0562499999999999"/>
+    <n v="2.56666667"/>
+    <n v="3.0079131592167498"/>
+    <n v="2.84937585683645"/>
+    <n v="2.8738407805895698"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.19469846424610729"/>
+    <n v="7.9924484321726774E-2"/>
+    <n v="9.4355934216493242E-2"/>
+    <n v="1.3611276859192827E-3"/>
+  </r>
+  <r>
+    <n v="347"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.1166666699999999"/>
+    <n v="2.4"/>
+    <n v="2.0427821058867099"/>
+    <n v="2.1369963458540999"/>
+    <n v="2.0196504065462602"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.12760462387473365"/>
+    <n v="6.9170922094096171E-2"/>
+    <n v="0.1446658132404251"/>
+    <n v="4.1436728154097935E-2"/>
+  </r>
+  <r>
+    <n v="437"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.2066666700000002"/>
+    <n v="2.4428571400000001"/>
+    <n v="2.1215717766941999"/>
+    <n v="2.2052331416087698"/>
+    <n v="2.0896667963515299"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.10322428467453999"/>
+    <n v="5.6465164611435407E-2"/>
+    <n v="0.1247434188465245"/>
+    <n v="2.582545228056396E-2"/>
+  </r>
+  <r>
+    <n v="528"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.55384615"/>
+    <n v="3.1749999999999998"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.71027336371945"/>
+    <n v="1.6927246808187399"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.3145259209173497"/>
+    <n v="2.1454241190297338"/>
+    <n v="2.1971401218539057"/>
+    <n v="0.3265435204540979"/>
+  </r>
+  <r>
+    <n v="540"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.6666666699999999"/>
+    <n v="2.3642857099999999"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.79581236708076"/>
+    <n v="1.72781749751809"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.50501250049459245"/>
+    <n v="0.32316194160977574"/>
+    <n v="0.40509178549991759"/>
+    <n v="5.7252249980531772E-2"/>
+  </r>
+  <r>
+    <n v="619"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.8125"/>
+    <n v="3.3571428600000002"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.42275448783053"/>
+    <n v="3.6487360872594401"/>
+    <n v="2.6035601339999999"/>
+    <n v="4.2816087702561064E-3"/>
+    <n v="4.304885706571962E-3"/>
+    <n v="8.502661018357538E-2"/>
+    <n v="0.56788692492559156"/>
+  </r>
+  <r>
+    <n v="780"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.06666667"/>
+    <n v="3.3812500000000001"/>
+    <n v="3.0079131592167498"/>
+    <n v="2.8572736343755998"/>
+    <n v="2.8845163214835998"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.13938039668601795"/>
+    <n v="0.27455123173295526"/>
+    <n v="0.2467443473724345"/>
+    <n v="0.60480152767909834"/>
+  </r>
+  <r>
+    <n v="825"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.74"/>
+    <n v="2.86"/>
+    <n v="2.4369983350014599"/>
+    <n v="2.6095993384207401"/>
+    <n v="2.5498395433765699"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.17893040859153703"/>
+    <n v="6.2700491319330989E-2"/>
+    <n v="9.6199508852854568E-2"/>
+    <n v="6.576140487409797E-2"/>
+  </r>
+  <r>
+    <n v="869"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="1.5"/>
+    <n v="0"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.66944793024531"/>
+    <n v="1.6765580762807699"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.7345364763703652"/>
+    <n v="2.7870563918003497"/>
+    <n v="2.8108469831422758"/>
+    <n v="6.7785253713540969"/>
+  </r>
+  <r>
+    <n v="890"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.2"/>
+    <n v="3.5375000000000001"/>
+    <n v="3.1281695360272801"/>
+    <n v="2.9583651833890401"/>
+    <n v="3.0211632402128901"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.16755142873612222"/>
+    <n v="0.33539713581101027"/>
+    <n v="0.26660364950745175"/>
+    <n v="0.87224367330409835"/>
+  </r>
+  <r>
+    <n v="1199"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.5"/>
+    <n v="2.2000000000000002"/>
+    <n v="2.2233078822994501"/>
+    <n v="2.4276345497416201"/>
+    <n v="2.3190835753710601"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.4325737728501053E-4"/>
+    <n v="5.181748823607002E-2"/>
+    <n v="1.4180897923154918E-2"/>
+    <n v="0.16286078175409771"/>
+  </r>
+  <r>
+    <n v="1604"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.8866666699999999"/>
+    <n v="2.7266666700000002"/>
+    <n v="2.73022007754013"/>
+    <n v="2.72080004286626"/>
+    <n v="2.7000429807378801"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.2626705146251193E-5"/>
+    <n v="3.4417313926336741E-5"/>
+    <n v="7.0882082992592961E-4"/>
+    <n v="1.5155219205919375E-2"/>
+  </r>
+  <r>
+    <n v="1640"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.25"/>
+    <n v="2.2000000000000002"/>
+    <n v="3.1882520774989098"/>
+    <n v="2.9962745143638601"/>
+    <n v="3.0724058348644898"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.97664216868091092"/>
+    <n v="0.6340531022254009"/>
+    <n v="0.76109194070560715"/>
+    <n v="0.16286078175409771"/>
+  </r>
+  <r>
+    <n v="2137"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.1937500000000001"/>
+    <n v="2.65833333"/>
+    <n v="3.1281695360272801"/>
+    <n v="2.9536265170171898"/>
+    <n v="3.0147579158814501"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.22074606049410875"/>
+    <n v="8.7198066298769014E-2"/>
+    <n v="0.12703848542076321"/>
+    <n v="3.000103000054437E-3"/>
+  </r>
+  <r>
+    <n v="2210"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5649144789860898"/>
+    <n v="3.8406511821476599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.33341747895185136"/>
+    <n v="0.18929941059594568"/>
+    <n v="2.5392045750938268E-2"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="2270"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.9"/>
+    <n v="2.8125"/>
+    <n v="2.7291920285419802"/>
+    <n v="2.73090919754015"/>
+    <n v="2.7137076723033502"/>
+    <n v="2.6035601339999999"/>
+    <n v="6.9402181084502459E-3"/>
+    <n v="6.6570590460422576E-3"/>
+    <n v="9.7599240117222409E-3"/>
+    <n v="4.3655867604098016E-2"/>
+  </r>
+  <r>
+    <n v="2334"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.4"/>
+    <n v="2.21428571"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.5936292682956801"/>
+    <n v="1.64720898470466"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.31431980586245151"/>
+    <n v="0.3852144186290678"/>
+    <n v="0.32157601237168643"/>
+    <n v="0.1515345771805317"/>
+  </r>
+  <r>
+    <n v="2367"/>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1.8954728994821901"/>
+    <n v="2.0485412399934702"/>
+    <n v="1.9288884195023299"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.0925914742660333E-2"/>
+    <n v="2.3562519801036664E-3"/>
+    <n v="5.0568568808766114E-3"/>
+    <n v="0.36428483535409778"/>
+  </r>
+  <r>
+    <n v="2492"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.2307692299999999"/>
+    <n v="1.4142857099999999"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.4653207636328101"/>
+    <n v="1.59818268496837"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.7292101157699463E-2"/>
+    <n v="2.6045766993038071E-3"/>
+    <n v="3.3818097402517337E-2"/>
+    <n v="1.4143736555805317"/>
+  </r>
+  <r>
+    <n v="2551"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.1357142900000001"/>
+    <n v="2.7615384600000001"/>
+    <n v="3.00519344007032"/>
+    <n v="2.9096246152094798"/>
+    <n v="2.9552799045250899"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.9367749313067951E-2"/>
+    <n v="2.1929509364726096E-2"/>
+    <n v="3.7535747326668444E-2"/>
+    <n v="2.4957151485762365E-2"/>
+  </r>
+  <r>
+    <n v="2567"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.2882352899999998"/>
+    <n v="3.8"/>
+    <n v="3.2433885993454301"/>
+    <n v="3.02526400266717"/>
+    <n v="3.11159134830101"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.30981625133864193"/>
+    <n v="0.60021586556329454"/>
+    <n v="0.47390647173402106"/>
+    <n v="1.4314683529540979"/>
+  </r>
+  <r>
+    <n v="2579"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.28"/>
+    <n v="3.94"/>
+    <n v="3.2433885993454301"/>
+    <n v="3.0190201129487502"/>
+    <n v="3.1031513916554401"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.48526744352192164"/>
+    <n v="0.84820395235293278"/>
+    <n v="0.70031559328822657"/>
+    <n v="1.7860715154340983"/>
+  </r>
+  <r>
+    <n v="2760"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.6923076899999998"/>
+    <n v="1.6230769199999999"/>
+    <n v="2.4414633770145899"/>
+    <n v="2.5734396686422398"/>
+    <n v="2.50160861441731"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.66975639302489343"/>
+    <n v="0.90318935400683331"/>
+    <n v="0.77181793809574983"/>
+    <n v="0.96134733293576968"/>
+  </r>
+  <r>
+    <n v="2780"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.06"/>
+    <n v="3.14"/>
+    <n v="3.0079131592167498"/>
+    <n v="2.85221905665956"/>
+    <n v="2.87768397518844"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.7446933508099709E-2"/>
+    <n v="8.2817871349913613E-2"/>
+    <n v="6.880969687293903E-2"/>
+    <n v="0.28776772983409826"/>
+  </r>
+  <r>
+    <n v="2935"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.4538461499999999"/>
+    <n v="1.15714286"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.6344547017698201"/>
+    <n v="1.6629402533594499"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.24651278081789896"/>
+    <n v="0.22782659429369778"/>
+    <n v="0.25583100312921414"/>
+    <n v="2.0921229305255906"/>
+  </r>
+  <r>
+    <n v="2966"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.6733333300000002"/>
+    <n v="3.1466666700000001"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.3172401830312301"/>
+    <n v="3.5061931147788501"/>
+    <n v="2.6035601339999999"/>
+    <n v="7.6126434692595904E-2"/>
+    <n v="2.90953233478152E-2"/>
+    <n v="0.12925926449531946"/>
+    <n v="0.29496470944591957"/>
+  </r>
+  <r>
+    <n v="2976"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.5230769200000001"/>
+    <n v="1.69333333"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.68694454448306"/>
+    <n v="1.68348662103987"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.5752909752686812E-3"/>
+    <n v="4.0816580381462287E-5"/>
+    <n v="9.6957677345503579E-5"/>
+    <n v="0.82851283472005421"/>
+  </r>
+  <r>
+    <n v="2979"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5649144789860898"/>
+    <n v="3.8406511821476599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.33341747895185136"/>
+    <n v="0.18929941059594568"/>
+    <n v="2.5392045750938268E-2"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="2993"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.7"/>
+    <n v="3"/>
+    <n v="2.4414633770145899"/>
+    <n v="2.5792718736408902"/>
+    <n v="2.5093877205032098"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.31196315921594608"/>
+    <n v="0.17701215630964709"/>
+    <n v="0.24070040879303659"/>
+    <n v="0.15716456735409806"/>
+  </r>
+  <r>
+    <n v="3052"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.25"/>
+    <n v="1.8333333300000001"/>
+    <n v="2.12058344901273"/>
+    <n v="2.23808789486755"/>
+    <n v="2.1233783911836399"/>
+    <n v="2.6035601339999999"/>
+    <n v="8.2512630872827494E-2"/>
+    <n v="0.16382625778111967"/>
+    <n v="8.412613751702136E-2"/>
+    <n v="0.59324932960005405"/>
+  </r>
+  <r>
+    <n v="3092"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.4117647099999999"/>
+    <n v="1.6666666699999999"/>
+    <n v="2.1609113632528301"/>
+    <n v="2.3607357304634999"/>
+    <n v="2.2492245073492501"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.24427781680858418"/>
+    <n v="0.48173186069268564"/>
+    <n v="0.33937363385703539"/>
+    <n v="0.87776936288591922"/>
+  </r>
+  <r>
+    <n v="3157"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.6937500000000001"/>
+    <n v="3.9294117599999998"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.3327198267653499"/>
+    <n v="3.52710510803889"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.25688161264928866"/>
+    <n v="0.35604126318730384"/>
+    <n v="0.16185064221215756"/>
+    <n v="1.7578825341668438"/>
+  </r>
+  <r>
+    <n v="3239"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.5411764699999999"/>
+    <n v="3.5625"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.2170406185882099"/>
+    <n v="3.3708185923751599"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.9578484221620184E-2"/>
+    <n v="0.11934218420541667"/>
+    <n v="3.6741762029040108E-2"/>
+    <n v="0.91956566660409822"/>
+  </r>
+  <r>
+    <n v="3424"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="3.14"/>
+    <n v="4"/>
+    <n v="3.00519344007032"/>
+    <n v="2.9128739862192599"/>
+    <n v="2.95967212663099"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.98964009167912403"/>
+    <n v="1.181842969838802"/>
+    <n v="1.0822820841084868"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="3564"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="3.5882352900000001"/>
+    <n v="3.2"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.25271998851606"/>
+    <n v="3.4190305226667101"/>
+    <n v="2.6035601339999999"/>
+    <n v="4.9540460016571405E-2"/>
+    <n v="2.779397189133483E-3"/>
+    <n v="4.7974369859652151E-2"/>
+    <n v="0.35574051375409832"/>
+  </r>
+  <r>
+    <n v="3675"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.6812499999999999"/>
+    <n v="2.93529412"/>
+    <n v="2.4414633770145899"/>
+    <n v="2.56505587452533"/>
+    <n v="2.49042615017729"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.24386880271752215"/>
+    <n v="0.13707635841216198"/>
+    <n v="0.19790751057417966"/>
+    <n v="0.1100474374674483"/>
+  </r>
+  <r>
+    <n v="3700"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.4937499999999999"/>
+    <n v="3.35"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.1810825028660799"/>
+    <n v="3.32221348379099"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.26740106693645E-3"/>
+    <n v="2.8533120837987952E-2"/>
+    <n v="7.7209048303357941E-4"/>
+    <n v="0.55717247355409827"/>
+  </r>
+  <r>
+    <n v="3752"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.2799999999999998"/>
+    <n v="2.14"/>
+    <n v="2.1055441852867398"/>
+    <n v="2.2608334934524401"/>
+    <n v="2.1467171877853999"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.187203167554526E-3"/>
+    <n v="1.4600733139920857E-2"/>
+    <n v="4.512061174432371E-5"/>
+    <n v="0.2148879978340977"/>
+  </r>
+  <r>
+    <n v="3966"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="0.98666666999999997"/>
+    <n v="0.52307691999999995"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.28024546582327"/>
+    <n v="1.5255989376985699"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.278180553397964"/>
+    <n v="0.57330420678412541"/>
+    <n v="1.005050395970412"/>
+    <n v="4.32841040373577"/>
+  </r>
+  <r>
+    <n v="4099"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.4249999999999998"/>
+    <n v="4"/>
+    <n v="2.16242849389001"/>
+    <n v="2.3707705532793999"/>
+    <n v="2.2595209694151102"/>
+    <n v="2.6035601339999999"/>
+    <n v="3.3766690400673371"/>
+    <n v="2.654388590061513"/>
+    <n v="3.0292672559057179"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="4366"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="4"/>
+    <n v="3.9307692300000001"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5649144789860898"/>
+    <n v="3.8406511821476599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.25825948170890189"/>
+    <n v="0.1338496988394503"/>
+    <n v="8.1212625487166838E-3"/>
+    <n v="1.761483984505138"/>
+  </r>
+  <r>
+    <n v="4372"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.5"/>
+    <n v="3.0846153900000002"/>
+    <n v="2.2233078822994501"/>
+    <n v="2.4276345497416201"/>
+    <n v="2.3190835753710601"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.74185062282133318"/>
+    <n v="0.43162382446660713"/>
+    <n v="0.58603895920907778"/>
+    <n v="0.23141415932522585"/>
+  </r>
+  <r>
+    <n v="4392"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.5411764699999999"/>
+    <n v="3.7882352899999998"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.2170406185882099"/>
+    <n v="3.3708185923751599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.13370608511511778"/>
+    <n v="0.32626335264922268"/>
+    <n v="0.17423669945602702"/>
+    <n v="1.4034552252436243"/>
+  </r>
+  <r>
+    <n v="4440"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.0866666700000001"/>
+    <n v="1.12941176"/>
+    <n v="2.0385398535935999"/>
+    <n v="2.1142507472692098"/>
+    <n v="1.99631160994451"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.82651389056113334"/>
+    <n v="0.96990783084544285"/>
+    <n v="0.75151534983381385"/>
+    <n v="2.1731134285668436"/>
+  </r>
+  <r>
+    <n v="4698"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.1235294100000002"/>
+    <n v="3.15"/>
+    <n v="3.00519344007032"/>
+    <n v="2.90038620678243"/>
+    <n v="2.9427922133398399"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.0968939798667988E-2"/>
+    <n v="6.2307045764463762E-2"/>
+    <n v="4.2935066852602399E-2"/>
+    <n v="0.29859652715409801"/>
+  </r>
+  <r>
+    <n v="4779"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.4769230800000002"/>
+    <n v="2.4249999999999998"/>
+    <n v="2.2233078822994501"/>
+    <n v="2.4101379355038799"/>
+    <n v="2.30027661369235"/>
+    <n v="2.6035601339999999"/>
+    <n v="4.0679710342532406E-2"/>
+    <n v="2.2088096108682857E-4"/>
+    <n v="1.5555923092047242E-2"/>
+    <n v="3.1883721454097971E-2"/>
+  </r>
+  <r>
+    <n v="4941"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.56666667"/>
+    <n v="0"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.71999370513113"/>
+    <n v="1.6965738724182899"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.7345364763703652"/>
+    <n v="2.9583783456907127"/>
+    <n v="2.8783629045723917"/>
+    <n v="6.7785253713540969"/>
+  </r>
+  <r>
+    <n v="5075"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.75"/>
+    <n v="2.85"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.8589945851193901"/>
+    <n v="1.75782484882598"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.4312691273810449"/>
+    <n v="0.98209173232268998"/>
+    <n v="1.1928465608419936"/>
+    <n v="6.0732607554098067E-2"/>
+  </r>
+  <r>
+    <n v="5174"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="1.64285714"/>
+    <n v="0.76153846000000003"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.77776030456739"/>
+    <n v="1.71994898168609"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.79585121426546312"/>
+    <n v="1.0327068373759487"/>
+    <n v="0.91855072807860316"/>
+    <n v="3.3930438474857612"/>
+  </r>
+  <r>
+    <n v="5291"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.91875"/>
+    <n v="1.8062499999999999"/>
+    <n v="1.6932963713287501"/>
+    <n v="1.9869385771593899"/>
+    <n v="1.86626940057385"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.2758522230002586E-2"/>
+    <n v="3.2648361915884841E-2"/>
+    <n v="3.6023284452442817E-3"/>
+    <n v="0.63570344977909787"/>
+  </r>
+  <r>
+    <n v="5341"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.75"/>
+    <n v="2.8333333299999999"/>
+    <n v="2.4369983350014599"/>
+    <n v="2.6171812046156999"/>
+    <n v="2.5599781914920801"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.15708142826049271"/>
+    <n v="4.6721741308150128E-2"/>
+    <n v="7.4723031748684027E-2"/>
+    <n v="5.279572160005442E-2"/>
+  </r>
+  <r>
+    <n v="5435"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2.4357142899999999"/>
+    <n v="2.78728768132064"/>
+    <n v="2.8067278594897802"/>
+    <n v="2.8161928616065302"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.12360384948469588"/>
+    <n v="0.137651068745548"/>
+    <n v="0.14476394345174554"/>
+    <n v="2.8172227348072305E-2"/>
+  </r>
+  <r>
+    <n v="5689"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.6307692299999998"/>
+    <n v="3.79"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.2849686504239601"/>
+    <n v="3.46259637030809"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.13499976148134044"/>
+    <n v="0.2550566640545962"/>
+    <n v="0.10719313673543737"/>
+    <n v="1.4076395556340984"/>
+  </r>
+  <r>
+    <n v="5726"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5649144789860898"/>
+    <n v="3.8406511821476599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.33341747895185136"/>
+    <n v="0.18929941059594568"/>
+    <n v="2.5392045750938268E-2"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="5822"/>
+    <n v="13"/>
+    <x v="12"/>
+    <n v="1.3"/>
+    <n v="3.15"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.5178106063460499"/>
+    <n v="1.61819410271471"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.2390830906453263"/>
+    <n v="2.664042216756449"/>
+    <n v="2.346429306957992"/>
+    <n v="0.29859652715409801"/>
+  </r>
+  <r>
+    <n v="5872"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.5882352900000001"/>
+    <n v="2.74"/>
+    <n v="2.2818143089046998"/>
+    <n v="2.49453336901975"/>
+    <n v="2.3963618894219101"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.20993412752447801"/>
+    <n v="6.0253866924794341E-2"/>
+    <n v="0.1180871510416797"/>
+    <n v="1.8615837034098054E-2"/>
+  </r>
+  <r>
+    <n v="6105"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.3230769200000001"/>
+    <n v="1.0071428600000001"/>
+    <n v="2.09522239853117"/>
+    <n v="2.2934938400801101"/>
+    <n v="2.1802293059229498"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.1839170821702036"/>
+    <n v="1.6546988439530597"/>
+    <n v="1.3761318096081376"/>
+    <n v="2.5485481127255905"/>
+  </r>
+  <r>
+    <n v="6142"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.25"/>
+    <n v="2.0750000000000002"/>
+    <n v="2.12058344901273"/>
+    <n v="2.23808789486755"/>
+    <n v="2.1233783911836399"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.0778508238961388E-3"/>
+    <n v="2.6597661452328985E-2"/>
+    <n v="2.3404687335172709E-3"/>
+    <n v="0.2793758152540976"/>
+  </r>
+  <r>
+    <n v="6144"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.0941176499999998"/>
+    <n v="3.1941176499999999"/>
+    <n v="3.0079131592167498"/>
+    <n v="2.8780866001036598"/>
+    <n v="2.9126495103021801"/>
+    <n v="2.6035601339999999"/>
+    <n v="3.4672112387849466E-2"/>
+    <n v="9.9875624498583018E-2"/>
+    <n v="7.9224313664951404E-2"/>
+    <n v="0.34875817970409034"/>
+  </r>
+  <r>
+    <n v="6198"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="2.94"/>
+    <n v="2.9411764699999998"/>
+    <n v="2.7381824483078501"/>
+    <n v="2.76123666232"/>
+    <n v="2.7547017480246199"/>
+    <n v="2.6035601339999999"/>
+    <n v="4.1206572842752962E-2"/>
+    <n v="3.2378334387915327E-2"/>
+    <n v="3.4772821935795249E-2"/>
+    <n v="0.11398479033406488"/>
+  </r>
+  <r>
+    <n v="6208"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.6769230799999999"/>
+    <n v="2.5249999999999999"/>
+    <n v="2.4414633770145899"/>
+    <n v="2.5617752594031402"/>
+    <n v="2.4860504032568"/>
+    <n v="2.6035601339999999"/>
+    <n v="6.9783673798065275E-3"/>
+    <n v="1.3524197041682594E-3"/>
+    <n v="1.5170710864578856E-3"/>
+    <n v="6.1716946540979478E-3"/>
+  </r>
+  <r>
+    <n v="6388"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.8076923100000002"/>
+    <n v="2.4"/>
+    <n v="2.4483519101086499"/>
+    <n v="2.66092274058916"/>
+    <n v="2.6191053354546101"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.337907211154973E-3"/>
+    <n v="6.808067655655814E-2"/>
+    <n v="4.8007148024677267E-2"/>
+    <n v="4.1436728154097935E-2"/>
+  </r>
+  <r>
+    <n v="6714"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.8125"/>
+    <n v="2.4"/>
+    <n v="2.4483519101086499"/>
+    <n v="2.66456786833422"/>
+    <n v="2.6240325971098701"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.337907211154973E-3"/>
+    <n v="6.9996156954913208E-2"/>
+    <n v="5.019060456779343E-2"/>
+    <n v="4.1436728154097935E-2"/>
+  </r>
+  <r>
+    <n v="6788"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="1.68461539"/>
+    <n v="0.58823528999999997"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.8094208449054701"/>
+    <n v="1.73394021099627"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.1350944292611305"/>
+    <n v="1.4912941595097813"/>
+    <n v="1.3126397659950697"/>
+    <n v="4.0615342268436239"/>
+  </r>
+  <r>
+    <n v="6823"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="3.42352941"/>
+    <n v="3.81666667"/>
+    <n v="3.3994419410005499"/>
+    <n v="3.12784219263132"/>
+    <n v="3.2502477812493802"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.17407647448866465"/>
+    <n v="0.47447916062223516"/>
+    <n v="0.32083035753348704"/>
+    <n v="1.4716274676859198"/>
+  </r>
+  <r>
+    <n v="6976"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.1176470599999999"/>
+    <n v="3.2062499999999998"/>
+    <n v="3.0070803879500101"/>
+    <n v="2.8959262854466701"/>
+    <n v="2.9367636727323099"/>
+    <n v="2.6035601339999999"/>
+    <n v="3.9668534364143415E-2"/>
+    <n v="9.6300807814176478E-2"/>
+    <n v="7.2622880584228486E-2"/>
+    <n v="0.36323507457909793"/>
+  </r>
+  <r>
+    <n v="6977"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.0428571400000002"/>
+    <n v="2.8642857099999999"/>
+    <n v="2.9821622138708102"/>
+    <n v="2.83922157186222"/>
+    <n v="2.8601150857400199"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.3894870164805151E-2"/>
+    <n v="6.2821102058971065E-4"/>
+    <n v="1.7394106717933206E-5"/>
+    <n v="6.7977825980531786E-2"/>
+  </r>
+  <r>
+    <n v="7437"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.61538461"/>
+    <n v="3.3571428600000002"/>
+    <n v="2.3708121727824301"/>
+    <n v="2.5151176209303601"/>
+    <n v="2.4238175565921698"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.97284822454708408"/>
+    <n v="0.70900650323028458"/>
+    <n v="0.87109612198131858"/>
+    <n v="0.56788692492559156"/>
+  </r>
+  <r>
+    <n v="7449"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.21428571"/>
+    <n v="3"/>
+    <n v="2.1215717766941999"/>
+    <n v="2.2110098010974801"/>
+    <n v="2.0955941092926098"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.7716361435001845"/>
+    <n v="0.62250553396423791"/>
+    <n v="0.81795001514622778"/>
+    <n v="0.15716456735409806"/>
+  </r>
+  <r>
+    <n v="7585"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.4500000000000002"/>
+    <n v="2.71666667"/>
+    <n v="2.1677949372302399"/>
+    <n v="2.3897252187668099"/>
+    <n v="2.2789698423790701"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.30126017903367891"/>
+    <n v="0.1068907125344644"/>
+    <n v="0.19157851290942601"/>
+    <n v="1.2793088485919316E-2"/>
+  </r>
+  <r>
+    <n v="7721"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.5"/>
+    <n v="3.0055555599999999"/>
+    <n v="2.2233078822994501"/>
+    <n v="2.4276345497416201"/>
+    <n v="2.3190835753710601"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.61191142926790321"/>
+    <n v="0.33399269409806637"/>
+    <n v="0.47124378568039532"/>
+    <n v="0.16160032252492151"/>
+  </r>
+  <r>
+    <n v="7787"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.3071428599999999"/>
+    <n v="2.3357142899999999"/>
+    <n v="2.0962538349062001"/>
+    <n v="2.2814128444447399"/>
+    <n v="2.1678332417425201"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.7341309553729694E-2"/>
+    <n v="2.948646989390861E-3"/>
+    <n v="2.8184046364030241E-2"/>
+    <n v="7.1741396148072331E-2"/>
+  </r>
+  <r>
+    <n v="7792"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.5"/>
+    <n v="1.5"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.1858211692379399"/>
+    <n v="3.3286188081224402"/>
+    <n v="2.6035601339999999"/>
+    <n v="3.6963017947791017"/>
+    <n v="2.8419930146507748"/>
+    <n v="3.3438467454191336"/>
+    <n v="1.2178449693540976"/>
+  </r>
+  <r>
+    <n v="7845"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3.9294117599999998"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5649144789860898"/>
+    <n v="3.8406511821476599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.25688161264928866"/>
+    <n v="0.13285826786653326"/>
+    <n v="7.8784401806812968E-3"/>
+    <n v="1.7578825341668438"/>
+  </r>
+  <r>
+    <n v="7923"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="3.9357142899999999"/>
+    <n v="4"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5161739108065202"/>
+    <n v="3.7749396599764"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.33341747895185136"/>
+    <n v="0.23408768458425708"/>
+    <n v="5.0652156651538438E-2"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="7938"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.0705882400000002"/>
+    <n v="3.32"/>
+    <n v="3.0079131592167498"/>
+    <n v="2.8602469147606402"/>
+    <n v="2.8885353478720601"/>
+    <n v="2.6035601339999999"/>
+    <n v="9.7398196190069633E-2"/>
+    <n v="0.2113728993871099"/>
+    <n v="0.18616174603588403"/>
+    <n v="0.51328608159409794"/>
+  </r>
+  <r>
+    <n v="8282"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="1.925"/>
+    <n v="0"/>
+    <n v="1.7048583942984099"/>
+    <n v="1.99167724353125"/>
+    <n v="1.8709285460234"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.9065421446097526"/>
+    <n v="3.9667782424002378"/>
+    <n v="3.5003736243252335"/>
+    <n v="6.7785253713540969"/>
+  </r>
+  <r>
+    <n v="8308"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="0.75"/>
+    <n v="0.85714285999999995"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.10080796562308"/>
+    <n v="1.4705088580572001"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.63441310155361696"/>
+    <n v="5.9372683698306769E-2"/>
+    <n v="0.37621784757270527"/>
+    <n v="3.0499732949255907"/>
+  </r>
+  <r>
+    <n v="8334"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="2.25"/>
+    <n v="2.62"/>
+    <n v="2.12058344901273"/>
+    <n v="2.23808789486755"/>
+    <n v="2.1233783911836399"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.24941689140002057"/>
+    <n v="0.14585685604669962"/>
+    <n v="0.24663302234334988"/>
+    <n v="2.7026919409796411E-4"/>
+  </r>
+  <r>
+    <n v="8414"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.0062500000000001"/>
+    <n v="1.92"/>
+    <n v="2.78728768132064"/>
+    <n v="2.81146652586163"/>
+    <n v="2.8225981859379798"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.7521879221705321"/>
+    <n v="0.79471256673180446"/>
+    <n v="0.81468348525853218"/>
+    <n v="0.46725445679409788"/>
+  </r>
+  <r>
+    <n v="8553"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.80833333"/>
+    <n v="1.925"/>
+    <n v="2.4483519101086499"/>
+    <n v="2.6614087571669298"/>
+    <n v="2.6197623030603898"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.27389722181437237"/>
+    <n v="0.54229785763214211"/>
+    <n v="0.4826946577537769"/>
+    <n v="0.46044385545409772"/>
+  </r>
+  <r>
+    <n v="8700"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.46666667"/>
+    <n v="1.8125"/>
+    <n v="2.22162162915768"/>
+    <n v="2.4023616626778099"/>
+    <n v="2.29193613240618"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.16738050744463426"/>
+    <n v="0.34793678109703041"/>
+    <n v="0.22985900505659615"/>
+    <n v="0.62577613560409773"/>
+  </r>
+  <r>
+    <n v="8727"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="3.61111111"/>
+    <n v="3.29411765"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.2700641268755"/>
+    <n v="3.4424613270640099"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.6501769447086537E-2"/>
+    <n v="5.7857197470085827E-4"/>
+    <n v="2.2005846524871246E-2"/>
+    <n v="0.47686968290409049"/>
+  </r>
+  <r>
+    <n v="8834"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="3.4"/>
+    <n v="3.2411764700000001"/>
+    <n v="3.3607362153820599"/>
+    <n v="3.1100025072883"/>
+    <n v="3.2261336188192602"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.4294532715822976E-2"/>
+    <n v="1.7206608493490493E-2"/>
+    <n v="2.2628737164588755E-4"/>
+    <n v="0.40655459193406518"/>
+  </r>
+  <r>
+    <n v="8915"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="1.8125"/>
+    <n v="2.5"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.9063812488379099"/>
+    <n v="1.78963114283615"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.71631950357271557"/>
+    <n v="0.35238322173123943"/>
+    <n v="0.50462391322827438"/>
+    <n v="1.0724701354097926E-2"/>
+  </r>
+  <r>
+    <n v="9076"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="2.7749999999999999"/>
+    <n v="3.2062499999999998"/>
+    <n v="2.4337866737429601"/>
+    <n v="2.6361358701031099"/>
+    <n v="2.5855999537391998"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.59669959041208975"/>
+    <n v="0.32503012110808788"/>
+    <n v="0.38520647992353318"/>
+    <n v="0.36323507457909793"/>
+  </r>
+  <r>
+    <n v="9105"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.7466666700000002"/>
+    <n v="0"/>
+    <n v="2.4369983350014599"/>
+    <n v="2.6146539161367799"/>
+    <n v="2.5565820073526302"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.9389608847998874"/>
+    <n v="6.8364151011693988"/>
+    <n v="6.5361115603192044"/>
+    <n v="6.7785253713540969"/>
+  </r>
+  <r>
+    <n v="9304"/>
+    <n v="7"/>
+    <x v="4"/>
+    <n v="3.0562499999999999"/>
+    <n v="2.3250000000000002"/>
+    <n v="3.0079131592167498"/>
+    <n v="2.84937585683645"/>
+    <n v="2.8738407805895698"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.46637038303140166"/>
+    <n v="0.27497003923296093"/>
+    <n v="0.30122620243816811"/>
+    <n v="7.7595748254097777E-2"/>
+  </r>
+  <r>
+    <n v="9342"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="3.25"/>
+    <n v="1.6536433945595299"/>
+    <n v="0.53216800100085204"/>
+    <n v="1.31303282023963"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.5483544117334205"/>
+    <n v="7.3866107747837031"/>
+    <n v="3.7518418554688417"/>
+    <n v="0.41788450035409813"/>
+  </r>
+  <r>
+    <n v="9358"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="3.4249999999999998"/>
+    <n v="4"/>
+    <n v="3.3994419410005499"/>
+    <n v="3.1289571727757099"/>
+    <n v="3.2517549161450501"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.36066998222918706"/>
+    <n v="0.75871560685888439"/>
+    <n v="0.55987070551310103"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="9361"/>
+    <n v="9"/>
+    <x v="9"/>
+    <n v="2.0153846099999999"/>
+    <n v="2.25"/>
+    <n v="1.9100834725587399"/>
+    <n v="2.0602056492325702"/>
+    <n v="1.9408570328450401"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.11554324562772493"/>
+    <n v="3.6021895583230178E-2"/>
+    <n v="9.5569374141372634E-2"/>
+    <n v="0.12500476835409785"/>
+  </r>
+  <r>
+    <n v="9401"/>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.5649144789860898"/>
+    <n v="3.8406511821476599"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.33341747895185136"/>
+    <n v="0.18929941059594568"/>
+    <n v="2.5392045750938268E-2"/>
+    <n v="1.9500442993540983"/>
+  </r>
+  <r>
+    <n v="9585"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.8125"/>
+    <n v="1.3833333299999999"/>
+    <n v="2.4483519101086499"/>
+    <n v="2.66456786833422"/>
+    <n v="2.6240325971098701"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.134264575976645"/>
+    <n v="1.6415619422205021"/>
+    <n v="1.5393346714069691"/>
+    <n v="1.4889534532000543"/>
+  </r>
+  <r>
+    <n v="9947"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="1.75"/>
+    <n v="1.7"/>
+    <n v="1.6536433945595299"/>
+    <n v="1.8589945851193901"/>
+    <n v="1.75782484882598"/>
+    <n v="2.6035601339999999"/>
+    <n v="2.1489348679634168E-3"/>
+    <n v="2.5279278097286993E-2"/>
+    <n v="3.3437131417474461E-3"/>
+    <n v="0.81642091575409781"/>
+  </r>
+  <r>
+    <n v="10105"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="2.125"/>
+    <n v="2.9285714299999999"/>
+    <n v="2.08639680457844"/>
+    <n v="2.1433145674305099"/>
+    <n v="2.02613340534299"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.7092580997039446"/>
+    <n v="0.61662834021247892"/>
+    <n v="0.81439438834684585"/>
+    <n v="0.10563234252759962"/>
+  </r>
+  <r>
+    <n v="10122"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0.89230768999999999"/>
+    <n v="1.6536433945595299"/>
+    <n v="0.53216800100085204"/>
+    <n v="1.31303282023963"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.57963205503715587"/>
+    <n v="0.12970059559240299"/>
+    <n v="0.17700963521515362"/>
+    <n v="2.9283849270959728"/>
+  </r>
+  <r>
+    <n v="10194"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.8"/>
+    <n v="3.66"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.4132771550868299"/>
+    <n v="3.6359328262888502"/>
+    <n v="2.6035601339999999"/>
+    <n v="5.6369745904357491E-2"/>
+    <n v="6.0872162202048233E-2"/>
+    <n v="5.7922885044266821E-4"/>
+    <n v="1.1160651904740986"/>
+  </r>
+  <r>
+    <n v="10282"/>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="2.56666667"/>
+    <n v="1.9"/>
+    <n v="2.2445629918561698"/>
+    <n v="2.4781803246274401"/>
+    <n v="2.3750030462941698"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.118723655356875"/>
+    <n v="0.33429248778629211"/>
+    <n v="0.22562789398874131"/>
+    <n v="0.49499686215409788"/>
+  </r>
+  <r>
+    <n v="10369"/>
+    <n v="1"/>
+    <x v="1"/>
+    <n v="1.93333333"/>
+    <n v="3"/>
+    <n v="1.7116775369289801"/>
+    <n v="1.9979954651076499"/>
+    <n v="1.8771407397076501"/>
+    <n v="2.6035601339999999"/>
+    <n v="1.6597747688533795"/>
+    <n v="1.0040130879448348"/>
+    <n v="1.2608129184242833"/>
+    <n v="0.15716456735409806"/>
+  </r>
+  <r>
+    <n v="10401"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="3.5705882400000002"/>
+    <n v="3.77894737"/>
+    <n v="3.4225768631654501"/>
+    <n v="3.2393402245087999"/>
+    <n v="3.4009553305274798"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.12699993814151403"/>
+    <n v="0.29117587146516122"/>
+    <n v="0.1428779819045953"/>
+    <n v="1.38153515455172"/>
+  </r>
+  <r>
+    <n v="10505"/>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="2.22307692"/>
+    <n v="1.675"/>
+    <n v="2.1215717766941999"/>
+    <n v="2.21767517813048"/>
+    <n v="2.1024333172504299"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.19942635173981435"/>
+    <n v="0.29449634895894811"/>
+    <n v="0.18269924069570664"/>
+    <n v="0.86222392245409762"/>
+  </r>
+  <r>
+    <n v="10584"/>
+    <n v="5"/>
+    <x v="3"/>
+    <n v="2.14"/>
+    <n v="1.72"/>
+    <n v="2.0863621202748202"/>
+    <n v="2.1546873667229498"/>
+    <n v="2.0378028036438698"/>
+    <n v="2.6035601339999999"/>
+    <n v="0.1342212031722618"/>
+    <n v="0.18895310678853228"/>
+    <n v="0.10099862200390407"/>
+    <n v="0.78067851039409775"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of GBT-residual" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of LR-residual" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of MLPR-residual" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ZEROR-residual" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,10 +9048,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49.768153814107414</v>
+      </c>
+      <c r="C4" s="3">
+        <v>57.208565019733783</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50.963564345162183</v>
+      </c>
+      <c r="E4" s="3">
+        <v>78.758354764342414</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,2)</f>
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",2)/$F$4</f>
+        <v>0.61442165202601751</v>
+      </c>
+      <c r="I4">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",2)/$F$4</f>
+        <v>0.70627858049054049</v>
+      </c>
+      <c r="J4">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",2)/$F$4</f>
+        <v>0.62917980673039731</v>
+      </c>
+      <c r="K4">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",2)/$F$4</f>
+        <v>0.9723253674610175</v>
+      </c>
+      <c r="M4">
+        <f>H4/4</f>
+        <v>0.15360541300650438</v>
+      </c>
+      <c r="N4">
+        <f>I4/4</f>
+        <v>0.17656964512263512</v>
+      </c>
+      <c r="O4">
+        <f>J4/4</f>
+        <v>0.15729495168259933</v>
+      </c>
+      <c r="P4">
+        <f>K4/4</f>
+        <v>0.24308134186525437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>83.602248057656382</v>
+      </c>
+      <c r="C5" s="3">
+        <v>91.504663646588611</v>
+      </c>
+      <c r="D5" s="3">
+        <v>85.15670042824047</v>
+      </c>
+      <c r="E5" s="3">
+        <v>159.44243959529911</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,3)</f>
+        <v>106</v>
+      </c>
+      <c r="H5">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",3)/$F$5</f>
+        <v>0.78870045337411676</v>
+      </c>
+      <c r="I5">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",3)/$F$5</f>
+        <v>0.86325154383574165</v>
+      </c>
+      <c r="J5">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",3)/$F$5</f>
+        <v>0.80336509837962711</v>
+      </c>
+      <c r="K5">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",3)/$F$5</f>
+        <v>1.5041739584462179</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:P16" si="0">H5/4</f>
+        <v>0.19717511334352919</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.21581288595893541</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.20084127459490678</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.37604348961155448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50.430643517041233</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46.453623419511501</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50.339305030573044</v>
+      </c>
+      <c r="E6" s="3">
+        <v>93.361587403505936</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,4)</f>
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",4)/$F$6</f>
+        <v>0.68149518266271936</v>
+      </c>
+      <c r="I6">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",4)/$F$6</f>
+        <v>0.62775166783123648</v>
+      </c>
+      <c r="J6">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",4)/$F$6</f>
+        <v>0.68026087879152763</v>
+      </c>
+      <c r="K6">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",4)/$F$6</f>
+        <v>1.2616430730203505</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.17037379566567984</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.15693791695780912</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.17006521969788191</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0.31541076825508763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>29.64506379066956</v>
+      </c>
+      <c r="C7" s="3">
+        <v>29.402417181872824</v>
+      </c>
+      <c r="D7" s="3">
+        <v>27.582913264829315</v>
+      </c>
+      <c r="E7" s="3">
+        <v>54.125937038707448</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,5)</f>
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",5)/$F$7</f>
+        <v>0.45607790447183938</v>
+      </c>
+      <c r="I7">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",5)/$F$7</f>
+        <v>0.45234487972112036</v>
+      </c>
+      <c r="J7">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",5)/$F$7</f>
+        <v>0.42435251176660488</v>
+      </c>
+      <c r="K7">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",5)/$F$7</f>
+        <v>0.83270672367242227</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.11401947611795984</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.11308621993028009</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.10608812794165122</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>0.20817668091810557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>31.091539880944676</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32.094791849567606</v>
+      </c>
+      <c r="D8" s="3">
+        <v>31.403079465371306</v>
+      </c>
+      <c r="E8" s="3">
+        <v>52.827370158386621</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,6)</f>
+        <v>69</v>
+      </c>
+      <c r="H8">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",6)/$F$8</f>
+        <v>0.45060202726006776</v>
+      </c>
+      <c r="I8">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",6)/$F$8</f>
+        <v>0.46514191086329865</v>
+      </c>
+      <c r="J8">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",6)/$F$8</f>
+        <v>0.45511709370103343</v>
+      </c>
+      <c r="K8">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",6)/$F$8</f>
+        <v>0.76561406026647272</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.11265050681501694</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.11628547771582466</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.11377927342525836</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.19140351506661818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15.896342025548019</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15.389782737692927</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14.26806387904449</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44.311559176586499</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,7)</f>
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",7)/$F$9</f>
+        <v>0.25639261331529062</v>
+      </c>
+      <c r="I9">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",7)/$F$9</f>
+        <v>0.24822230222085367</v>
+      </c>
+      <c r="J9">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",7)/$F$9</f>
+        <v>0.23013006256523372</v>
+      </c>
+      <c r="K9">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",7)/$F$9</f>
+        <v>0.71470256736429838</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>6.4098153328822655E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>6.2055575555213419E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>5.7532515641308429E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.1786756418410746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12.401846321623621</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10.006592761460158</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10.01989065502876</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33.320303445543409</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,8)</f>
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",8)/$F$10</f>
+        <v>0.25309890452293105</v>
+      </c>
+      <c r="I10">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",8)/$F$10</f>
+        <v>0.20421617880530935</v>
+      </c>
+      <c r="J10">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",8)/$F$10</f>
+        <v>0.20448756438834204</v>
+      </c>
+      <c r="K10">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",8)/$F$10</f>
+        <v>0.68000619276619201</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>6.3274726130732761E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>5.1054044701327336E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>5.1121891097085509E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>0.170001548191548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11.754871263869356</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11.09884596045169</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10.997599871432326</v>
+      </c>
+      <c r="E11" s="3">
+        <v>19.599740928072631</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,9)</f>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",9)/$F$11</f>
+        <v>0.48978630266122319</v>
+      </c>
+      <c r="I11">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",9)/$F$11</f>
+        <v>0.46245191501882044</v>
+      </c>
+      <c r="J11">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",9)/$F$11</f>
+        <v>0.45823332797634692</v>
+      </c>
+      <c r="K11">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",9)/$F$11</f>
+        <v>0.81665587200302625</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.1224465756653058</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.11561297875470511</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.11455833199408673</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>0.20416396800075656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.7814948071652825</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.0630831791515734</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.4011255077775742</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.960212790335067</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,10)</f>
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",10)/$F$12</f>
+        <v>0.36134342544783016</v>
+      </c>
+      <c r="I12">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",10)/$F$12</f>
+        <v>0.37894269869697333</v>
+      </c>
+      <c r="J12">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",10)/$F$12</f>
+        <v>0.33757034423609839</v>
+      </c>
+      <c r="K12">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",10)/$F$12</f>
+        <v>0.37251329939594169</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>9.0335856361957539E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>9.4735674674243334E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>8.4392586059024596E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>9.3128324848985422E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.2461453955582567</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.1399732582579949</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.1423288952557442</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.9584148339747216</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,11)</f>
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",11)/$F$13</f>
+        <v>0.80512726617313968</v>
+      </c>
+      <c r="I13">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",11)/$F$13</f>
+        <v>0.79333036202866614</v>
+      </c>
+      <c r="J13">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",11)/$F$13</f>
+        <v>0.79359209947286047</v>
+      </c>
+      <c r="K13">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",11)/$F$13</f>
+        <v>0.55093498155274689</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0.20128181654328492</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.19833259050716653</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.19839802486821512</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.13773374538818672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.27093686605273476</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.3781793196089126</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.30244192685896709</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.69443942877511955</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,12)</f>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",12)/$F$14</f>
+        <v>9.0312288684244915E-2</v>
+      </c>
+      <c r="I14">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",12)/$F$14</f>
+        <v>0.12605977320297088</v>
+      </c>
+      <c r="J14">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",12)/$F$14</f>
+        <v>0.1008139756196557</v>
+      </c>
+      <c r="K14">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",12)/$F$14</f>
+        <v>0.23147980959170653</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2.2578072171061229E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3.1514943300742719E-2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>2.5203493904913925E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>5.7869952397926631E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.0182916727636373</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.82926652342383855</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.76790189560347932</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.3479029557021007</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,13)</f>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",13)/$F$15</f>
+        <v>0.50914583638181865</v>
+      </c>
+      <c r="I15">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",13)/$F$15</f>
+        <v>0.41463326171191928</v>
+      </c>
+      <c r="J15">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",13)/$F$15</f>
+        <v>0.38395094780173966</v>
+      </c>
+      <c r="K15">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",13)/$F$15</f>
+        <v>0.67395147785105036</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0.12728645909545466</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.10365831542797982</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>9.5987736950434915E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0.16848786946276259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.2390830906453263</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.664042216756449</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.346429306957992</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.29859652715409801</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(Sheet1!$C$2:$C$562,14)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>GETPIVOTDATA("Sum of GBT-residual",$A$3,"next term",14)/$F$16</f>
+        <v>2.2390830906453263</v>
+      </c>
+      <c r="I16">
+        <f>GETPIVOTDATA("Sum of LR-residual",$A$3,"next term",14)/$F$16</f>
+        <v>2.664042216756449</v>
+      </c>
+      <c r="J16">
+        <f>GETPIVOTDATA("Sum of MLPR-residual",$A$3,"next term",14)/$F$16</f>
+        <v>2.346429306957992</v>
+      </c>
+      <c r="K16">
+        <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",14)/$F$16</f>
+        <v>0.29859652715409801</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0.55977077266133157</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.66601055418911226</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.586607326739498</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>7.4649131788524503E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>301.14666050364548</v>
+      </c>
+      <c r="C17" s="3">
+        <v>310.23382707407796</v>
+      </c>
+      <c r="D17" s="3">
+        <v>296.69134447213565</v>
+      </c>
+      <c r="E17" s="3">
+        <v>549.00685904638522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="A534" workbookViewId="0">
+      <selection sqref="A1:M562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/next_semester_gpa_prediction/TotalResults/next_semest_gpa_prediction_results.xlsx
+++ b/next_semester_gpa_prediction/TotalResults/next_semest_gpa_prediction_results.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -114,16 +115,19 @@
     <t>count</t>
   </si>
   <si>
-    <t>normalized GBT</t>
+    <t>term</t>
   </si>
   <si>
-    <t>normalized LR</t>
+    <t>Gradient Boosted Trees</t>
   </si>
   <si>
-    <t>normalized MLPR</t>
+    <t>Linear Regression</t>
   </si>
   <si>
-    <t>normalized ZEROR</t>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>ZeroR</t>
   </si>
 </sst>
 </file>
@@ -181,6 +185,1455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>NRMSE for Next Term GPA Prediction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gradient Boosted Trees</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.15360541300650438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19717511334352919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17037379566567984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11401947611795984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11265050681501694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4098153328822655E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3274726130732761E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1224465756653058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0335856361957539E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20128181654328492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2578072171061229E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12728645909545466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E16-430B-804B-6FC8E4850680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$4:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.17656964512263512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21581288595893541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15693791695780912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11308621993028009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11628547771582466</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2055575555213419E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1054044701327336E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11561297875470511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4735674674243334E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19833259050716653</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1514943300742719E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10365831542797982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E16-430B-804B-6FC8E4850680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$O$4:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.15729495168259933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20084127459490678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17006521969788191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10608812794165122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11377927342525836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7532515641308429E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1121891097085509E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11455833199408673</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4392586059024596E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19839802486821512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5203493904913925E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5987736950434915E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E16-430B-804B-6FC8E4850680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZeroR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$4:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24308134186525437</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37604348961155448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31541076825508763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20817668091810557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19140351506661818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1786756418410746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.170001548191548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20416396800075656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3128324848985422E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13773374538818672</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7869952397926631E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16848786946276259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E16-430B-804B-6FC8E4850680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="504759576"/>
+        <c:axId val="504761544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504759576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Term Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504761544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504761544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>NRMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504759576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8672,7 +10125,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9050,8 +10503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9082,17 +10535,20 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -9131,6 +10587,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",2)/$F$4</f>
         <v>0.9723253674610175</v>
       </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
       <c r="M4">
         <f>H4/4</f>
         <v>0.15360541300650438</v>
@@ -9184,6 +10643,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",3)/$F$5</f>
         <v>1.5041739584462179</v>
       </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
       <c r="M5">
         <f t="shared" ref="M5:P16" si="0">H5/4</f>
         <v>0.19717511334352919</v>
@@ -9237,6 +10699,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",4)/$F$6</f>
         <v>1.2616430730203505</v>
       </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
       <c r="M6">
         <f t="shared" si="0"/>
         <v>0.17037379566567984</v>
@@ -9290,6 +10755,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",5)/$F$7</f>
         <v>0.83270672367242227</v>
       </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
       <c r="M7">
         <f t="shared" si="0"/>
         <v>0.11401947611795984</v>
@@ -9343,6 +10811,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",6)/$F$8</f>
         <v>0.76561406026647272</v>
       </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
       <c r="M8">
         <f t="shared" si="0"/>
         <v>0.11265050681501694</v>
@@ -9396,6 +10867,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",7)/$F$9</f>
         <v>0.71470256736429838</v>
       </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
       <c r="M9">
         <f t="shared" si="0"/>
         <v>6.4098153328822655E-2</v>
@@ -9449,6 +10923,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",8)/$F$10</f>
         <v>0.68000619276619201</v>
       </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
       <c r="M10">
         <f t="shared" si="0"/>
         <v>6.3274726130732761E-2</v>
@@ -9502,6 +10979,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",9)/$F$11</f>
         <v>0.81665587200302625</v>
       </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
       <c r="M11">
         <f t="shared" si="0"/>
         <v>0.1224465756653058</v>
@@ -9555,6 +11035,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",10)/$F$12</f>
         <v>0.37251329939594169</v>
       </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
       <c r="M12">
         <f t="shared" si="0"/>
         <v>9.0335856361957539E-2</v>
@@ -9608,6 +11091,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",11)/$F$13</f>
         <v>0.55093498155274689</v>
       </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
       <c r="M13">
         <f t="shared" si="0"/>
         <v>0.20128181654328492</v>
@@ -9661,6 +11147,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",12)/$F$14</f>
         <v>0.23147980959170653</v>
       </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
       <c r="M14">
         <f t="shared" si="0"/>
         <v>2.2578072171061229E-2</v>
@@ -9714,6 +11203,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",13)/$F$15</f>
         <v>0.67395147785105036</v>
       </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
       <c r="M15">
         <f t="shared" si="0"/>
         <v>0.12728645909545466</v>
@@ -9767,6 +11259,9 @@
         <f>GETPIVOTDATA("Sum of ZEROR-residual",$A$3,"next term",14)/$F$16</f>
         <v>0.29859652715409801</v>
       </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
       <c r="M16">
         <f t="shared" si="0"/>
         <v>0.55977077266133157</v>
@@ -9802,11 +11297,24 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U562"/>
   <sheetViews>
